--- a/ofc/estimates/सेतिदेवी मन्दिर संरक्षण/changed estimate सेतिदेवी मन्दिर संरक्षण.xlsx
+++ b/ofc/estimates/सेतिदेवी मन्दिर संरक्षण/changed estimate सेतिदेवी मन्दिर संरक्षण.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\081-082\ofc\estimates\सेतिदेवी मन्दिर संरक्षण\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\081_082\ofc\ofc\estimates\सेतिदेवी मन्दिर संरक्षण\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="estimate" sheetId="21" r:id="rId1"/>
@@ -41,12 +41,12 @@
     <definedName name="description_781">[5]Abstract!$B$299</definedName>
     <definedName name="description_783">[1]Abstract!$B$301</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">estimate!$A$1:$K$54</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">Valuated!$A$1:$K$54</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">Valuated!$A$1:$K$55</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">estimate!$1:$8</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">Valuated!$1:$8</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">WCR!$1:$12</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -243,10 +243,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="16" x14ac:knownFonts="1">
     <font>
@@ -405,7 +405,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -415,7 +415,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -435,14 +435,14 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -451,7 +451,7 @@
     <xf numFmtId="1" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="13" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -476,7 +476,7 @@
     <xf numFmtId="1" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -487,9 +487,6 @@
     </xf>
     <xf numFmtId="1" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -509,7 +506,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -518,7 +515,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -533,7 +530,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -549,53 +546,29 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -608,17 +581,44 @@
     <xf numFmtId="2" fontId="15" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -941,7 +941,7 @@
       <sheetName val="PPMO_BOQ"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
+      <sheetData sheetId="0" refreshError="1"/>
       <sheetData sheetId="1">
         <row r="299">
           <cell r="B299" t="str">
@@ -949,25 +949,25 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="10" refreshError="1"/>
+      <sheetData sheetId="11" refreshError="1"/>
+      <sheetData sheetId="12" refreshError="1"/>
+      <sheetData sheetId="13" refreshError="1"/>
+      <sheetData sheetId="14" refreshError="1"/>
+      <sheetData sheetId="15" refreshError="1"/>
+      <sheetData sheetId="16" refreshError="1"/>
+      <sheetData sheetId="17" refreshError="1"/>
+      <sheetData sheetId="18" refreshError="1"/>
+      <sheetData sheetId="19" refreshError="1"/>
+      <sheetData sheetId="20" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1238,137 +1238,137 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" customWidth="1"/>
-    <col min="2" max="2" width="33.7109375" customWidth="1"/>
-    <col min="3" max="3" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5703125" customWidth="1"/>
-    <col min="5" max="5" width="8.5703125" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" customWidth="1"/>
+    <col min="2" max="2" width="33.6640625" customWidth="1"/>
+    <col min="3" max="3" width="4.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5546875" customWidth="1"/>
+    <col min="5" max="5" width="8.5546875" customWidth="1"/>
     <col min="6" max="6" width="8" customWidth="1"/>
-    <col min="7" max="7" width="8.5703125" customWidth="1"/>
+    <col min="7" max="7" width="8.5546875" customWidth="1"/>
     <col min="8" max="8" width="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="85" t="s">
+    <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
-      <c r="H1" s="85"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="85"/>
-      <c r="K1" s="85"/>
-    </row>
-    <row r="2" spans="1:19" s="1" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="86" t="s">
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+    </row>
+    <row r="2" spans="1:19" s="1" customFormat="1" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="86"/>
-      <c r="I2" s="86"/>
-      <c r="J2" s="86"/>
-      <c r="K2" s="86"/>
-    </row>
-    <row r="3" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="78" t="s">
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="68"/>
+    </row>
+    <row r="3" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="78"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
-      <c r="G3" s="78"/>
-      <c r="H3" s="78"/>
-      <c r="I3" s="78"/>
-      <c r="J3" s="78"/>
-      <c r="K3" s="78"/>
-    </row>
-    <row r="4" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="78" t="s">
+      <c r="B3" s="69"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="69"/>
+      <c r="I3" s="69"/>
+      <c r="J3" s="69"/>
+      <c r="K3" s="69"/>
+    </row>
+    <row r="4" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="78"/>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78"/>
-      <c r="K4" s="78"/>
-    </row>
-    <row r="5" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="87" t="s">
+      <c r="B4" s="69"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="69"/>
+      <c r="K4" s="69"/>
+    </row>
+    <row r="5" spans="1:19" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A5" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="87"/>
-      <c r="C5" s="87"/>
-      <c r="D5" s="87"/>
-      <c r="E5" s="87"/>
-      <c r="F5" s="87"/>
-      <c r="G5" s="87"/>
-      <c r="H5" s="87"/>
-      <c r="I5" s="87"/>
-      <c r="J5" s="87"/>
-      <c r="K5" s="87"/>
-    </row>
-    <row r="6" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="68" t="s">
+      <c r="B5" s="70"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="70"/>
+      <c r="F5" s="70"/>
+      <c r="G5" s="70"/>
+      <c r="H5" s="70"/>
+      <c r="I5" s="70"/>
+      <c r="J5" s="70"/>
+      <c r="K5" s="70"/>
+    </row>
+    <row r="6" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="65" t="s">
         <v>52</v>
       </c>
-      <c r="B6" s="68"/>
-      <c r="C6" s="68"/>
-      <c r="D6" s="68"/>
-      <c r="E6" s="68"/>
-      <c r="F6" s="68"/>
+      <c r="B6" s="65"/>
+      <c r="C6" s="65"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="65"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="84" t="s">
+      <c r="H6" s="66" t="s">
         <v>45</v>
       </c>
-      <c r="I6" s="84"/>
-      <c r="J6" s="84"/>
-      <c r="K6" s="84"/>
+      <c r="I6" s="66"/>
+      <c r="J6" s="66"/>
+      <c r="K6" s="66"/>
       <c r="O6" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="81" t="s">
+    <row r="7" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="72" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="81"/>
-      <c r="C7" s="81"/>
-      <c r="D7" s="81"/>
-      <c r="E7" s="81"/>
-      <c r="F7" s="81"/>
+      <c r="B7" s="72"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="72"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="82" t="s">
+      <c r="H7" s="73" t="s">
         <v>54</v>
       </c>
-      <c r="I7" s="82"/>
-      <c r="J7" s="82"/>
-      <c r="K7" s="82"/>
-    </row>
-    <row r="8" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I7" s="73"/>
+      <c r="J7" s="73"/>
+      <c r="K7" s="73"/>
+    </row>
+    <row r="8" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>5</v>
       </c>
@@ -1406,22 +1406,22 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="135" x14ac:dyDescent="0.25">
-      <c r="A9" s="64">
+    <row r="9" spans="1:19" ht="124.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="63">
         <v>1</v>
       </c>
       <c r="B9" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="37"/>
-      <c r="G9" s="37"/>
-      <c r="H9" s="37"/>
-      <c r="I9" s="37"/>
-      <c r="J9" s="37"/>
-      <c r="K9" s="37"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="36"/>
+      <c r="K9" s="36"/>
       <c r="N9" t="s">
         <v>47</v>
       </c>
@@ -1429,34 +1429,33 @@
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="18"/>
-      <c r="B10" s="38" t="str">
+      <c r="B10" s="37" t="str">
         <f>B16</f>
         <v>-For plum wall</v>
       </c>
-      <c r="C10" s="37">
+      <c r="C10" s="36">
         <v>0.5</v>
       </c>
-      <c r="D10" s="39">
+      <c r="D10" s="38">
         <f>D41</f>
         <v>12.3</v>
       </c>
-      <c r="E10" s="39">
-        <f>1.75</f>
-        <v>1.75</v>
-      </c>
-      <c r="F10" s="39">
-        <f>2</f>
-        <v>2</v>
-      </c>
-      <c r="G10" s="40">
+      <c r="E10" s="38">
+        <f>E21</f>
+        <v>1.65</v>
+      </c>
+      <c r="F10" s="38">
+        <v>1.5</v>
+      </c>
+      <c r="G10" s="39">
         <f>PRODUCT(C10:F10)</f>
-        <v>21.525000000000002</v>
-      </c>
-      <c r="H10" s="41"/>
-      <c r="I10" s="41"/>
-      <c r="J10" s="41"/>
+        <v>15.221250000000001</v>
+      </c>
+      <c r="H10" s="40"/>
+      <c r="I10" s="40"/>
+      <c r="J10" s="40"/>
       <c r="K10" s="21"/>
       <c r="M10" s="25"/>
       <c r="N10" s="1"/>
@@ -1466,34 +1465,33 @@
       <c r="R10" s="25"/>
       <c r="S10" s="25"/>
     </row>
-    <row r="11" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="18"/>
-      <c r="B11" s="38" t="str">
+      <c r="B11" s="37" t="str">
         <f>B17</f>
         <v>-For masonary wall</v>
       </c>
-      <c r="C11" s="37">
+      <c r="C11" s="36">
         <v>0.5</v>
       </c>
-      <c r="D11" s="39">
+      <c r="D11" s="38">
         <f>D17</f>
         <v>2.7430661383724475</v>
       </c>
-      <c r="E11" s="39">
-        <f>F34/2</f>
-        <v>1.2</v>
-      </c>
-      <c r="F11" s="39">
-        <f>2</f>
-        <v>2</v>
-      </c>
-      <c r="G11" s="40">
+      <c r="E11" s="38">
+        <f>E22</f>
+        <v>1.2250000000000001</v>
+      </c>
+      <c r="F11" s="38">
+        <v>1</v>
+      </c>
+      <c r="G11" s="39">
         <f>PRODUCT(C11:F11)</f>
-        <v>3.291679366046937</v>
-      </c>
-      <c r="H11" s="41"/>
-      <c r="I11" s="41"/>
-      <c r="J11" s="41"/>
+        <v>1.6801280097531242</v>
+      </c>
+      <c r="H11" s="40"/>
+      <c r="I11" s="40"/>
+      <c r="J11" s="40"/>
       <c r="K11" s="21"/>
       <c r="M11" s="25"/>
       <c r="N11" s="1"/>
@@ -1503,9 +1501,9 @@
       <c r="R11" s="25"/>
       <c r="S11" s="25"/>
     </row>
-    <row r="12" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="18"/>
-      <c r="B12" s="38" t="s">
+      <c r="B12" s="37" t="s">
         <v>42</v>
       </c>
       <c r="C12" s="19"/>
@@ -1514,7 +1512,7 @@
       <c r="F12" s="21"/>
       <c r="G12" s="23">
         <f>SUM(G10:G11)</f>
-        <v>24.816679366046941</v>
+        <v>16.901378009753124</v>
       </c>
       <c r="H12" s="22" t="s">
         <v>41</v>
@@ -1522,9 +1520,9 @@
       <c r="I12" s="23">
         <v>64.63</v>
       </c>
-      <c r="J12" s="42">
+      <c r="J12" s="41">
         <f>G12*I12</f>
-        <v>1603.9019874276137</v>
+        <v>1092.3360607703444</v>
       </c>
       <c r="K12" s="21"/>
       <c r="M12" s="25"/>
@@ -1535,27 +1533,27 @@
       <c r="R12" s="25"/>
       <c r="S12" s="25"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="41"/>
-      <c r="B13" s="38" t="s">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A13" s="40"/>
+      <c r="B13" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="43"/>
-      <c r="D13" s="44"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="44"/>
-      <c r="G13" s="44"/>
-      <c r="H13" s="44"/>
-      <c r="I13" s="44"/>
-      <c r="J13" s="46">
+      <c r="C13" s="42"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="43"/>
+      <c r="H13" s="43"/>
+      <c r="I13" s="43"/>
+      <c r="J13" s="45">
         <f>0.13*G12*(19284/360)</f>
-        <v>172.81508287869556</v>
-      </c>
-      <c r="K13" s="37"/>
-    </row>
-    <row r="14" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>117.69556266725084</v>
+      </c>
+      <c r="K13" s="36"/>
+    </row>
+    <row r="14" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="18"/>
-      <c r="B14" s="38"/>
+      <c r="B14" s="37"/>
       <c r="C14" s="19"/>
       <c r="D14" s="20"/>
       <c r="E14" s="21"/>
@@ -1563,7 +1561,7 @@
       <c r="G14" s="23"/>
       <c r="H14" s="22"/>
       <c r="I14" s="23"/>
-      <c r="J14" s="42"/>
+      <c r="J14" s="41"/>
       <c r="K14" s="21"/>
       <c r="M14" s="25"/>
       <c r="N14" s="1"/>
@@ -1573,7 +1571,7 @@
       <c r="R14" s="25"/>
       <c r="S14" s="25"/>
     </row>
-    <row r="15" spans="1:19" ht="90" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A15" s="18">
         <v>2</v>
       </c>
@@ -1587,7 +1585,7 @@
       <c r="G15" s="23"/>
       <c r="H15" s="22"/>
       <c r="I15" s="23"/>
-      <c r="J15" s="42"/>
+      <c r="J15" s="41"/>
       <c r="K15" s="21"/>
       <c r="M15" s="25"/>
       <c r="N15" s="1"/>
@@ -1597,32 +1595,33 @@
       <c r="R15" s="25"/>
       <c r="S15" s="25"/>
     </row>
-    <row r="16" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="18"/>
-      <c r="B16" s="38" t="str">
+      <c r="B16" s="37" t="str">
         <f>B21</f>
         <v>-For plum wall</v>
       </c>
-      <c r="C16" s="37">
+      <c r="C16" s="36">
         <v>0.5</v>
       </c>
-      <c r="D16" s="39">
+      <c r="D16" s="38">
         <f>D21</f>
         <v>12.3</v>
       </c>
-      <c r="E16" s="39">
-        <v>1.75</v>
-      </c>
-      <c r="F16" s="39">
-        <v>2</v>
-      </c>
-      <c r="G16" s="40">
+      <c r="E16" s="38">
+        <f>E21</f>
+        <v>1.65</v>
+      </c>
+      <c r="F16" s="38">
+        <v>1.5</v>
+      </c>
+      <c r="G16" s="39">
         <f>PRODUCT(C16:F16)</f>
-        <v>21.525000000000002</v>
-      </c>
-      <c r="H16" s="41"/>
-      <c r="I16" s="41"/>
-      <c r="J16" s="41"/>
+        <v>15.221250000000001</v>
+      </c>
+      <c r="H16" s="40"/>
+      <c r="I16" s="40"/>
+      <c r="J16" s="40"/>
       <c r="K16" s="21"/>
       <c r="M16" s="25"/>
       <c r="N16" s="1"/>
@@ -1632,32 +1631,33 @@
       <c r="R16" s="25"/>
       <c r="S16" s="25"/>
     </row>
-    <row r="17" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="18"/>
-      <c r="B17" s="38" t="str">
+      <c r="B17" s="37" t="str">
         <f>B22</f>
         <v>-For masonary wall</v>
       </c>
-      <c r="C17" s="37">
+      <c r="C17" s="36">
         <v>0.5</v>
       </c>
-      <c r="D17" s="39">
+      <c r="D17" s="38">
         <f>D22</f>
         <v>2.7430661383724475</v>
       </c>
-      <c r="E17" s="39">
-        <v>1.2</v>
-      </c>
-      <c r="F17" s="39">
+      <c r="E17" s="38">
+        <f>E22</f>
+        <v>1.2250000000000001</v>
+      </c>
+      <c r="F17" s="38">
         <v>1.5</v>
       </c>
-      <c r="G17" s="40">
+      <c r="G17" s="39">
         <f>PRODUCT(C17:F17)</f>
-        <v>2.4687595245352028</v>
-      </c>
-      <c r="H17" s="41"/>
-      <c r="I17" s="41"/>
-      <c r="J17" s="41"/>
+        <v>2.5201920146296861</v>
+      </c>
+      <c r="H17" s="40"/>
+      <c r="I17" s="40"/>
+      <c r="J17" s="40"/>
       <c r="K17" s="21"/>
       <c r="M17" s="25"/>
       <c r="N17" s="1"/>
@@ -1667,9 +1667,9 @@
       <c r="R17" s="25"/>
       <c r="S17" s="25"/>
     </row>
-    <row r="18" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="18"/>
-      <c r="B18" s="38" t="s">
+      <c r="B18" s="37" t="s">
         <v>42</v>
       </c>
       <c r="C18" s="19"/>
@@ -1678,7 +1678,7 @@
       <c r="F18" s="21"/>
       <c r="G18" s="23">
         <f>SUM(G16:G17)</f>
-        <v>23.993759524535204</v>
+        <v>17.741442014629687</v>
       </c>
       <c r="H18" s="22" t="s">
         <v>41</v>
@@ -1686,9 +1686,9 @@
       <c r="I18" s="23">
         <v>404.28</v>
       </c>
-      <c r="J18" s="42">
+      <c r="J18" s="41">
         <f>G18*I18</f>
-        <v>9700.1971005790911</v>
+        <v>7172.5101776744896</v>
       </c>
       <c r="K18" s="21"/>
       <c r="M18" s="25"/>
@@ -1699,9 +1699,9 @@
       <c r="R18" s="25"/>
       <c r="S18" s="25"/>
     </row>
-    <row r="19" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="18"/>
-      <c r="B19" s="38"/>
+      <c r="B19" s="37"/>
       <c r="C19" s="19"/>
       <c r="D19" s="20"/>
       <c r="E19" s="21"/>
@@ -1709,7 +1709,7 @@
       <c r="G19" s="23"/>
       <c r="H19" s="22"/>
       <c r="I19" s="23"/>
-      <c r="J19" s="42"/>
+      <c r="J19" s="41"/>
       <c r="K19" s="21"/>
       <c r="M19" s="25"/>
       <c r="N19" s="1"/>
@@ -1719,7 +1719,7 @@
       <c r="R19" s="25"/>
       <c r="S19" s="25"/>
     </row>
-    <row r="20" spans="1:19" ht="90" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" ht="69" x14ac:dyDescent="0.3">
       <c r="A20" s="18">
         <v>3</v>
       </c>
@@ -1733,7 +1733,7 @@
       <c r="G20" s="23"/>
       <c r="H20" s="22"/>
       <c r="I20" s="23"/>
-      <c r="J20" s="42"/>
+      <c r="J20" s="41"/>
       <c r="K20" s="21"/>
       <c r="M20" s="25"/>
       <c r="N20" s="1"/>
@@ -1743,33 +1743,33 @@
       <c r="R20" s="25"/>
       <c r="S20" s="25"/>
     </row>
-    <row r="21" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="18"/>
-      <c r="B21" s="38" t="str">
+      <c r="B21" s="37" t="str">
         <f>B27</f>
         <v>-For plum wall</v>
       </c>
-      <c r="C21" s="37">
+      <c r="C21" s="36">
         <v>1</v>
       </c>
-      <c r="D21" s="39">
+      <c r="D21" s="38">
         <f>D27</f>
         <v>12.3</v>
       </c>
-      <c r="E21" s="39">
+      <c r="E21" s="38">
         <f>E27</f>
-        <v>1.75</v>
-      </c>
-      <c r="F21" s="39">
+        <v>1.65</v>
+      </c>
+      <c r="F21" s="38">
         <v>0.15</v>
       </c>
-      <c r="G21" s="40">
+      <c r="G21" s="39">
         <f>PRODUCT(C21:F21)</f>
-        <v>3.2287500000000002</v>
-      </c>
-      <c r="H21" s="41"/>
-      <c r="I21" s="41"/>
-      <c r="J21" s="41"/>
+        <v>3.0442500000000003</v>
+      </c>
+      <c r="H21" s="40"/>
+      <c r="I21" s="40"/>
+      <c r="J21" s="40"/>
       <c r="K21" s="21"/>
       <c r="M21" s="25"/>
       <c r="N21" s="1"/>
@@ -1779,34 +1779,34 @@
       <c r="R21" s="25"/>
       <c r="S21" s="25"/>
     </row>
-    <row r="22" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="18"/>
-      <c r="B22" s="38" t="str">
+      <c r="B22" s="37" t="str">
         <f>B28</f>
         <v>-For masonary wall</v>
       </c>
-      <c r="C22" s="37">
+      <c r="C22" s="36">
         <f>C28</f>
         <v>1</v>
       </c>
-      <c r="D22" s="39">
+      <c r="D22" s="38">
         <f>D28</f>
         <v>2.7430661383724475</v>
       </c>
-      <c r="E22" s="39">
+      <c r="E22" s="38">
         <f>E28</f>
-        <v>1.2</v>
-      </c>
-      <c r="F22" s="39">
+        <v>1.2250000000000001</v>
+      </c>
+      <c r="F22" s="38">
         <v>0.15</v>
       </c>
-      <c r="G22" s="40">
+      <c r="G22" s="39">
         <f>PRODUCT(C22:F22)</f>
-        <v>0.49375190490704052</v>
-      </c>
-      <c r="H22" s="41"/>
-      <c r="I22" s="41"/>
-      <c r="J22" s="41"/>
+        <v>0.50403840292593727</v>
+      </c>
+      <c r="H22" s="40"/>
+      <c r="I22" s="40"/>
+      <c r="J22" s="40"/>
       <c r="K22" s="21"/>
       <c r="M22" s="25"/>
       <c r="N22" s="1"/>
@@ -1816,63 +1816,63 @@
       <c r="R22" s="25"/>
       <c r="S22" s="25"/>
     </row>
-    <row r="23" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="41"/>
-      <c r="B23" s="38" t="s">
+    <row r="23" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="40"/>
+      <c r="B23" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="C23" s="43"/>
-      <c r="D23" s="44"/>
-      <c r="E23" s="44"/>
-      <c r="F23" s="44"/>
-      <c r="G23" s="34">
+      <c r="C23" s="42"/>
+      <c r="D23" s="43"/>
+      <c r="E23" s="43"/>
+      <c r="F23" s="43"/>
+      <c r="G23" s="33">
         <f>SUM(G21:G22)</f>
-        <v>3.7225019049070407</v>
-      </c>
-      <c r="H23" s="34" t="s">
+        <v>3.5482884029259374</v>
+      </c>
+      <c r="H23" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="I23" s="34">
+      <c r="I23" s="33">
         <v>4561.53</v>
       </c>
-      <c r="J23" s="45">
+      <c r="J23" s="44">
         <f>G23*I23</f>
-        <v>16980.304114290611</v>
-      </c>
-      <c r="K23" s="37"/>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A24" s="41"/>
-      <c r="B24" s="38" t="s">
+        <v>16185.62399859875</v>
+      </c>
+      <c r="K23" s="36"/>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A24" s="40"/>
+      <c r="B24" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="C24" s="43"/>
-      <c r="D24" s="44"/>
-      <c r="E24" s="44"/>
-      <c r="F24" s="44"/>
-      <c r="G24" s="44"/>
-      <c r="H24" s="44"/>
-      <c r="I24" s="44"/>
-      <c r="J24" s="46">
+      <c r="C24" s="42"/>
+      <c r="D24" s="43"/>
+      <c r="E24" s="43"/>
+      <c r="F24" s="43"/>
+      <c r="G24" s="43"/>
+      <c r="H24" s="43"/>
+      <c r="I24" s="43"/>
+      <c r="J24" s="45">
         <f>0.13*G23*(15452.6/5)</f>
-        <v>1495.58065632993</v>
-      </c>
-      <c r="K24" s="37"/>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A25" s="41"/>
-      <c r="B25" s="38"/>
-      <c r="C25" s="43"/>
-      <c r="D25" s="44"/>
-      <c r="E25" s="44"/>
-      <c r="F25" s="44"/>
-      <c r="G25" s="44"/>
-      <c r="H25" s="44"/>
-      <c r="I25" s="44"/>
-      <c r="J25" s="46"/>
-      <c r="K25" s="37"/>
-    </row>
-    <row r="26" spans="1:19" ht="75" x14ac:dyDescent="0.25">
+        <v>1425.5873157513868</v>
+      </c>
+      <c r="K24" s="36"/>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A25" s="40"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="43"/>
+      <c r="E25" s="43"/>
+      <c r="F25" s="43"/>
+      <c r="G25" s="43"/>
+      <c r="H25" s="43"/>
+      <c r="I25" s="43"/>
+      <c r="J25" s="45"/>
+      <c r="K25" s="36"/>
+    </row>
+    <row r="26" spans="1:19" ht="69" x14ac:dyDescent="0.3">
       <c r="A26" s="18">
         <v>4</v>
       </c>
@@ -1886,7 +1886,7 @@
       <c r="G26" s="23"/>
       <c r="H26" s="22"/>
       <c r="I26" s="23"/>
-      <c r="J26" s="42"/>
+      <c r="J26" s="41"/>
       <c r="K26" s="21"/>
       <c r="M26" s="25"/>
       <c r="N26" s="1"/>
@@ -1896,32 +1896,33 @@
       <c r="R26" s="25"/>
       <c r="S26" s="25"/>
     </row>
-    <row r="27" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="18"/>
-      <c r="B27" s="38" t="str">
+      <c r="B27" s="37" t="str">
         <f>B41</f>
         <v>-For plum wall</v>
       </c>
-      <c r="C27" s="37">
+      <c r="C27" s="36">
         <v>1</v>
       </c>
-      <c r="D27" s="39">
+      <c r="D27" s="38">
         <f>D41</f>
         <v>12.3</v>
       </c>
-      <c r="E27" s="39">
-        <v>1.75</v>
-      </c>
-      <c r="F27" s="39">
+      <c r="E27" s="38">
+        <f>F41/2</f>
+        <v>1.65</v>
+      </c>
+      <c r="F27" s="38">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="G27" s="40">
+      <c r="G27" s="39">
         <f>PRODUCT(C27:F27)</f>
-        <v>1.6143750000000001</v>
-      </c>
-      <c r="H27" s="41"/>
-      <c r="I27" s="41"/>
-      <c r="J27" s="41"/>
+        <v>1.5221250000000002</v>
+      </c>
+      <c r="H27" s="40"/>
+      <c r="I27" s="40"/>
+      <c r="J27" s="40"/>
       <c r="K27" s="21"/>
       <c r="M27" s="25"/>
       <c r="N27" s="1"/>
@@ -1931,34 +1932,34 @@
       <c r="R27" s="25"/>
       <c r="S27" s="25"/>
     </row>
-    <row r="28" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="18"/>
-      <c r="B28" s="38" t="str">
+      <c r="B28" s="37" t="str">
         <f>B34</f>
         <v>-For masonary wall</v>
       </c>
-      <c r="C28" s="37">
+      <c r="C28" s="36">
         <f>C34</f>
         <v>1</v>
       </c>
-      <c r="D28" s="39">
+      <c r="D28" s="38">
         <f>D34</f>
         <v>2.7430661383724475</v>
       </c>
-      <c r="E28" s="39">
+      <c r="E28" s="38">
         <f>F34/2</f>
-        <v>1.2</v>
-      </c>
-      <c r="F28" s="39">
+        <v>1.2250000000000001</v>
+      </c>
+      <c r="F28" s="38">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="G28" s="40">
+      <c r="G28" s="39">
         <f t="shared" ref="G28:G29" si="0">PRODUCT(C28:F28)</f>
-        <v>0.24687595245352026</v>
-      </c>
-      <c r="H28" s="41"/>
-      <c r="I28" s="41"/>
-      <c r="J28" s="41"/>
+        <v>0.25201920146296863</v>
+      </c>
+      <c r="H28" s="40"/>
+      <c r="I28" s="40"/>
+      <c r="J28" s="40"/>
       <c r="K28" s="21"/>
       <c r="M28" s="25"/>
       <c r="N28" s="1"/>
@@ -1968,30 +1969,30 @@
       <c r="R28" s="25"/>
       <c r="S28" s="25"/>
     </row>
-    <row r="29" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="18"/>
-      <c r="B29" s="38"/>
-      <c r="C29" s="37">
+      <c r="B29" s="37"/>
+      <c r="C29" s="36">
         <f>C28</f>
         <v>1</v>
       </c>
-      <c r="D29" s="39">
+      <c r="D29" s="38">
         <f>D28</f>
         <v>2.7430661383724475</v>
       </c>
-      <c r="E29" s="39">
+      <c r="E29" s="38">
         <v>0.5</v>
       </c>
-      <c r="F29" s="39">
+      <c r="F29" s="38">
         <v>0.05</v>
       </c>
-      <c r="G29" s="40">
+      <c r="G29" s="39">
         <f t="shared" si="0"/>
         <v>6.8576653459311188E-2</v>
       </c>
-      <c r="H29" s="41"/>
-      <c r="I29" s="41"/>
-      <c r="J29" s="41"/>
+      <c r="H29" s="40"/>
+      <c r="I29" s="40"/>
+      <c r="J29" s="40"/>
       <c r="K29" s="21"/>
       <c r="M29" s="25"/>
       <c r="N29" s="1"/>
@@ -2001,238 +2002,241 @@
       <c r="R29" s="25"/>
       <c r="S29" s="25"/>
     </row>
-    <row r="30" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="41"/>
-      <c r="B30" s="38" t="s">
+    <row r="30" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="40"/>
+      <c r="B30" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="C30" s="43"/>
-      <c r="D30" s="44"/>
-      <c r="E30" s="44"/>
-      <c r="F30" s="44"/>
-      <c r="G30" s="34">
+      <c r="C30" s="42"/>
+      <c r="D30" s="43"/>
+      <c r="E30" s="43"/>
+      <c r="F30" s="43"/>
+      <c r="G30" s="33">
         <f>SUM(G27:G29)</f>
-        <v>1.9298276059128314</v>
-      </c>
-      <c r="H30" s="34" t="s">
+        <v>1.84272085492228</v>
+      </c>
+      <c r="H30" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="I30" s="34">
+      <c r="I30" s="33">
         <v>10634.5</v>
       </c>
-      <c r="J30" s="45">
+      <c r="J30" s="44">
         <f>G30*I30</f>
-        <v>20522.751675080006</v>
-      </c>
-      <c r="K30" s="37"/>
-    </row>
-    <row r="31" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="41"/>
-      <c r="B31" s="38" t="s">
+        <v>19596.414931670988</v>
+      </c>
+      <c r="K30" s="36"/>
+    </row>
+    <row r="31" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="40"/>
+      <c r="B31" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="C31" s="43"/>
-      <c r="D31" s="44"/>
-      <c r="E31" s="44"/>
-      <c r="F31" s="44"/>
-      <c r="G31" s="44"/>
-      <c r="H31" s="44"/>
-      <c r="I31" s="44"/>
-      <c r="J31" s="46">
+      <c r="C31" s="42"/>
+      <c r="D31" s="43"/>
+      <c r="E31" s="43"/>
+      <c r="F31" s="43"/>
+      <c r="G31" s="43"/>
+      <c r="H31" s="43"/>
+      <c r="I31" s="43"/>
+      <c r="J31" s="45">
         <f>0.13*G30*((114907.3+6135.3)/15)</f>
-        <v>2024.4583750860259</v>
-      </c>
-      <c r="K31" s="37"/>
-    </row>
-    <row r="32" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="41"/>
-      <c r="B32" s="38"/>
-      <c r="C32" s="43"/>
-      <c r="D32" s="44"/>
-      <c r="E32" s="44"/>
-      <c r="F32" s="44"/>
-      <c r="G32" s="44"/>
-      <c r="H32" s="44"/>
-      <c r="I32" s="44"/>
-      <c r="J32" s="46"/>
-      <c r="K32" s="37"/>
-    </row>
-    <row r="33" spans="1:19" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A33" s="64">
+        <v>1933.0802690681351</v>
+      </c>
+      <c r="K31" s="36"/>
+    </row>
+    <row r="32" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="40"/>
+      <c r="B32" s="37"/>
+      <c r="C32" s="42"/>
+      <c r="D32" s="43"/>
+      <c r="E32" s="43"/>
+      <c r="F32" s="43"/>
+      <c r="G32" s="43"/>
+      <c r="H32" s="43"/>
+      <c r="I32" s="43"/>
+      <c r="J32" s="45"/>
+      <c r="K32" s="36"/>
+    </row>
+    <row r="33" spans="1:19" s="1" customFormat="1" ht="69" x14ac:dyDescent="0.3">
+      <c r="A33" s="63">
         <v>5</v>
       </c>
       <c r="B33" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="C33" s="65"/>
-      <c r="D33" s="40"/>
-      <c r="E33" s="40"/>
-      <c r="F33" s="40"/>
-      <c r="G33" s="40"/>
-      <c r="H33" s="40"/>
-      <c r="I33" s="40"/>
-      <c r="J33" s="46"/>
+      <c r="C33" s="64"/>
+      <c r="D33" s="39"/>
+      <c r="E33" s="39"/>
+      <c r="F33" s="39"/>
+      <c r="G33" s="39"/>
+      <c r="H33" s="39"/>
+      <c r="I33" s="39"/>
+      <c r="J33" s="45"/>
       <c r="K33" s="29"/>
     </row>
-    <row r="34" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="18"/>
-      <c r="B34" s="38" t="s">
+      <c r="B34" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="C34" s="37">
+      <c r="C34" s="36">
         <v>1</v>
       </c>
-      <c r="D34" s="39">
+      <c r="D34" s="38">
         <f>9/3.281</f>
         <v>2.7430661383724475</v>
       </c>
-      <c r="E34" s="39">
-        <f>((1.2+0.5)/2)</f>
-        <v>0.85</v>
-      </c>
-      <c r="F34" s="39">
-        <v>2.4</v>
-      </c>
-      <c r="G34" s="40">
+      <c r="E34" s="38">
+        <f>((F34/2+0.5)/2)</f>
+        <v>0.86250000000000004</v>
+      </c>
+      <c r="F34" s="38">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="G34" s="39">
         <f>PRODUCT(C34:F34)</f>
-        <v>5.5958549222797922</v>
-      </c>
-      <c r="H34" s="41"/>
-      <c r="I34" s="41"/>
-      <c r="J34" s="41"/>
+        <v>5.7964416336482785</v>
+      </c>
+      <c r="H34" s="40"/>
+      <c r="I34" s="40"/>
+      <c r="J34" s="40"/>
       <c r="K34" s="21"/>
       <c r="M34" s="25"/>
-      <c r="N34" s="1"/>
+      <c r="N34" s="1">
+        <f>8.75/3.281</f>
+        <v>2.6668698567509903</v>
+      </c>
       <c r="O34" s="1"/>
       <c r="P34" s="1"/>
       <c r="Q34" s="1"/>
       <c r="R34" s="25"/>
       <c r="S34" s="25"/>
     </row>
-    <row r="35" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="41"/>
-      <c r="B35" s="38" t="s">
+    <row r="35" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="40"/>
+      <c r="B35" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="C35" s="43"/>
-      <c r="D35" s="44"/>
-      <c r="E35" s="44"/>
-      <c r="F35" s="44"/>
-      <c r="G35" s="34">
+      <c r="C35" s="42"/>
+      <c r="D35" s="43"/>
+      <c r="E35" s="43"/>
+      <c r="F35" s="43"/>
+      <c r="G35" s="33">
         <f>SUM(G34:G34)</f>
-        <v>5.5958549222797922</v>
-      </c>
-      <c r="H35" s="34" t="s">
+        <v>5.7964416336482785</v>
+      </c>
+      <c r="H35" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="I35" s="34">
+      <c r="I35" s="33">
         <v>9709.43</v>
       </c>
-      <c r="J35" s="45">
+      <c r="J35" s="44">
         <f>G35*I35</f>
-        <v>54332.561658031082</v>
-      </c>
-      <c r="K35" s="37"/>
-    </row>
-    <row r="36" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="41"/>
-      <c r="B36" s="38" t="s">
+        <v>56280.144290993609</v>
+      </c>
+      <c r="K35" s="36"/>
+    </row>
+    <row r="36" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="40"/>
+      <c r="B36" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="C36" s="43"/>
-      <c r="D36" s="44"/>
-      <c r="E36" s="44"/>
-      <c r="F36" s="44"/>
-      <c r="G36" s="44"/>
-      <c r="H36" s="44"/>
-      <c r="I36" s="44"/>
-      <c r="J36" s="46">
+      <c r="C36" s="42"/>
+      <c r="D36" s="43"/>
+      <c r="E36" s="43"/>
+      <c r="F36" s="43"/>
+      <c r="G36" s="43"/>
+      <c r="H36" s="43"/>
+      <c r="I36" s="43"/>
+      <c r="J36" s="45">
         <f>0.13*G35*(27092.1/5)</f>
-        <v>3941.6899896373056</v>
-      </c>
-      <c r="K36" s="37"/>
-    </row>
-    <row r="37" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="41"/>
-      <c r="B37" s="38"/>
-      <c r="C37" s="43"/>
-      <c r="D37" s="44"/>
-      <c r="E37" s="44"/>
-      <c r="F37" s="44"/>
-      <c r="G37" s="44"/>
-      <c r="H37" s="44"/>
-      <c r="I37" s="44"/>
-      <c r="J37" s="46"/>
-      <c r="K37" s="37"/>
-    </row>
-    <row r="38" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="41"/>
-      <c r="B38" s="38"/>
-      <c r="C38" s="43"/>
-      <c r="D38" s="44"/>
-      <c r="E38" s="44"/>
-      <c r="F38" s="44"/>
-      <c r="G38" s="44"/>
-      <c r="H38" s="44"/>
-      <c r="I38" s="44"/>
-      <c r="J38" s="46"/>
-      <c r="K38" s="37"/>
-    </row>
-    <row r="39" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="41"/>
-      <c r="B39" s="38"/>
-      <c r="C39" s="43"/>
-      <c r="D39" s="44"/>
-      <c r="E39" s="44"/>
-      <c r="F39" s="44"/>
-      <c r="G39" s="44"/>
-      <c r="H39" s="44"/>
-      <c r="I39" s="44"/>
-      <c r="J39" s="46"/>
-      <c r="K39" s="37"/>
-    </row>
-    <row r="40" spans="1:19" s="1" customFormat="1" ht="120" x14ac:dyDescent="0.25">
-      <c r="A40" s="64">
-        <v>5</v>
+        <v>4082.9821859570256</v>
+      </c>
+      <c r="K36" s="36"/>
+    </row>
+    <row r="37" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="40"/>
+      <c r="B37" s="37"/>
+      <c r="C37" s="42"/>
+      <c r="D37" s="43"/>
+      <c r="E37" s="43"/>
+      <c r="F37" s="43"/>
+      <c r="G37" s="43"/>
+      <c r="H37" s="43"/>
+      <c r="I37" s="43"/>
+      <c r="J37" s="45"/>
+      <c r="K37" s="36"/>
+    </row>
+    <row r="38" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="40"/>
+      <c r="B38" s="37"/>
+      <c r="C38" s="42"/>
+      <c r="D38" s="43"/>
+      <c r="E38" s="43"/>
+      <c r="F38" s="43"/>
+      <c r="G38" s="43"/>
+      <c r="H38" s="43"/>
+      <c r="I38" s="43"/>
+      <c r="J38" s="45"/>
+      <c r="K38" s="36"/>
+    </row>
+    <row r="39" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="40"/>
+      <c r="B39" s="37"/>
+      <c r="C39" s="42"/>
+      <c r="D39" s="43"/>
+      <c r="E39" s="43"/>
+      <c r="F39" s="43"/>
+      <c r="G39" s="43"/>
+      <c r="H39" s="43"/>
+      <c r="I39" s="43"/>
+      <c r="J39" s="45"/>
+      <c r="K39" s="36"/>
+    </row>
+    <row r="40" spans="1:19" s="1" customFormat="1" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A40" s="63">
+        <v>6</v>
       </c>
       <c r="B40" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="C40" s="65"/>
-      <c r="D40" s="40"/>
-      <c r="E40" s="40"/>
-      <c r="F40" s="40"/>
-      <c r="G40" s="40"/>
-      <c r="H40" s="40"/>
-      <c r="I40" s="40"/>
-      <c r="J40" s="46"/>
+      <c r="C40" s="64"/>
+      <c r="D40" s="39"/>
+      <c r="E40" s="39"/>
+      <c r="F40" s="39"/>
+      <c r="G40" s="39"/>
+      <c r="H40" s="39"/>
+      <c r="I40" s="39"/>
+      <c r="J40" s="45"/>
       <c r="K40" s="29"/>
     </row>
-    <row r="41" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="18"/>
-      <c r="B41" s="38" t="s">
+      <c r="B41" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="C41" s="37">
+      <c r="C41" s="36">
         <v>1</v>
       </c>
-      <c r="D41" s="39">
+      <c r="D41" s="38">
         <v>12.3</v>
       </c>
-      <c r="E41" s="39">
-        <f>((1.75+0.6)/2)</f>
-        <v>1.175</v>
-      </c>
-      <c r="F41" s="39">
-        <v>3</v>
-      </c>
-      <c r="G41" s="40">
+      <c r="E41" s="38">
+        <f>((F41/2+0.5)/2)*0.99860714</f>
+        <v>1.0735026754999999</v>
+      </c>
+      <c r="F41" s="38">
+        <v>3.3</v>
+      </c>
+      <c r="G41" s="39">
         <f>PRODUCT(C41:F41)</f>
-        <v>43.357500000000002</v>
-      </c>
-      <c r="H41" s="41"/>
-      <c r="I41" s="41"/>
-      <c r="J41" s="41"/>
+        <v>43.573473598544993</v>
+      </c>
+      <c r="H41" s="40"/>
+      <c r="I41" s="40"/>
+      <c r="J41" s="40"/>
       <c r="K41" s="21"/>
       <c r="M41" s="25"/>
       <c r="N41" s="1"/>
@@ -2242,65 +2246,65 @@
       <c r="R41" s="25"/>
       <c r="S41" s="25"/>
     </row>
-    <row r="42" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="41"/>
-      <c r="B42" s="38" t="s">
+    <row r="42" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="40"/>
+      <c r="B42" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="C42" s="43"/>
-      <c r="D42" s="44"/>
-      <c r="E42" s="44"/>
-      <c r="F42" s="44"/>
-      <c r="G42" s="34">
+      <c r="C42" s="42"/>
+      <c r="D42" s="43"/>
+      <c r="E42" s="43"/>
+      <c r="F42" s="43"/>
+      <c r="G42" s="33">
         <f>SUM(G41:G41)</f>
-        <v>43.357500000000002</v>
-      </c>
-      <c r="H42" s="34" t="s">
+        <v>43.573473598544993</v>
+      </c>
+      <c r="H42" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="I42" s="34">
+      <c r="I42" s="33">
         <v>9623.4699999999993</v>
       </c>
-      <c r="J42" s="45">
+      <c r="J42" s="44">
         <f>G42*I42</f>
-        <v>417249.60052500002</v>
-      </c>
-      <c r="K42" s="37"/>
-    </row>
-    <row r="43" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="41"/>
-      <c r="B43" s="38" t="s">
+        <v>419328.01597138977</v>
+      </c>
+      <c r="K42" s="36"/>
+    </row>
+    <row r="43" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="40"/>
+      <c r="B43" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="C43" s="43"/>
-      <c r="D43" s="44"/>
-      <c r="E43" s="44"/>
-      <c r="F43" s="44"/>
-      <c r="G43" s="44"/>
-      <c r="H43" s="44"/>
-      <c r="I43" s="44"/>
-      <c r="J43" s="46">
+      <c r="C43" s="42"/>
+      <c r="D43" s="43"/>
+      <c r="E43" s="43"/>
+      <c r="F43" s="43"/>
+      <c r="G43" s="43"/>
+      <c r="H43" s="43"/>
+      <c r="I43" s="43"/>
+      <c r="J43" s="45">
         <f>0.13*G42*((59609.3+3478.36)/10)</f>
-        <v>35559.201839850008</v>
-      </c>
-      <c r="K43" s="37"/>
-    </row>
-    <row r="44" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="41"/>
-      <c r="B44" s="38"/>
-      <c r="C44" s="43"/>
-      <c r="D44" s="44"/>
-      <c r="E44" s="44"/>
-      <c r="F44" s="44"/>
-      <c r="G44" s="34"/>
-      <c r="H44" s="34"/>
-      <c r="I44" s="34"/>
-      <c r="J44" s="45"/>
-      <c r="K44" s="37"/>
-    </row>
-    <row r="45" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>35736.330336251784</v>
+      </c>
+      <c r="K43" s="36"/>
+    </row>
+    <row r="44" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="40"/>
+      <c r="B44" s="37"/>
+      <c r="C44" s="42"/>
+      <c r="D44" s="43"/>
+      <c r="E44" s="43"/>
+      <c r="F44" s="43"/>
+      <c r="G44" s="33"/>
+      <c r="H44" s="33"/>
+      <c r="I44" s="33"/>
+      <c r="J44" s="44"/>
+      <c r="K44" s="36"/>
+    </row>
+    <row r="45" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="18">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B45" s="30" t="s">
         <v>30</v>
@@ -2311,7 +2315,7 @@
       <c r="D45" s="20"/>
       <c r="E45" s="21"/>
       <c r="F45" s="21"/>
-      <c r="G45" s="35">
+      <c r="G45" s="34">
         <f t="shared" ref="G45" si="1">PRODUCT(C45:F45)</f>
         <v>1</v>
       </c>
@@ -2321,7 +2325,7 @@
       <c r="I45" s="23">
         <v>500</v>
       </c>
-      <c r="J45" s="35">
+      <c r="J45" s="34">
         <f>G45*I45</f>
         <v>500</v>
       </c>
@@ -2334,7 +2338,7 @@
       <c r="R45" s="25"/>
       <c r="S45" s="25"/>
     </row>
-    <row r="46" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="18"/>
       <c r="B46" s="24"/>
       <c r="C46" s="19"/>
@@ -2344,7 +2348,7 @@
       <c r="G46" s="23"/>
       <c r="H46" s="22"/>
       <c r="I46" s="23"/>
-      <c r="J46" s="42"/>
+      <c r="J46" s="41"/>
       <c r="K46" s="21"/>
       <c r="M46" s="25"/>
       <c r="N46" s="1">
@@ -2357,234 +2361,227 @@
       <c r="R46" s="25"/>
       <c r="S46" s="25"/>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A47" s="41"/>
-      <c r="B47" s="47" t="s">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A47" s="40"/>
+      <c r="B47" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="C47" s="48"/>
-      <c r="D47" s="39"/>
-      <c r="E47" s="39"/>
-      <c r="F47" s="39"/>
-      <c r="G47" s="42"/>
-      <c r="H47" s="42"/>
-      <c r="I47" s="42"/>
-      <c r="J47" s="42">
+      <c r="C47" s="47"/>
+      <c r="D47" s="38"/>
+      <c r="E47" s="38"/>
+      <c r="F47" s="38"/>
+      <c r="G47" s="41"/>
+      <c r="H47" s="41"/>
+      <c r="I47" s="41"/>
+      <c r="J47" s="41">
         <f>SUM(J10:J45)</f>
-        <v>564083.06300419045</v>
-      </c>
-      <c r="K47" s="37"/>
-    </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A48" s="59"/>
-      <c r="B48" s="62"/>
-      <c r="C48" s="63"/>
-      <c r="D48" s="60"/>
-      <c r="E48" s="60"/>
-      <c r="F48" s="60"/>
-      <c r="G48" s="61"/>
-      <c r="H48" s="61"/>
-      <c r="I48" s="61"/>
-      <c r="J48" s="61"/>
-      <c r="K48" s="58"/>
-    </row>
-    <row r="49" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="51"/>
+        <v>563450.72110079345</v>
+      </c>
+      <c r="K47" s="36"/>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A48" s="58"/>
+      <c r="B48" s="61"/>
+      <c r="C48" s="62"/>
+      <c r="D48" s="59"/>
+      <c r="E48" s="59"/>
+      <c r="F48" s="59"/>
+      <c r="G48" s="60"/>
+      <c r="H48" s="60"/>
+      <c r="I48" s="60"/>
+      <c r="J48" s="60"/>
+      <c r="K48" s="57"/>
+    </row>
+    <row r="49" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="50"/>
       <c r="B49" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="C49" s="80">
+      <c r="C49" s="71">
         <f>J47</f>
-        <v>564083.06300419045</v>
-      </c>
-      <c r="D49" s="80"/>
-      <c r="E49" s="40">
+        <v>563450.72110079345</v>
+      </c>
+      <c r="D49" s="71"/>
+      <c r="E49" s="39">
         <v>100</v>
       </c>
-      <c r="F49" s="52"/>
-      <c r="G49" s="53"/>
-      <c r="H49" s="52"/>
-      <c r="I49" s="54"/>
-      <c r="J49" s="55"/>
-      <c r="K49" s="56"/>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A50" s="57"/>
+      <c r="F49" s="51"/>
+      <c r="G49" s="52"/>
+      <c r="H49" s="51"/>
+      <c r="I49" s="53"/>
+      <c r="J49" s="54"/>
+      <c r="K49" s="55"/>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A50" s="56"/>
       <c r="B50" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="C50" s="83">
+      <c r="C50" s="74">
         <v>500000</v>
       </c>
-      <c r="D50" s="83"/>
-      <c r="E50" s="40"/>
-      <c r="F50" s="50"/>
-      <c r="G50" s="49"/>
-      <c r="H50" s="49"/>
-      <c r="I50" s="49"/>
-      <c r="J50" s="49"/>
-      <c r="K50" s="50"/>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A51" s="57"/>
+      <c r="D50" s="74"/>
+      <c r="E50" s="39"/>
+      <c r="F50" s="49"/>
+      <c r="G50" s="48"/>
+      <c r="H50" s="48"/>
+      <c r="I50" s="48"/>
+      <c r="J50" s="48"/>
+      <c r="K50" s="49"/>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A51" s="56"/>
       <c r="B51" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="C51" s="83">
+      <c r="C51" s="74">
         <f>C50-C53-C54</f>
         <v>475000</v>
       </c>
-      <c r="D51" s="83"/>
-      <c r="E51" s="40">
+      <c r="D51" s="74"/>
+      <c r="E51" s="39">
         <f>C51/C49*100</f>
-        <v>84.207456517174549</v>
-      </c>
-      <c r="F51" s="50"/>
-      <c r="G51" s="49"/>
-      <c r="H51" s="49"/>
-      <c r="I51" s="49"/>
-      <c r="J51" s="49"/>
-      <c r="K51" s="50"/>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A52" s="57"/>
+        <v>84.301959729860585</v>
+      </c>
+      <c r="F51" s="49"/>
+      <c r="G51" s="48"/>
+      <c r="H51" s="48"/>
+      <c r="I51" s="48"/>
+      <c r="J51" s="48"/>
+      <c r="K51" s="49"/>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A52" s="56"/>
       <c r="B52" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="C52" s="80">
+      <c r="C52" s="71">
         <f>C49-C51</f>
-        <v>89083.063004190451</v>
-      </c>
-      <c r="D52" s="80"/>
-      <c r="E52" s="40">
+        <v>88450.721100793453</v>
+      </c>
+      <c r="D52" s="71"/>
+      <c r="E52" s="39">
         <f>100-E51</f>
-        <v>15.792543482825451</v>
-      </c>
-      <c r="F52" s="50"/>
-      <c r="G52" s="49"/>
-      <c r="H52" s="49"/>
-      <c r="I52" s="49"/>
-      <c r="J52" s="49"/>
-      <c r="K52" s="50"/>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A53" s="57"/>
+        <v>15.698040270139415</v>
+      </c>
+      <c r="F52" s="49"/>
+      <c r="G52" s="48"/>
+      <c r="H52" s="48"/>
+      <c r="I52" s="48"/>
+      <c r="J52" s="48"/>
+      <c r="K52" s="49"/>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A53" s="56"/>
       <c r="B53" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="C53" s="80">
+      <c r="C53" s="71">
         <f>C50*0.03</f>
         <v>15000</v>
       </c>
-      <c r="D53" s="80"/>
-      <c r="E53" s="40">
+      <c r="D53" s="71"/>
+      <c r="E53" s="39">
         <v>3</v>
       </c>
-      <c r="F53" s="50"/>
-      <c r="G53" s="49"/>
-      <c r="H53" s="49"/>
-      <c r="I53" s="49"/>
-      <c r="J53" s="49"/>
-      <c r="K53" s="50"/>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A54" s="57"/>
+      <c r="F53" s="49"/>
+      <c r="G53" s="48"/>
+      <c r="H53" s="48"/>
+      <c r="I53" s="48"/>
+      <c r="J53" s="48"/>
+      <c r="K53" s="49"/>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A54" s="56"/>
       <c r="B54" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="C54" s="80">
+      <c r="C54" s="71">
         <f>C50*0.02</f>
         <v>10000</v>
       </c>
-      <c r="D54" s="80"/>
-      <c r="E54" s="40">
+      <c r="D54" s="71"/>
+      <c r="E54" s="39">
         <v>2</v>
       </c>
-      <c r="F54" s="50"/>
-      <c r="G54" s="49"/>
-      <c r="H54" s="49"/>
-      <c r="I54" s="49"/>
-      <c r="J54" s="49"/>
-      <c r="K54" s="50"/>
-    </row>
-    <row r="55" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="58"/>
-      <c r="B55" s="58"/>
-      <c r="C55" s="58"/>
-      <c r="D55" s="58"/>
-      <c r="E55" s="58"/>
-      <c r="F55" s="58"/>
-      <c r="G55" s="58"/>
-      <c r="H55" s="58"/>
-      <c r="I55" s="58"/>
-      <c r="J55" s="58"/>
-      <c r="K55" s="58"/>
-    </row>
-    <row r="56" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="57" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="58" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="59" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="60" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="61" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="62" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="63" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="64" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="65" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="66" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="67" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="68" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="69" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="70" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="71" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="72" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="73" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="74" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="75" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="76" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="77" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="78" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="79" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="80" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="81" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="82" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="83" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="84" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="85" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="86" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="87" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="88" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="89" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="90" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="91" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="92" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="93" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="94" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="95" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="96" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="97" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="98" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="99" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="100" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="101" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="102" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="103" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="104" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="105" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="106" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="107" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="108" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="109" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="110" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="111" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+      <c r="F54" s="49"/>
+      <c r="G54" s="48"/>
+      <c r="H54" s="48"/>
+      <c r="I54" s="48"/>
+      <c r="J54" s="48"/>
+      <c r="K54" s="49"/>
+    </row>
+    <row r="55" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="57"/>
+      <c r="B55" s="57"/>
+      <c r="C55" s="57"/>
+      <c r="D55" s="57"/>
+      <c r="E55" s="57"/>
+      <c r="F55" s="57"/>
+      <c r="G55" s="57"/>
+      <c r="H55" s="57"/>
+      <c r="I55" s="57"/>
+      <c r="J55" s="57"/>
+      <c r="K55" s="57"/>
+    </row>
+    <row r="56" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="57" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="58" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="59" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="60" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="61" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="62" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="63" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="64" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="65" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="66" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="67" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="68" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="69" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="70" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="71" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="72" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="73" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="74" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="75" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="76" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="77" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="78" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="79" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="80" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="81" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="82" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="83" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="84" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="85" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="86" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="87" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="88" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="89" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="90" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="91" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="92" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="93" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="94" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="95" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="96" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="97" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="98" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="99" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="100" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="101" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="102" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="103" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="104" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="105" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="106" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="107" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="108" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="109" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="110" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="111" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="A5:K5"/>
     <mergeCell ref="C53:D53"/>
     <mergeCell ref="C54:D54"/>
     <mergeCell ref="A7:F7"/>
@@ -2593,6 +2590,13 @@
     <mergeCell ref="C50:D50"/>
     <mergeCell ref="C51:D51"/>
     <mergeCell ref="C52:D52"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A5:K5"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="70" orientation="portrait" r:id="rId1"/>
@@ -2604,88 +2608,88 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13:J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" customWidth="1"/>
-    <col min="2" max="2" width="36.7109375" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.33203125" customWidth="1"/>
+    <col min="2" max="2" width="36.6640625" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-    </row>
-    <row r="2" spans="1:11" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="77" t="s">
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+    </row>
+    <row r="2" spans="1:11" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="A2" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="77"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="77"/>
-      <c r="I2" s="77"/>
-      <c r="J2" s="77"/>
-      <c r="K2" s="77"/>
-    </row>
-    <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="78" t="s">
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
+      <c r="I2" s="78"/>
+      <c r="J2" s="78"/>
+      <c r="K2" s="78"/>
+    </row>
+    <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="78"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
-      <c r="G3" s="78"/>
-      <c r="H3" s="78"/>
-      <c r="I3" s="78"/>
-      <c r="J3" s="78"/>
-      <c r="K3" s="78"/>
-    </row>
-    <row r="4" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="78" t="s">
+      <c r="B3" s="69"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="69"/>
+      <c r="I3" s="69"/>
+      <c r="J3" s="69"/>
+      <c r="K3" s="69"/>
+    </row>
+    <row r="4" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="78"/>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78"/>
-      <c r="K4" s="78"/>
-    </row>
-    <row r="5" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B4" s="69"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="69"/>
+      <c r="K4" s="69"/>
+    </row>
+    <row r="5" spans="1:11" ht="18" x14ac:dyDescent="0.35">
       <c r="A5" s="79" t="s">
         <v>18</v>
       </c>
@@ -2700,16 +2704,16 @@
       <c r="J5" s="79"/>
       <c r="K5" s="79"/>
     </row>
-    <row r="6" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="18" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
         <v>19</v>
       </c>
       <c r="B6" s="8"/>
-      <c r="C6" s="74" t="e">
-        <f>F18</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D6" s="75"/>
+      <c r="C6" s="75">
+        <f>F32</f>
+        <v>563450.72110079345</v>
+      </c>
+      <c r="D6" s="76"/>
       <c r="E6" s="9"/>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
@@ -2717,90 +2721,90 @@
         <v>20</v>
       </c>
       <c r="I6" s="8"/>
-      <c r="J6" s="74" t="e">
-        <f>I18</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K6" s="75"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J6" s="75">
+        <f>I32</f>
+        <v>564335.12685567106</v>
+      </c>
+      <c r="K6" s="76"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="26" t="s">
         <v>29</v>
       </c>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
-      <c r="F7" s="69"/>
-      <c r="G7" s="69"/>
-      <c r="I7" s="70" t="s">
+      <c r="F7" s="82"/>
+      <c r="G7" s="82"/>
+      <c r="I7" s="83" t="s">
         <v>37</v>
       </c>
-      <c r="J7" s="70"/>
-      <c r="K7" s="70"/>
-    </row>
-    <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="68" t="e">
+      <c r="J7" s="83"/>
+      <c r="K7" s="83"/>
+    </row>
+    <row r="8" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="65" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B8" s="68"/>
-      <c r="C8" s="68"/>
-      <c r="D8" s="68"/>
-      <c r="E8" s="68"/>
-      <c r="F8" s="68"/>
-      <c r="I8" s="71" t="s">
+      <c r="B8" s="65"/>
+      <c r="C8" s="65"/>
+      <c r="D8" s="65"/>
+      <c r="E8" s="65"/>
+      <c r="F8" s="65"/>
+      <c r="I8" s="84" t="s">
         <v>38</v>
       </c>
-      <c r="J8" s="71"/>
-      <c r="K8" s="71"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="72" t="e">
+      <c r="J8" s="84"/>
+      <c r="K8" s="84"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="85" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B9" s="72"/>
-      <c r="C9" s="72"/>
-      <c r="D9" s="72"/>
-      <c r="E9" s="72"/>
-      <c r="F9" s="72"/>
-      <c r="I9" s="71" t="s">
+      <c r="B9" s="85"/>
+      <c r="C9" s="85"/>
+      <c r="D9" s="85"/>
+      <c r="E9" s="85"/>
+      <c r="F9" s="85"/>
+      <c r="I9" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="J9" s="71"/>
-      <c r="K9" s="71"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="66" t="s">
+      <c r="J9" s="84"/>
+      <c r="K9" s="84"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="80" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="66" t="s">
+      <c r="B11" s="80" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="66" t="s">
+      <c r="C11" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="73" t="s">
+      <c r="D11" s="86" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="73"/>
-      <c r="F11" s="73"/>
-      <c r="G11" s="73" t="s">
+      <c r="E11" s="86"/>
+      <c r="F11" s="86"/>
+      <c r="G11" s="86" t="s">
         <v>24</v>
       </c>
-      <c r="H11" s="73"/>
-      <c r="I11" s="73"/>
-      <c r="J11" s="66" t="s">
+      <c r="H11" s="86"/>
+      <c r="I11" s="86"/>
+      <c r="J11" s="80" t="s">
         <v>25</v>
       </c>
-      <c r="K11" s="67" t="s">
+      <c r="K11" s="81" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="66"/>
-      <c r="B12" s="66"/>
-      <c r="C12" s="66"/>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="80"/>
+      <c r="B12" s="80"/>
+      <c r="C12" s="80"/>
       <c r="D12" s="11" t="s">
         <v>26</v>
       </c>
@@ -2819,77 +2823,80 @@
       <c r="I12" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="J12" s="66"/>
-      <c r="K12" s="67"/>
-    </row>
-    <row r="13" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="27" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B13" s="32" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C13" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D13" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E13" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F13" s="12" t="e">
+      <c r="J12" s="80"/>
+      <c r="K12" s="81"/>
+    </row>
+    <row r="13" spans="1:11" s="1" customFormat="1" ht="140.4" x14ac:dyDescent="0.3">
+      <c r="A13" s="27">
+        <f>estimate!A9</f>
+        <v>1</v>
+      </c>
+      <c r="B13" s="32" t="str">
+        <f>estimate!B9</f>
+        <v>Earthwork Excavation in Cutting., Roadway Excavation in all types of Soil by Mechanical  Means ., Road way Excavation in  all types of soil as per Drawing and technical specifications  including  removal of stumps and other deleterious matter, all lifts and lead as per Drawing and instruction of the Engineer.</v>
+      </c>
+      <c r="C13" s="12" t="str">
+        <f>estimate!H12</f>
+        <v>m3</v>
+      </c>
+      <c r="D13" s="12">
+        <f>estimate!G12</f>
+        <v>16.901378009753124</v>
+      </c>
+      <c r="E13" s="12">
+        <f>estimate!I12</f>
+        <v>64.63</v>
+      </c>
+      <c r="F13" s="12">
         <f>D13*E13</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G13" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H13" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I13" s="12" t="e">
+        <v>1092.3360607703444</v>
+      </c>
+      <c r="G13" s="12">
+        <f>Valuated!G12</f>
+        <v>17.920839683023466</v>
+      </c>
+      <c r="H13" s="12">
+        <f>Valuated!I12</f>
+        <v>64.63</v>
+      </c>
+      <c r="I13" s="12">
         <f>G13*H13</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J13" s="28" t="e">
+        <v>1158.2238687138065</v>
+      </c>
+      <c r="J13" s="28">
         <f>I13-F13</f>
-        <v>#REF!</v>
+        <v>65.887807943462121</v>
       </c>
       <c r="K13" s="14"/>
     </row>
-    <row r="14" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="27"/>
-      <c r="B14" s="33" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
+      <c r="B14" s="87" t="str">
+        <f>estimate!B13</f>
+        <v>VAT calculation</v>
       </c>
       <c r="C14" s="12"/>
       <c r="D14" s="12"/>
       <c r="E14" s="12"/>
-      <c r="F14" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
+      <c r="F14" s="12">
+        <f>estimate!J13</f>
+        <v>117.69556266725084</v>
       </c>
       <c r="G14" s="12"/>
       <c r="H14" s="12"/>
-      <c r="I14" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J14" s="28"/>
+      <c r="I14" s="12">
+        <f>Valuated!J13</f>
+        <v>124.79475393934774</v>
+      </c>
+      <c r="J14" s="28">
+        <f>I14-F14</f>
+        <v>7.0991912720969026</v>
+      </c>
       <c r="K14" s="14"/>
     </row>
-    <row r="15" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="29"/>
-      <c r="B15" s="29"/>
+    <row r="15" spans="1:11" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="27"/>
+      <c r="B15" s="32"/>
       <c r="C15" s="12"/>
       <c r="D15" s="12"/>
       <c r="E15" s="12"/>
@@ -2900,52 +2907,52 @@
       <c r="J15" s="28"/>
       <c r="K15" s="14"/>
     </row>
-    <row r="16" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="27" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B16" s="31" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C16" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D16" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E16" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F16" s="12" t="e">
+    <row r="16" spans="1:11" s="1" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="27">
+        <f>estimate!A15</f>
+        <v>2</v>
+      </c>
+      <c r="B16" s="32" t="str">
+        <f>estimate!B15</f>
+        <v>Providing suitable material and Back filling behind abutment, wing wall and return wall complete as per Drawing and Technical Specifications., locally available material including compaction by tamping rod</v>
+      </c>
+      <c r="C16" s="12" t="str">
+        <f>estimate!H18</f>
+        <v>m3</v>
+      </c>
+      <c r="D16" s="12">
+        <f>estimate!G18</f>
+        <v>17.741442014629687</v>
+      </c>
+      <c r="E16" s="12">
+        <f>estimate!I18</f>
+        <v>404.28</v>
+      </c>
+      <c r="F16" s="12">
         <f>D16*E16</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G16" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H16" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I16" s="12" t="e">
+        <v>7172.5101776744896</v>
+      </c>
+      <c r="G16" s="12">
+        <f>Valuated!G18</f>
+        <v>17.920839683023466</v>
+      </c>
+      <c r="H16" s="12">
+        <f>Valuated!I18</f>
+        <v>404.28</v>
+      </c>
+      <c r="I16" s="12">
         <f>G16*H16</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J16" s="28" t="e">
+        <v>7245.0370670527263</v>
+      </c>
+      <c r="J16" s="28">
         <f>I16-F16</f>
-        <v>#REF!</v>
+        <v>72.526889378236774</v>
       </c>
       <c r="K16" s="14"/>
     </row>
-    <row r="17" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="29"/>
-      <c r="B17" s="29"/>
+    <row r="17" spans="1:11" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="27"/>
+      <c r="B17" s="32"/>
       <c r="C17" s="12"/>
       <c r="D17" s="12"/>
       <c r="E17" s="12"/>
@@ -2956,39 +2963,412 @@
       <c r="J17" s="28"/>
       <c r="K17" s="14"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="5"/>
-      <c r="B18" s="6" t="s">
+    <row r="18" spans="1:11" s="1" customFormat="1" ht="78" x14ac:dyDescent="0.3">
+      <c r="A18" s="27">
+        <f>estimate!A20</f>
+        <v>3</v>
+      </c>
+      <c r="B18" s="32" t="str">
+        <f>estimate!B20</f>
+        <v>Providing and laying of hand pack Stone soling with 150 to 200 mm thick stones and packing with smaller stone on prepared surface as per Drawing and Technical Specifications.</v>
+      </c>
+      <c r="C18" s="12" t="str">
+        <f>estimate!H23</f>
+        <v>m3</v>
+      </c>
+      <c r="D18" s="12">
+        <f>estimate!G23</f>
+        <v>3.5482884029259374</v>
+      </c>
+      <c r="E18" s="12">
+        <f>estimate!I23</f>
+        <v>4561.53</v>
+      </c>
+      <c r="F18" s="12">
+        <f>D18*E18</f>
+        <v>16185.62399859875</v>
+      </c>
+      <c r="G18" s="12">
+        <f>Valuated!G23</f>
+        <v>3.7487519049070404</v>
+      </c>
+      <c r="H18" s="12">
+        <f>Valuated!I23</f>
+        <v>4561.53</v>
+      </c>
+      <c r="I18" s="12">
+        <f>G18*H18</f>
+        <v>17100.04427679061</v>
+      </c>
+      <c r="J18" s="28">
+        <f>I18-F18</f>
+        <v>914.42027819185932</v>
+      </c>
+      <c r="K18" s="14"/>
+    </row>
+    <row r="19" spans="1:11" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="27"/>
+      <c r="B19" s="32" t="str">
+        <f>estimate!B24</f>
+        <v>VAT calculation</v>
+      </c>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12">
+        <f>estimate!J24</f>
+        <v>1425.5873157513868</v>
+      </c>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12">
+        <f>Valuated!J24</f>
+        <v>1506.1270558299298</v>
+      </c>
+      <c r="J19" s="28">
+        <f>I19-F19</f>
+        <v>80.539740078542991</v>
+      </c>
+      <c r="K19" s="14"/>
+    </row>
+    <row r="20" spans="1:11" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="27"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="28"/>
+      <c r="K20" s="14"/>
+    </row>
+    <row r="21" spans="1:11" s="1" customFormat="1" ht="78" x14ac:dyDescent="0.3">
+      <c r="A21" s="27">
+        <f>estimate!A26</f>
+        <v>4</v>
+      </c>
+      <c r="B21" s="32" t="str">
+        <f>estimate!B26</f>
+        <v>Providing and laying of Plain/Reinforced Cement Concrete in Foundation complete as per Drawing and Technical Specifications, PCC Grade M 15</v>
+      </c>
+      <c r="C21" s="12" t="str">
+        <f>estimate!H30</f>
+        <v>m3</v>
+      </c>
+      <c r="D21" s="12">
+        <f>estimate!G30</f>
+        <v>1.84272085492228</v>
+      </c>
+      <c r="E21" s="12">
+        <f>estimate!I30</f>
+        <v>10634.5</v>
+      </c>
+      <c r="F21" s="12">
+        <f>D21*E21</f>
+        <v>19596.414931670988</v>
+      </c>
+      <c r="G21" s="12">
+        <f>Valuated!G30</f>
+        <v>1.8647752209692168</v>
+      </c>
+      <c r="H21" s="12">
+        <f>Valuated!I30</f>
+        <v>10634.5</v>
+      </c>
+      <c r="I21" s="12">
+        <f>G21*H21</f>
+        <v>19830.952087397134</v>
+      </c>
+      <c r="J21" s="28">
+        <f>I21-F21</f>
+        <v>234.53715572614601</v>
+      </c>
+      <c r="K21" s="14"/>
+    </row>
+    <row r="22" spans="1:11" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="27"/>
+      <c r="B22" s="32" t="str">
+        <f>estimate!B31</f>
+        <v>VAT calculation</v>
+      </c>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12">
+        <f>estimate!J31</f>
+        <v>1933.0802690681351</v>
+      </c>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12">
+        <f>Valuated!J31</f>
+        <v>1956.2160900679673</v>
+      </c>
+      <c r="J22" s="28">
+        <f>I22-F22</f>
+        <v>23.135820999832276</v>
+      </c>
+      <c r="K22" s="14"/>
+    </row>
+    <row r="23" spans="1:11" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="27"/>
+      <c r="B23" s="32"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="28"/>
+      <c r="K23" s="14"/>
+    </row>
+    <row r="24" spans="1:11" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="27">
+        <f>estimate!A33</f>
+        <v>5</v>
+      </c>
+      <c r="B24" s="32" t="str">
+        <f>estimate!B33</f>
+        <v>Random Rubble Masonry, Providing and laying of Stone Masonry Work in Cement Mortar 1:6 in Foundation complete as per Drawing and Technical Specifications.</v>
+      </c>
+      <c r="C24" s="12" t="str">
+        <f>estimate!H35</f>
+        <v>m3</v>
+      </c>
+      <c r="D24" s="12">
+        <f>estimate!G35</f>
+        <v>5.7964416336482785</v>
+      </c>
+      <c r="E24" s="12">
+        <f>estimate!I35</f>
+        <v>9709.43</v>
+      </c>
+      <c r="F24" s="12">
+        <f>D24*E24</f>
+        <v>56280.144290993609</v>
+      </c>
+      <c r="G24" s="12">
+        <f>Valuated!G35</f>
+        <v>5.3033169372373941</v>
+      </c>
+      <c r="H24" s="12">
+        <f>Valuated!I35</f>
+        <v>9709.43</v>
+      </c>
+      <c r="I24" s="12">
+        <f>G24*H24</f>
+        <v>51492.184569920872</v>
+      </c>
+      <c r="J24" s="28">
+        <f>I24-F24</f>
+        <v>-4787.959721072737</v>
+      </c>
+      <c r="K24" s="14"/>
+    </row>
+    <row r="25" spans="1:11" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A25" s="27"/>
+      <c r="B25" s="32" t="str">
+        <f>estimate!B36</f>
+        <v>VAT calculation</v>
+      </c>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12">
+        <f>estimate!J36</f>
+        <v>4082.9821859570256</v>
+      </c>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12">
+        <f>Valuated!J36</f>
+        <v>3735.6278126785596</v>
+      </c>
+      <c r="J25" s="28">
+        <f>I25-F25</f>
+        <v>-347.35437327846603</v>
+      </c>
+      <c r="K25" s="14"/>
+    </row>
+    <row r="26" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="29"/>
+      <c r="B26" s="29"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="28"/>
+      <c r="K26" s="14"/>
+    </row>
+    <row r="27" spans="1:11" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A27" s="27">
+        <f>estimate!A40</f>
+        <v>6</v>
+      </c>
+      <c r="B27" s="32" t="str">
+        <f>estimate!B40</f>
+        <v>Providing and laying Plum concrete ( Boulder mixed concrete) including form work and 110mm dia PN6 HDPE pipe for Weep hole as per Drawing and Specifications, 60% M 15  concrete and 40% boulders/stones, using Mechanical Aids</v>
+      </c>
+      <c r="C27" s="12" t="str">
+        <f>estimate!H42</f>
+        <v>m3</v>
+      </c>
+      <c r="D27" s="12">
+        <f>estimate!G42</f>
+        <v>43.573473598544993</v>
+      </c>
+      <c r="E27" s="12">
+        <f>estimate!I42</f>
+        <v>9623.4699999999993</v>
+      </c>
+      <c r="F27" s="12">
+        <f>D27*E27</f>
+        <v>419328.01597138977</v>
+      </c>
+      <c r="G27" s="12">
+        <f>Valuated!G43</f>
+        <v>44.016000000000005</v>
+      </c>
+      <c r="H27" s="12">
+        <f>Valuated!I43</f>
+        <v>9623.4699999999993</v>
+      </c>
+      <c r="I27" s="12">
+        <f>G27*H27</f>
+        <v>423586.65552000003</v>
+      </c>
+      <c r="J27" s="28">
+        <f>I27-F27</f>
+        <v>4258.6395486102556</v>
+      </c>
+      <c r="K27" s="14"/>
+    </row>
+    <row r="28" spans="1:11" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A28" s="27"/>
+      <c r="B28" s="32" t="str">
+        <f>estimate!B43</f>
+        <v>VAT calculation</v>
+      </c>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12">
+        <f>estimate!J43</f>
+        <v>35736.330336251784</v>
+      </c>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12">
+        <f>Valuated!J44</f>
+        <v>36099.263753280007</v>
+      </c>
+      <c r="J28" s="28">
+        <f>I28-F28</f>
+        <v>362.93341702822363</v>
+      </c>
+      <c r="K28" s="14"/>
+    </row>
+    <row r="29" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="29"/>
+      <c r="B29" s="29"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="28"/>
+      <c r="K29" s="14"/>
+    </row>
+    <row r="30" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="27">
+        <f>estimate!A45</f>
+        <v>7</v>
+      </c>
+      <c r="B30" s="31" t="str">
+        <f>estimate!B45</f>
+        <v>Information board (सुचना पाटि)</v>
+      </c>
+      <c r="C30" s="12" t="str">
+        <f>estimate!H45</f>
+        <v>no.</v>
+      </c>
+      <c r="D30" s="12">
+        <f>estimate!G45</f>
+        <v>1</v>
+      </c>
+      <c r="E30" s="12">
+        <f>estimate!I45</f>
+        <v>500</v>
+      </c>
+      <c r="F30" s="12">
+        <f>D30*E30</f>
+        <v>500</v>
+      </c>
+      <c r="G30" s="12">
+        <f>Valuated!G46</f>
+        <v>1</v>
+      </c>
+      <c r="H30" s="12">
+        <f>Valuated!I46</f>
+        <v>500</v>
+      </c>
+      <c r="I30" s="12">
+        <f>G30*H30</f>
+        <v>500</v>
+      </c>
+      <c r="J30" s="28">
+        <f>I30-F30</f>
+        <v>0</v>
+      </c>
+      <c r="K30" s="14"/>
+    </row>
+    <row r="31" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="29"/>
+      <c r="B31" s="29"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="28"/>
+      <c r="K31" s="14"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A32" s="5"/>
+      <c r="B32" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="6"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7" t="e">
-        <f>SUM(F13:F16)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7" t="e">
-        <f>SUM(I13:I16)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J18" s="13" t="e">
-        <f>I18-F18</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K18" s="5"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7">
+        <f>SUM(F13:F30)</f>
+        <v>563450.72110079345</v>
+      </c>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7">
+        <f>SUM(I13:I30)</f>
+        <v>564335.12685567106</v>
+      </c>
+      <c r="J32" s="13">
+        <f>I32-F32</f>
+        <v>884.40575487760361</v>
+      </c>
+      <c r="K32" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="A5:K5"/>
     <mergeCell ref="J11:J12"/>
     <mergeCell ref="K11:K12"/>
     <mergeCell ref="A8:F8"/>
@@ -3002,6 +3382,13 @@
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="D11:F11"/>
     <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A5:K5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3017,139 +3404,139 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S111"/>
+  <dimension ref="A1:S112"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J48" sqref="J48"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" customWidth="1"/>
-    <col min="2" max="2" width="33.7109375" customWidth="1"/>
-    <col min="3" max="3" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5703125" customWidth="1"/>
-    <col min="5" max="5" width="8.5703125" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" customWidth="1"/>
+    <col min="2" max="2" width="33.6640625" customWidth="1"/>
+    <col min="3" max="3" width="4.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5546875" customWidth="1"/>
+    <col min="5" max="5" width="8.5546875" customWidth="1"/>
     <col min="6" max="6" width="8" customWidth="1"/>
-    <col min="7" max="7" width="8.5703125" customWidth="1"/>
+    <col min="7" max="7" width="8.5546875" customWidth="1"/>
     <col min="8" max="8" width="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="85" t="s">
+    <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
-      <c r="H1" s="85"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="85"/>
-      <c r="K1" s="85"/>
-    </row>
-    <row r="2" spans="1:19" s="1" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="86" t="s">
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+    </row>
+    <row r="2" spans="1:19" s="1" customFormat="1" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="86"/>
-      <c r="I2" s="86"/>
-      <c r="J2" s="86"/>
-      <c r="K2" s="86"/>
-    </row>
-    <row r="3" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="78" t="s">
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="68"/>
+    </row>
+    <row r="3" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="78"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
-      <c r="G3" s="78"/>
-      <c r="H3" s="78"/>
-      <c r="I3" s="78"/>
-      <c r="J3" s="78"/>
-      <c r="K3" s="78"/>
-    </row>
-    <row r="4" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="78" t="s">
+      <c r="B3" s="69"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="69"/>
+      <c r="I3" s="69"/>
+      <c r="J3" s="69"/>
+      <c r="K3" s="69"/>
+    </row>
+    <row r="4" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="78"/>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78"/>
-      <c r="K4" s="78"/>
-    </row>
-    <row r="5" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="87" t="s">
+      <c r="B4" s="69"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="69"/>
+      <c r="K4" s="69"/>
+    </row>
+    <row r="5" spans="1:19" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A5" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="87"/>
-      <c r="C5" s="87"/>
-      <c r="D5" s="87"/>
-      <c r="E5" s="87"/>
-      <c r="F5" s="87"/>
-      <c r="G5" s="87"/>
-      <c r="H5" s="87"/>
-      <c r="I5" s="87"/>
-      <c r="J5" s="87"/>
-      <c r="K5" s="87"/>
-    </row>
-    <row r="6" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="68" t="s">
+      <c r="B5" s="70"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="70"/>
+      <c r="F5" s="70"/>
+      <c r="G5" s="70"/>
+      <c r="H5" s="70"/>
+      <c r="I5" s="70"/>
+      <c r="J5" s="70"/>
+      <c r="K5" s="70"/>
+    </row>
+    <row r="6" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="65" t="s">
         <v>52</v>
       </c>
-      <c r="B6" s="68"/>
-      <c r="C6" s="68"/>
-      <c r="D6" s="68"/>
-      <c r="E6" s="68"/>
-      <c r="F6" s="68"/>
+      <c r="B6" s="65"/>
+      <c r="C6" s="65"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="65"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="84" t="s">
+      <c r="H6" s="66" t="s">
         <v>45</v>
       </c>
-      <c r="I6" s="84"/>
-      <c r="J6" s="84"/>
-      <c r="K6" s="84"/>
+      <c r="I6" s="66"/>
+      <c r="J6" s="66"/>
+      <c r="K6" s="66"/>
       <c r="O6" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="81" t="s">
+    <row r="7" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="72" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="81"/>
-      <c r="C7" s="81"/>
-      <c r="D7" s="81"/>
-      <c r="E7" s="81"/>
-      <c r="F7" s="81"/>
+      <c r="B7" s="72"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="72"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="82" t="s">
+      <c r="H7" s="73" t="s">
         <v>54</v>
       </c>
-      <c r="I7" s="82"/>
-      <c r="J7" s="82"/>
-      <c r="K7" s="82"/>
-    </row>
-    <row r="8" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I7" s="73"/>
+      <c r="J7" s="73"/>
+      <c r="K7" s="73"/>
+    </row>
+    <row r="8" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>5</v>
       </c>
@@ -3187,22 +3574,22 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="135" x14ac:dyDescent="0.25">
-      <c r="A9" s="64">
+    <row r="9" spans="1:19" ht="124.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="63">
         <v>1</v>
       </c>
       <c r="B9" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="37"/>
-      <c r="G9" s="37"/>
-      <c r="H9" s="37"/>
-      <c r="I9" s="37"/>
-      <c r="J9" s="37"/>
-      <c r="K9" s="37"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="36"/>
+      <c r="K9" s="36"/>
       <c r="N9" t="s">
         <v>47</v>
       </c>
@@ -3210,34 +3597,33 @@
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="18"/>
-      <c r="B10" s="38" t="str">
+      <c r="B10" s="37" t="str">
         <f>B16</f>
         <v>-For plum wall</v>
       </c>
-      <c r="C10" s="37">
+      <c r="C10" s="36">
         <v>0.5</v>
       </c>
-      <c r="D10" s="39">
-        <f>D40</f>
-        <v>6.7000000000000011</v>
-      </c>
-      <c r="E10" s="39">
+      <c r="D10" s="38">
+        <f>D16</f>
+        <v>12.4</v>
+      </c>
+      <c r="E10" s="38">
         <f>1.75</f>
         <v>1.75</v>
       </c>
-      <c r="F10" s="39">
-        <f>2</f>
-        <v>2</v>
-      </c>
-      <c r="G10" s="40">
+      <c r="F10" s="38">
+        <v>1.5</v>
+      </c>
+      <c r="G10" s="39">
         <f>PRODUCT(C10:F10)</f>
-        <v>11.725000000000001</v>
-      </c>
-      <c r="H10" s="41"/>
-      <c r="I10" s="41"/>
-      <c r="J10" s="41"/>
+        <v>16.274999999999999</v>
+      </c>
+      <c r="H10" s="40"/>
+      <c r="I10" s="40"/>
+      <c r="J10" s="40"/>
       <c r="K10" s="21"/>
       <c r="M10" s="25"/>
       <c r="N10" s="1"/>
@@ -3247,33 +3633,32 @@
       <c r="R10" s="25"/>
       <c r="S10" s="25"/>
     </row>
-    <row r="11" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="18"/>
-      <c r="B11" s="38" t="str">
+      <c r="B11" s="37" t="str">
         <f>B17</f>
         <v>-For masonary wall</v>
       </c>
-      <c r="C11" s="37">
+      <c r="C11" s="36">
         <v>0.5</v>
       </c>
-      <c r="D11" s="39">
+      <c r="D11" s="38">
         <f>D17</f>
         <v>2.7430661383724475</v>
       </c>
-      <c r="E11" s="39">
+      <c r="E11" s="38">
         <v>1.2</v>
       </c>
-      <c r="F11" s="39">
-        <f>2</f>
-        <v>2</v>
-      </c>
-      <c r="G11" s="40">
+      <c r="F11" s="38">
+        <v>1</v>
+      </c>
+      <c r="G11" s="39">
         <f>PRODUCT(C11:F11)</f>
-        <v>3.291679366046937</v>
-      </c>
-      <c r="H11" s="41"/>
-      <c r="I11" s="41"/>
-      <c r="J11" s="41"/>
+        <v>1.6458396830234685</v>
+      </c>
+      <c r="H11" s="40"/>
+      <c r="I11" s="40"/>
+      <c r="J11" s="40"/>
       <c r="K11" s="21"/>
       <c r="M11" s="25"/>
       <c r="N11" s="1"/>
@@ -3283,9 +3668,9 @@
       <c r="R11" s="25"/>
       <c r="S11" s="25"/>
     </row>
-    <row r="12" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="18"/>
-      <c r="B12" s="38" t="s">
+      <c r="B12" s="37" t="s">
         <v>42</v>
       </c>
       <c r="C12" s="19"/>
@@ -3294,7 +3679,7 @@
       <c r="F12" s="21"/>
       <c r="G12" s="23">
         <f>SUM(G10:G11)</f>
-        <v>15.016679366046938</v>
+        <v>17.920839683023466</v>
       </c>
       <c r="H12" s="22" t="s">
         <v>41</v>
@@ -3302,9 +3687,9 @@
       <c r="I12" s="23">
         <v>64.63</v>
       </c>
-      <c r="J12" s="42">
+      <c r="J12" s="41">
         <f>G12*I12</f>
-        <v>970.52798742761354</v>
+        <v>1158.2238687138065</v>
       </c>
       <c r="K12" s="21"/>
       <c r="M12" s="25"/>
@@ -3315,27 +3700,27 @@
       <c r="R12" s="25"/>
       <c r="S12" s="25"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="41"/>
-      <c r="B13" s="38" t="s">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A13" s="40"/>
+      <c r="B13" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="43"/>
-      <c r="D13" s="44"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="44"/>
-      <c r="G13" s="44"/>
-      <c r="H13" s="44"/>
-      <c r="I13" s="44"/>
-      <c r="J13" s="46">
+      <c r="C13" s="42"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="43"/>
+      <c r="H13" s="43"/>
+      <c r="I13" s="43"/>
+      <c r="J13" s="45">
         <f>0.13*G12*(19284/360)</f>
-        <v>104.5711495453622</v>
-      </c>
-      <c r="K13" s="37"/>
-    </row>
-    <row r="14" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>124.79475393934774</v>
+      </c>
+      <c r="K13" s="36"/>
+    </row>
+    <row r="14" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="18"/>
-      <c r="B14" s="38"/>
+      <c r="B14" s="37"/>
       <c r="C14" s="19"/>
       <c r="D14" s="20"/>
       <c r="E14" s="21"/>
@@ -3343,7 +3728,7 @@
       <c r="G14" s="23"/>
       <c r="H14" s="22"/>
       <c r="I14" s="23"/>
-      <c r="J14" s="42"/>
+      <c r="J14" s="41"/>
       <c r="K14" s="21"/>
       <c r="M14" s="25"/>
       <c r="N14" s="1"/>
@@ -3353,7 +3738,7 @@
       <c r="R14" s="25"/>
       <c r="S14" s="25"/>
     </row>
-    <row r="15" spans="1:19" ht="90" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A15" s="18">
         <v>2</v>
       </c>
@@ -3367,7 +3752,7 @@
       <c r="G15" s="23"/>
       <c r="H15" s="22"/>
       <c r="I15" s="23"/>
-      <c r="J15" s="42"/>
+      <c r="J15" s="41"/>
       <c r="K15" s="21"/>
       <c r="M15" s="25"/>
       <c r="N15" s="1"/>
@@ -3377,32 +3762,33 @@
       <c r="R15" s="25"/>
       <c r="S15" s="25"/>
     </row>
-    <row r="16" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="18"/>
-      <c r="B16" s="38" t="str">
+      <c r="B16" s="37" t="str">
         <f>B21</f>
         <v>-For plum wall</v>
       </c>
-      <c r="C16" s="37">
+      <c r="C16" s="36">
         <v>0.5</v>
       </c>
-      <c r="D16" s="39">
+      <c r="D16" s="38">
         <f>D21</f>
-        <v>12.3</v>
-      </c>
-      <c r="E16" s="39">
-        <v>1</v>
-      </c>
-      <c r="F16" s="39">
+        <v>12.4</v>
+      </c>
+      <c r="E16" s="38">
+        <f>E21</f>
+        <v>1.75</v>
+      </c>
+      <c r="F16" s="38">
         <v>1.5</v>
       </c>
-      <c r="G16" s="40">
+      <c r="G16" s="39">
         <f>PRODUCT(C16:F16)</f>
-        <v>9.2250000000000014</v>
-      </c>
-      <c r="H16" s="41"/>
-      <c r="I16" s="41"/>
-      <c r="J16" s="41"/>
+        <v>16.274999999999999</v>
+      </c>
+      <c r="H16" s="40"/>
+      <c r="I16" s="40"/>
+      <c r="J16" s="40"/>
       <c r="K16" s="21"/>
       <c r="M16" s="25"/>
       <c r="N16" s="1"/>
@@ -3412,32 +3798,33 @@
       <c r="R16" s="25"/>
       <c r="S16" s="25"/>
     </row>
-    <row r="17" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="18"/>
-      <c r="B17" s="38" t="str">
+      <c r="B17" s="37" t="str">
         <f>B22</f>
         <v>-For masonary wall</v>
       </c>
-      <c r="C17" s="37">
+      <c r="C17" s="36">
         <v>0.5</v>
       </c>
-      <c r="D17" s="39">
+      <c r="D17" s="38">
         <f>D22</f>
         <v>2.7430661383724475</v>
       </c>
-      <c r="E17" s="39">
+      <c r="E17" s="38">
+        <f>E22</f>
+        <v>1.2</v>
+      </c>
+      <c r="F17" s="38">
         <v>1</v>
       </c>
-      <c r="F17" s="39">
-        <v>1.5</v>
-      </c>
-      <c r="G17" s="40">
+      <c r="G17" s="39">
         <f>PRODUCT(C17:F17)</f>
-        <v>2.0572996037793354</v>
-      </c>
-      <c r="H17" s="41"/>
-      <c r="I17" s="41"/>
-      <c r="J17" s="41"/>
+        <v>1.6458396830234685</v>
+      </c>
+      <c r="H17" s="40"/>
+      <c r="I17" s="40"/>
+      <c r="J17" s="40"/>
       <c r="K17" s="21"/>
       <c r="M17" s="25"/>
       <c r="N17" s="1"/>
@@ -3447,9 +3834,9 @@
       <c r="R17" s="25"/>
       <c r="S17" s="25"/>
     </row>
-    <row r="18" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="18"/>
-      <c r="B18" s="38" t="s">
+      <c r="B18" s="37" t="s">
         <v>42</v>
       </c>
       <c r="C18" s="19"/>
@@ -3458,7 +3845,7 @@
       <c r="F18" s="21"/>
       <c r="G18" s="23">
         <f>SUM(G16:G17)</f>
-        <v>11.282299603779336</v>
+        <v>17.920839683023466</v>
       </c>
       <c r="H18" s="22" t="s">
         <v>41</v>
@@ -3466,9 +3853,9 @@
       <c r="I18" s="23">
         <v>404.28</v>
       </c>
-      <c r="J18" s="42">
+      <c r="J18" s="41">
         <f>G18*I18</f>
-        <v>4561.20808381591</v>
+        <v>7245.0370670527263</v>
       </c>
       <c r="K18" s="21"/>
       <c r="M18" s="25"/>
@@ -3479,9 +3866,9 @@
       <c r="R18" s="25"/>
       <c r="S18" s="25"/>
     </row>
-    <row r="19" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="18"/>
-      <c r="B19" s="38"/>
+      <c r="B19" s="37"/>
       <c r="C19" s="19"/>
       <c r="D19" s="20"/>
       <c r="E19" s="21"/>
@@ -3489,7 +3876,7 @@
       <c r="G19" s="23"/>
       <c r="H19" s="22"/>
       <c r="I19" s="23"/>
-      <c r="J19" s="42"/>
+      <c r="J19" s="41"/>
       <c r="K19" s="21"/>
       <c r="M19" s="25"/>
       <c r="N19" s="1"/>
@@ -3499,7 +3886,7 @@
       <c r="R19" s="25"/>
       <c r="S19" s="25"/>
     </row>
-    <row r="20" spans="1:19" ht="90" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" ht="69" x14ac:dyDescent="0.3">
       <c r="A20" s="18">
         <v>3</v>
       </c>
@@ -3513,7 +3900,7 @@
       <c r="G20" s="23"/>
       <c r="H20" s="22"/>
       <c r="I20" s="23"/>
-      <c r="J20" s="42"/>
+      <c r="J20" s="41"/>
       <c r="K20" s="21"/>
       <c r="M20" s="25"/>
       <c r="N20" s="1"/>
@@ -3523,33 +3910,33 @@
       <c r="R20" s="25"/>
       <c r="S20" s="25"/>
     </row>
-    <row r="21" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="18"/>
-      <c r="B21" s="38" t="str">
-        <f>B40</f>
+      <c r="B21" s="37" t="str">
+        <f>B41</f>
         <v>-For plum wall</v>
       </c>
-      <c r="C21" s="37">
+      <c r="C21" s="36">
         <v>1</v>
       </c>
-      <c r="D21" s="39">
-        <f>D40+D41</f>
-        <v>12.3</v>
-      </c>
-      <c r="E21" s="39">
+      <c r="D21" s="38">
+        <f>D41+D42</f>
+        <v>12.4</v>
+      </c>
+      <c r="E21" s="38">
         <f>1.75</f>
         <v>1.75</v>
       </c>
-      <c r="F21" s="39">
+      <c r="F21" s="38">
         <v>0.15</v>
       </c>
-      <c r="G21" s="40">
+      <c r="G21" s="39">
         <f>PRODUCT(C21:F21)</f>
-        <v>3.2287500000000002</v>
-      </c>
-      <c r="H21" s="41"/>
-      <c r="I21" s="41"/>
-      <c r="J21" s="41"/>
+        <v>3.2549999999999999</v>
+      </c>
+      <c r="H21" s="40"/>
+      <c r="I21" s="40"/>
+      <c r="J21" s="40"/>
       <c r="K21" s="21"/>
       <c r="M21" s="25"/>
       <c r="N21" s="1"/>
@@ -3559,34 +3946,34 @@
       <c r="R21" s="25"/>
       <c r="S21" s="25"/>
     </row>
-    <row r="22" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="18"/>
-      <c r="B22" s="38" t="str">
-        <f>B27</f>
+      <c r="B22" s="37" t="str">
+        <f>B28</f>
         <v>-For masonary wall</v>
       </c>
-      <c r="C22" s="37">
-        <f>C27</f>
+      <c r="C22" s="36">
+        <f>C28</f>
         <v>1</v>
       </c>
-      <c r="D22" s="39">
-        <f>D27</f>
+      <c r="D22" s="38">
+        <f>D28</f>
         <v>2.7430661383724475</v>
       </c>
-      <c r="E22" s="39">
-        <f>E27</f>
+      <c r="E22" s="38">
+        <f>E28</f>
         <v>1.2</v>
       </c>
-      <c r="F22" s="39">
+      <c r="F22" s="38">
         <v>0.15</v>
       </c>
-      <c r="G22" s="40">
+      <c r="G22" s="39">
         <f>PRODUCT(C22:F22)</f>
         <v>0.49375190490704052</v>
       </c>
-      <c r="H22" s="41"/>
-      <c r="I22" s="41"/>
-      <c r="J22" s="41"/>
+      <c r="H22" s="40"/>
+      <c r="I22" s="40"/>
+      <c r="J22" s="40"/>
       <c r="K22" s="21"/>
       <c r="M22" s="25"/>
       <c r="N22" s="1"/>
@@ -3596,63 +3983,63 @@
       <c r="R22" s="25"/>
       <c r="S22" s="25"/>
     </row>
-    <row r="23" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="41"/>
-      <c r="B23" s="38" t="s">
+    <row r="23" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="40"/>
+      <c r="B23" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="C23" s="43"/>
-      <c r="D23" s="44"/>
-      <c r="E23" s="44"/>
-      <c r="F23" s="44"/>
-      <c r="G23" s="34">
+      <c r="C23" s="42"/>
+      <c r="D23" s="43"/>
+      <c r="E23" s="43"/>
+      <c r="F23" s="43"/>
+      <c r="G23" s="33">
         <f>SUM(G21:G22)</f>
-        <v>3.7225019049070407</v>
-      </c>
-      <c r="H23" s="34" t="s">
+        <v>3.7487519049070404</v>
+      </c>
+      <c r="H23" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="I23" s="34">
+      <c r="I23" s="33">
         <v>4561.53</v>
       </c>
-      <c r="J23" s="45">
+      <c r="J23" s="44">
         <f>G23*I23</f>
-        <v>16980.304114290611</v>
-      </c>
-      <c r="K23" s="37"/>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A24" s="41"/>
-      <c r="B24" s="38" t="s">
+        <v>17100.04427679061</v>
+      </c>
+      <c r="K23" s="36"/>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A24" s="40"/>
+      <c r="B24" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="C24" s="43"/>
-      <c r="D24" s="44"/>
-      <c r="E24" s="44"/>
-      <c r="F24" s="44"/>
-      <c r="G24" s="44"/>
-      <c r="H24" s="44"/>
-      <c r="I24" s="44"/>
-      <c r="J24" s="46">
+      <c r="C24" s="42"/>
+      <c r="D24" s="43"/>
+      <c r="E24" s="43"/>
+      <c r="F24" s="43"/>
+      <c r="G24" s="43"/>
+      <c r="H24" s="43"/>
+      <c r="I24" s="43"/>
+      <c r="J24" s="45">
         <f>0.13*G23*(15452.6/5)</f>
-        <v>1495.58065632993</v>
-      </c>
-      <c r="K24" s="37"/>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A25" s="41"/>
-      <c r="B25" s="38"/>
-      <c r="C25" s="43"/>
-      <c r="D25" s="44"/>
-      <c r="E25" s="44"/>
-      <c r="F25" s="44"/>
-      <c r="G25" s="44"/>
-      <c r="H25" s="44"/>
-      <c r="I25" s="44"/>
-      <c r="J25" s="46"/>
-      <c r="K25" s="37"/>
-    </row>
-    <row r="26" spans="1:19" ht="75" x14ac:dyDescent="0.25">
+        <v>1506.1270558299298</v>
+      </c>
+      <c r="K24" s="36"/>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A25" s="40"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="43"/>
+      <c r="E25" s="43"/>
+      <c r="F25" s="43"/>
+      <c r="G25" s="43"/>
+      <c r="H25" s="43"/>
+      <c r="I25" s="43"/>
+      <c r="J25" s="45"/>
+      <c r="K25" s="36"/>
+    </row>
+    <row r="26" spans="1:19" ht="69" x14ac:dyDescent="0.3">
       <c r="A26" s="18">
         <v>4</v>
       </c>
@@ -3666,7 +4053,7 @@
       <c r="G26" s="23"/>
       <c r="H26" s="22"/>
       <c r="I26" s="23"/>
-      <c r="J26" s="42"/>
+      <c r="J26" s="41"/>
       <c r="K26" s="21"/>
       <c r="M26" s="25"/>
       <c r="N26" s="1"/>
@@ -3676,33 +4063,34 @@
       <c r="R26" s="25"/>
       <c r="S26" s="25"/>
     </row>
-    <row r="27" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="18"/>
-      <c r="B27" s="38" t="str">
-        <f>B33</f>
-        <v>-For masonary wall</v>
-      </c>
-      <c r="C27" s="37">
-        <f>C33</f>
+      <c r="B27" s="37" t="str">
+        <f>B41</f>
+        <v>-For plum wall</v>
+      </c>
+      <c r="C27" s="36">
+        <f>C41</f>
         <v>1</v>
       </c>
-      <c r="D27" s="39">
-        <f>D33</f>
-        <v>2.7430661383724475</v>
-      </c>
-      <c r="E27" s="39">
-        <v>1.2</v>
-      </c>
-      <c r="F27" s="39">
-        <v>0.05</v>
-      </c>
-      <c r="G27" s="40">
-        <f t="shared" ref="G27:G28" si="0">PRODUCT(C27:F27)</f>
-        <v>0.16458396830234687</v>
-      </c>
-      <c r="H27" s="41"/>
-      <c r="I27" s="41"/>
-      <c r="J27" s="41"/>
+      <c r="D27" s="38">
+        <f>D21</f>
+        <v>12.4</v>
+      </c>
+      <c r="E27" s="38">
+        <f>E21</f>
+        <v>1.75</v>
+      </c>
+      <c r="F27" s="38">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="G27" s="39">
+        <f t="shared" ref="G27:G29" si="0">PRODUCT(C27:F27)</f>
+        <v>1.6274999999999999</v>
+      </c>
+      <c r="H27" s="40"/>
+      <c r="I27" s="40"/>
+      <c r="J27" s="40"/>
       <c r="K27" s="21"/>
       <c r="M27" s="25"/>
       <c r="N27" s="1"/>
@@ -3712,30 +4100,33 @@
       <c r="R27" s="25"/>
       <c r="S27" s="25"/>
     </row>
-    <row r="28" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="18"/>
-      <c r="B28" s="38"/>
-      <c r="C28" s="37">
-        <f>C27</f>
+      <c r="B28" s="37" t="str">
+        <f>B34</f>
+        <v>-For masonary wall</v>
+      </c>
+      <c r="C28" s="36">
+        <f>C34</f>
         <v>1</v>
       </c>
-      <c r="D28" s="39">
-        <f>D27</f>
+      <c r="D28" s="38">
+        <f>D34</f>
         <v>2.7430661383724475</v>
       </c>
-      <c r="E28" s="39">
-        <v>0.53</v>
-      </c>
-      <c r="F28" s="39">
+      <c r="E28" s="38">
+        <v>1.2</v>
+      </c>
+      <c r="F28" s="38">
         <v>0.05</v>
       </c>
-      <c r="G28" s="40">
+      <c r="G28" s="39">
         <f t="shared" si="0"/>
-        <v>7.2691252666869863E-2</v>
-      </c>
-      <c r="H28" s="41"/>
-      <c r="I28" s="41"/>
-      <c r="J28" s="41"/>
+        <v>0.16458396830234687</v>
+      </c>
+      <c r="H28" s="40"/>
+      <c r="I28" s="40"/>
+      <c r="J28" s="40"/>
       <c r="K28" s="21"/>
       <c r="M28" s="25"/>
       <c r="N28" s="1"/>
@@ -3745,273 +4136,273 @@
       <c r="R28" s="25"/>
       <c r="S28" s="25"/>
     </row>
-    <row r="29" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="41"/>
-      <c r="B29" s="38" t="s">
+    <row r="29" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="18"/>
+      <c r="B29" s="37"/>
+      <c r="C29" s="36">
+        <f>C28</f>
+        <v>1</v>
+      </c>
+      <c r="D29" s="38">
+        <f>D28</f>
+        <v>2.7430661383724475</v>
+      </c>
+      <c r="E29" s="38">
+        <v>0.53</v>
+      </c>
+      <c r="F29" s="38">
+        <v>0.05</v>
+      </c>
+      <c r="G29" s="39">
+        <f t="shared" si="0"/>
+        <v>7.2691252666869863E-2</v>
+      </c>
+      <c r="H29" s="40"/>
+      <c r="I29" s="40"/>
+      <c r="J29" s="40"/>
+      <c r="K29" s="21"/>
+      <c r="M29" s="25"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="1"/>
+      <c r="R29" s="25"/>
+      <c r="S29" s="25"/>
+    </row>
+    <row r="30" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="40"/>
+      <c r="B30" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="C29" s="43"/>
-      <c r="D29" s="44"/>
-      <c r="E29" s="44"/>
-      <c r="F29" s="44"/>
-      <c r="G29" s="34">
-        <f>SUM(G27:G28)</f>
-        <v>0.23727522096921672</v>
-      </c>
-      <c r="H29" s="34" t="s">
+      <c r="C30" s="42"/>
+      <c r="D30" s="43"/>
+      <c r="E30" s="43"/>
+      <c r="F30" s="43"/>
+      <c r="G30" s="33">
+        <f>SUM(G27:G29)</f>
+        <v>1.8647752209692168</v>
+      </c>
+      <c r="H30" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="I29" s="34">
+      <c r="I30" s="33">
         <v>10634.5</v>
       </c>
-      <c r="J29" s="45">
-        <f>G29*I29</f>
-        <v>2523.3033373971352</v>
-      </c>
-      <c r="K29" s="37"/>
-    </row>
-    <row r="30" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="41"/>
-      <c r="B30" s="38" t="s">
+      <c r="J30" s="44">
+        <f>G30*I30</f>
+        <v>19830.952087397134</v>
+      </c>
+      <c r="K30" s="36"/>
+    </row>
+    <row r="31" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="40"/>
+      <c r="B31" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="C30" s="43"/>
-      <c r="D30" s="44"/>
-      <c r="E30" s="44"/>
-      <c r="F30" s="44"/>
-      <c r="G30" s="44"/>
-      <c r="H30" s="44"/>
-      <c r="I30" s="44"/>
-      <c r="J30" s="46">
-        <f>0.13*G29*((114907.3+6135.3)/15)</f>
-        <v>248.91021706796712</v>
-      </c>
-      <c r="K30" s="37"/>
-    </row>
-    <row r="31" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="41"/>
-      <c r="B31" s="38"/>
-      <c r="C31" s="43"/>
-      <c r="D31" s="44"/>
-      <c r="E31" s="44"/>
-      <c r="F31" s="44"/>
-      <c r="G31" s="44"/>
-      <c r="H31" s="44"/>
-      <c r="I31" s="44"/>
-      <c r="J31" s="46"/>
-      <c r="K31" s="37"/>
-    </row>
-    <row r="32" spans="1:19" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A32" s="64">
+      <c r="C31" s="42"/>
+      <c r="D31" s="43"/>
+      <c r="E31" s="43"/>
+      <c r="F31" s="43"/>
+      <c r="G31" s="43"/>
+      <c r="H31" s="43"/>
+      <c r="I31" s="43"/>
+      <c r="J31" s="45">
+        <f>0.13*G30*((114907.3+6135.3)/15)</f>
+        <v>1956.2160900679673</v>
+      </c>
+      <c r="K31" s="36"/>
+    </row>
+    <row r="32" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="40"/>
+      <c r="B32" s="37"/>
+      <c r="C32" s="42"/>
+      <c r="D32" s="43"/>
+      <c r="E32" s="43"/>
+      <c r="F32" s="43"/>
+      <c r="G32" s="43"/>
+      <c r="H32" s="43"/>
+      <c r="I32" s="43"/>
+      <c r="J32" s="45"/>
+      <c r="K32" s="36"/>
+    </row>
+    <row r="33" spans="1:19" s="1" customFormat="1" ht="69" x14ac:dyDescent="0.3">
+      <c r="A33" s="63">
         <v>5</v>
       </c>
-      <c r="B32" s="30" t="s">
+      <c r="B33" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="C32" s="65"/>
-      <c r="D32" s="40"/>
-      <c r="E32" s="40"/>
-      <c r="F32" s="40"/>
-      <c r="G32" s="40"/>
-      <c r="H32" s="40"/>
-      <c r="I32" s="40"/>
-      <c r="J32" s="46"/>
-      <c r="K32" s="29"/>
-    </row>
-    <row r="33" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="18"/>
-      <c r="B33" s="38" t="s">
+      <c r="C33" s="64"/>
+      <c r="D33" s="39"/>
+      <c r="E33" s="39"/>
+      <c r="F33" s="39"/>
+      <c r="G33" s="39"/>
+      <c r="H33" s="39"/>
+      <c r="I33" s="39"/>
+      <c r="J33" s="45"/>
+      <c r="K33" s="29"/>
+    </row>
+    <row r="34" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="18"/>
+      <c r="B34" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="C33" s="37">
+      <c r="C34" s="36">
         <v>1</v>
       </c>
-      <c r="D33" s="39">
+      <c r="D34" s="38">
         <f>9/3.281</f>
         <v>2.7430661383724475</v>
       </c>
-      <c r="E33" s="39">
+      <c r="E34" s="38">
         <f>((1.2+0.53)/2)</f>
         <v>0.86499999999999999</v>
       </c>
-      <c r="F33" s="39">
-        <f>(99-2-4-6)/12/3.281</f>
-        <v>2.2096921670222494</v>
-      </c>
-      <c r="G33" s="40">
-        <f>PRODUCT(C33:F33)</f>
-        <v>5.2430519720415152</v>
-      </c>
-      <c r="H33" s="41"/>
-      <c r="I33" s="41"/>
-      <c r="J33" s="41"/>
-      <c r="K33" s="21"/>
-      <c r="M33" s="25"/>
-      <c r="N33" s="1"/>
-      <c r="O33" s="1"/>
-      <c r="P33" s="1"/>
-      <c r="Q33" s="1"/>
-      <c r="R33" s="25"/>
-      <c r="S33" s="25"/>
-    </row>
-    <row r="34" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="41"/>
-      <c r="B34" s="38" t="s">
+      <c r="F34" s="38">
+        <f>(99-2-3-6)/12/3.281</f>
+        <v>2.2350909275627346</v>
+      </c>
+      <c r="G34" s="39">
+        <f>PRODUCT(C34:F34)</f>
+        <v>5.3033169372373941</v>
+      </c>
+      <c r="H34" s="40"/>
+      <c r="I34" s="40"/>
+      <c r="J34" s="40"/>
+      <c r="K34" s="21"/>
+      <c r="M34" s="25"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="1"/>
+      <c r="R34" s="25"/>
+      <c r="S34" s="25"/>
+    </row>
+    <row r="35" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="40"/>
+      <c r="B35" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="C34" s="43"/>
-      <c r="D34" s="44"/>
-      <c r="E34" s="44"/>
-      <c r="F34" s="44"/>
-      <c r="G34" s="34">
-        <f>SUM(G33:G33)</f>
-        <v>5.2430519720415152</v>
-      </c>
-      <c r="H34" s="34" t="s">
+      <c r="C35" s="42"/>
+      <c r="D35" s="43"/>
+      <c r="E35" s="43"/>
+      <c r="F35" s="43"/>
+      <c r="G35" s="33">
+        <f>SUM(G34:G34)</f>
+        <v>5.3033169372373941</v>
+      </c>
+      <c r="H35" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="I34" s="34">
+      <c r="I35" s="33">
         <v>9709.43</v>
       </c>
-      <c r="J34" s="45">
-        <f>G34*I34</f>
-        <v>50907.046108899049</v>
-      </c>
-      <c r="K34" s="37"/>
-    </row>
-    <row r="35" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="41"/>
-      <c r="B35" s="38" t="s">
+      <c r="J35" s="44">
+        <f>G35*I35</f>
+        <v>51492.184569920872</v>
+      </c>
+      <c r="K35" s="36"/>
+    </row>
+    <row r="36" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="40"/>
+      <c r="B36" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="C35" s="43"/>
-      <c r="D35" s="44"/>
-      <c r="E35" s="44"/>
-      <c r="F35" s="44"/>
-      <c r="G35" s="44"/>
-      <c r="H35" s="44"/>
-      <c r="I35" s="44"/>
-      <c r="J35" s="46">
-        <f>0.13*G34*(27092.1/5)</f>
-        <v>3693.1774966253943</v>
-      </c>
-      <c r="K35" s="37"/>
-    </row>
-    <row r="36" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="41"/>
-      <c r="B36" s="38"/>
-      <c r="C36" s="43"/>
-      <c r="D36" s="44"/>
-      <c r="E36" s="44"/>
-      <c r="F36" s="44"/>
-      <c r="G36" s="44"/>
-      <c r="H36" s="44"/>
-      <c r="I36" s="44"/>
-      <c r="J36" s="46"/>
-      <c r="K36" s="37"/>
-    </row>
-    <row r="37" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="41"/>
-      <c r="B37" s="38"/>
-      <c r="C37" s="43"/>
-      <c r="D37" s="44"/>
-      <c r="E37" s="44"/>
-      <c r="F37" s="44"/>
-      <c r="G37" s="44"/>
-      <c r="H37" s="44"/>
-      <c r="I37" s="44"/>
-      <c r="J37" s="46"/>
-      <c r="K37" s="37"/>
-    </row>
-    <row r="38" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="41"/>
-      <c r="B38" s="38"/>
-      <c r="C38" s="43"/>
-      <c r="D38" s="44"/>
-      <c r="E38" s="44"/>
-      <c r="F38" s="44"/>
-      <c r="G38" s="44"/>
-      <c r="H38" s="44"/>
-      <c r="I38" s="44"/>
-      <c r="J38" s="46"/>
-      <c r="K38" s="37"/>
-    </row>
-    <row r="39" spans="1:19" s="1" customFormat="1" ht="120" x14ac:dyDescent="0.25">
-      <c r="A39" s="64">
-        <v>5</v>
-      </c>
-      <c r="B39" s="30" t="s">
+      <c r="C36" s="42"/>
+      <c r="D36" s="43"/>
+      <c r="E36" s="43"/>
+      <c r="F36" s="43"/>
+      <c r="G36" s="43"/>
+      <c r="H36" s="43"/>
+      <c r="I36" s="43"/>
+      <c r="J36" s="45">
+        <f>0.13*G35*(27092.1/5)</f>
+        <v>3735.6278126785596</v>
+      </c>
+      <c r="K36" s="36"/>
+    </row>
+    <row r="37" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="40"/>
+      <c r="B37" s="37"/>
+      <c r="C37" s="42"/>
+      <c r="D37" s="43"/>
+      <c r="E37" s="43"/>
+      <c r="F37" s="43"/>
+      <c r="G37" s="43"/>
+      <c r="H37" s="43"/>
+      <c r="I37" s="43"/>
+      <c r="J37" s="45"/>
+      <c r="K37" s="36"/>
+    </row>
+    <row r="38" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="40"/>
+      <c r="B38" s="37"/>
+      <c r="C38" s="42"/>
+      <c r="D38" s="43"/>
+      <c r="E38" s="43"/>
+      <c r="F38" s="43"/>
+      <c r="G38" s="43"/>
+      <c r="H38" s="43"/>
+      <c r="I38" s="43"/>
+      <c r="J38" s="45"/>
+      <c r="K38" s="36"/>
+    </row>
+    <row r="39" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="40"/>
+      <c r="B39" s="37"/>
+      <c r="C39" s="42"/>
+      <c r="D39" s="43"/>
+      <c r="E39" s="43"/>
+      <c r="F39" s="43"/>
+      <c r="G39" s="43"/>
+      <c r="H39" s="43"/>
+      <c r="I39" s="43"/>
+      <c r="J39" s="45"/>
+      <c r="K39" s="36"/>
+    </row>
+    <row r="40" spans="1:19" s="1" customFormat="1" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A40" s="63">
+        <v>6</v>
+      </c>
+      <c r="B40" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="C39" s="65"/>
-      <c r="D39" s="40"/>
-      <c r="E39" s="40"/>
-      <c r="F39" s="40"/>
-      <c r="G39" s="40"/>
-      <c r="H39" s="40"/>
-      <c r="I39" s="40"/>
-      <c r="J39" s="46"/>
-      <c r="K39" s="29"/>
-    </row>
-    <row r="40" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="18"/>
-      <c r="B40" s="38" t="s">
+      <c r="C40" s="64"/>
+      <c r="D40" s="39"/>
+      <c r="E40" s="39"/>
+      <c r="F40" s="39"/>
+      <c r="G40" s="39"/>
+      <c r="H40" s="39"/>
+      <c r="I40" s="39"/>
+      <c r="J40" s="45"/>
+      <c r="K40" s="29"/>
+    </row>
+    <row r="41" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="18"/>
+      <c r="B41" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="C40" s="37">
+      <c r="C41" s="36">
         <v>1</v>
       </c>
-      <c r="D40" s="39">
-        <f>12.3-D41</f>
-        <v>6.7000000000000011</v>
-      </c>
-      <c r="E40" s="39">
+      <c r="D41" s="38">
+        <f>(12.5+12.3)/2-D42</f>
+        <v>6.8000000000000007</v>
+      </c>
+      <c r="E41" s="38">
         <f>((1.75+0.63)/2)</f>
         <v>1.19</v>
       </c>
-      <c r="F40" s="39">
+      <c r="F41" s="38">
         <v>3</v>
       </c>
-      <c r="G40" s="40">
-        <f>PRODUCT(C40:F40)</f>
-        <v>23.919000000000004</v>
-      </c>
-      <c r="H40" s="41"/>
-      <c r="I40" s="41"/>
-      <c r="J40" s="41"/>
-      <c r="K40" s="21"/>
-      <c r="M40" s="25"/>
-      <c r="N40" s="1"/>
-      <c r="O40" s="1"/>
-      <c r="P40" s="1"/>
-      <c r="Q40" s="1"/>
-      <c r="R40" s="25"/>
-      <c r="S40" s="25"/>
-    </row>
-    <row r="41" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="18"/>
-      <c r="B41" s="38"/>
-      <c r="C41" s="37">
-        <v>1</v>
-      </c>
-      <c r="D41" s="39">
-        <f>5.6</f>
-        <v>5.6</v>
-      </c>
-      <c r="E41" s="39">
-        <f>((1.75+0.6)/2)</f>
-        <v>1.175</v>
-      </c>
-      <c r="F41" s="39">
-        <v>3</v>
-      </c>
-      <c r="G41" s="40">
+      <c r="G41" s="39">
         <f>PRODUCT(C41:F41)</f>
-        <v>19.740000000000002</v>
-      </c>
-      <c r="H41" s="41"/>
-      <c r="I41" s="41"/>
-      <c r="J41" s="41"/>
+        <v>24.276000000000003</v>
+      </c>
+      <c r="H41" s="40"/>
+      <c r="I41" s="40"/>
+      <c r="J41" s="40"/>
       <c r="K41" s="21"/>
       <c r="M41" s="25"/>
       <c r="N41" s="1"/>
@@ -4021,357 +4412,390 @@
       <c r="R41" s="25"/>
       <c r="S41" s="25"/>
     </row>
-    <row r="42" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="41"/>
-      <c r="B42" s="38" t="s">
+    <row r="42" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="18"/>
+      <c r="B42" s="37"/>
+      <c r="C42" s="36">
+        <v>1</v>
+      </c>
+      <c r="D42" s="38">
+        <f>5.6</f>
+        <v>5.6</v>
+      </c>
+      <c r="E42" s="38">
+        <f>((1.75+0.6)/2)</f>
+        <v>1.175</v>
+      </c>
+      <c r="F42" s="38">
+        <v>3</v>
+      </c>
+      <c r="G42" s="39">
+        <f>PRODUCT(C42:F42)</f>
+        <v>19.740000000000002</v>
+      </c>
+      <c r="H42" s="40"/>
+      <c r="I42" s="40"/>
+      <c r="J42" s="40"/>
+      <c r="K42" s="21"/>
+      <c r="M42" s="25"/>
+      <c r="N42" s="1"/>
+      <c r="O42" s="1"/>
+      <c r="P42" s="1"/>
+      <c r="Q42" s="1"/>
+      <c r="R42" s="25"/>
+      <c r="S42" s="25"/>
+    </row>
+    <row r="43" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="40"/>
+      <c r="B43" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="C42" s="43"/>
-      <c r="D42" s="44"/>
-      <c r="E42" s="44"/>
-      <c r="F42" s="44"/>
-      <c r="G42" s="34">
-        <f>SUM(G40:G41)</f>
-        <v>43.659000000000006</v>
-      </c>
-      <c r="H42" s="34" t="s">
+      <c r="C43" s="42"/>
+      <c r="D43" s="43"/>
+      <c r="E43" s="43"/>
+      <c r="F43" s="43"/>
+      <c r="G43" s="33">
+        <f>SUM(G41:G42)</f>
+        <v>44.016000000000005</v>
+      </c>
+      <c r="H43" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="I42" s="34">
+      <c r="I43" s="33">
         <v>9623.4699999999993</v>
       </c>
-      <c r="J42" s="45">
-        <f>G42*I42</f>
-        <v>420151.07673000003</v>
-      </c>
-      <c r="K42" s="37"/>
-    </row>
-    <row r="43" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="41"/>
-      <c r="B43" s="38" t="s">
+      <c r="J43" s="44">
+        <f>G43*I43</f>
+        <v>423586.65552000003</v>
+      </c>
+      <c r="K43" s="36"/>
+    </row>
+    <row r="44" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="40"/>
+      <c r="B44" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="C43" s="43"/>
-      <c r="D43" s="44"/>
-      <c r="E43" s="44"/>
-      <c r="F43" s="44"/>
-      <c r="G43" s="44"/>
-      <c r="H43" s="44"/>
-      <c r="I43" s="44"/>
-      <c r="J43" s="46">
-        <f>0.13*G42*((59609.3+3478.36)/10)</f>
-        <v>35806.473923220008</v>
-      </c>
-      <c r="K43" s="37"/>
-    </row>
-    <row r="44" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="41"/>
-      <c r="B44" s="38"/>
-      <c r="C44" s="43"/>
-      <c r="D44" s="44"/>
-      <c r="E44" s="44"/>
-      <c r="F44" s="44"/>
-      <c r="G44" s="34"/>
-      <c r="H44" s="34"/>
-      <c r="I44" s="34"/>
-      <c r="J44" s="45"/>
-      <c r="K44" s="37"/>
-    </row>
-    <row r="45" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="18">
-        <v>6</v>
-      </c>
-      <c r="B45" s="30" t="s">
+      <c r="C44" s="42"/>
+      <c r="D44" s="43"/>
+      <c r="E44" s="43"/>
+      <c r="F44" s="43"/>
+      <c r="G44" s="43"/>
+      <c r="H44" s="43"/>
+      <c r="I44" s="43"/>
+      <c r="J44" s="45">
+        <f>0.13*G43*((59609.3+3478.36)/10)</f>
+        <v>36099.263753280007</v>
+      </c>
+      <c r="K44" s="36"/>
+    </row>
+    <row r="45" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="40"/>
+      <c r="B45" s="37"/>
+      <c r="C45" s="42"/>
+      <c r="D45" s="43"/>
+      <c r="E45" s="43"/>
+      <c r="F45" s="43"/>
+      <c r="G45" s="33"/>
+      <c r="H45" s="33"/>
+      <c r="I45" s="33"/>
+      <c r="J45" s="44"/>
+      <c r="K45" s="36"/>
+    </row>
+    <row r="46" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="18">
+        <v>7</v>
+      </c>
+      <c r="B46" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="C45" s="19">
+      <c r="C46" s="19">
         <v>1</v>
       </c>
-      <c r="D45" s="20"/>
-      <c r="E45" s="21"/>
-      <c r="F45" s="21"/>
-      <c r="G45" s="35">
-        <f t="shared" ref="G45" si="1">PRODUCT(C45:F45)</f>
-        <v>1</v>
-      </c>
-      <c r="H45" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="I45" s="23">
-        <v>500</v>
-      </c>
-      <c r="J45" s="35">
-        <f>G45*I45</f>
-        <v>500</v>
-      </c>
-      <c r="K45" s="21"/>
-      <c r="M45" s="25"/>
-      <c r="N45" s="1"/>
-      <c r="O45" s="1"/>
-      <c r="P45" s="1"/>
-      <c r="Q45" s="1"/>
-      <c r="R45" s="25"/>
-      <c r="S45" s="25"/>
-    </row>
-    <row r="46" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="18"/>
-      <c r="B46" s="24"/>
-      <c r="C46" s="19"/>
       <c r="D46" s="20"/>
       <c r="E46" s="21"/>
       <c r="F46" s="21"/>
-      <c r="G46" s="23"/>
-      <c r="H46" s="22"/>
-      <c r="I46" s="23"/>
-      <c r="J46" s="42"/>
+      <c r="G46" s="34">
+        <f t="shared" ref="G46" si="1">PRODUCT(C46:F46)</f>
+        <v>1</v>
+      </c>
+      <c r="H46" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="I46" s="23">
+        <v>500</v>
+      </c>
+      <c r="J46" s="34">
+        <f>G46*I46</f>
+        <v>500</v>
+      </c>
       <c r="K46" s="21"/>
       <c r="M46" s="25"/>
-      <c r="N46" s="1">
-        <f>2.4*3.281</f>
-        <v>7.8743999999999996</v>
-      </c>
+      <c r="N46" s="1"/>
       <c r="O46" s="1"/>
       <c r="P46" s="1"/>
       <c r="Q46" s="1"/>
       <c r="R46" s="25"/>
       <c r="S46" s="25"/>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A47" s="41"/>
-      <c r="B47" s="47" t="s">
+    <row r="47" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="18"/>
+      <c r="B47" s="24"/>
+      <c r="C47" s="19"/>
+      <c r="D47" s="20"/>
+      <c r="E47" s="21"/>
+      <c r="F47" s="21"/>
+      <c r="G47" s="23"/>
+      <c r="H47" s="22"/>
+      <c r="I47" s="23"/>
+      <c r="J47" s="41"/>
+      <c r="K47" s="21"/>
+      <c r="M47" s="25"/>
+      <c r="N47" s="1">
+        <f>2.4*3.281</f>
+        <v>7.8743999999999996</v>
+      </c>
+      <c r="O47" s="1"/>
+      <c r="P47" s="1"/>
+      <c r="Q47" s="1"/>
+      <c r="R47" s="25"/>
+      <c r="S47" s="25"/>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A48" s="40"/>
+      <c r="B48" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="C47" s="48"/>
-      <c r="D47" s="39"/>
-      <c r="E47" s="39"/>
-      <c r="F47" s="39"/>
-      <c r="G47" s="42"/>
-      <c r="H47" s="42"/>
-      <c r="I47" s="42"/>
-      <c r="J47" s="42">
-        <f>SUM(J10:J45)</f>
-        <v>537942.17980461894</v>
-      </c>
-      <c r="K47" s="37"/>
-    </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A48" s="59"/>
-      <c r="B48" s="62"/>
-      <c r="C48" s="63"/>
-      <c r="D48" s="60"/>
-      <c r="E48" s="60"/>
-      <c r="F48" s="60"/>
-      <c r="G48" s="61"/>
-      <c r="H48" s="61"/>
-      <c r="I48" s="61"/>
-      <c r="J48" s="61"/>
-      <c r="K48" s="58"/>
-    </row>
-    <row r="49" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="51"/>
-      <c r="B49" s="29" t="s">
+      <c r="C48" s="47"/>
+      <c r="D48" s="38"/>
+      <c r="E48" s="38"/>
+      <c r="F48" s="38"/>
+      <c r="G48" s="41"/>
+      <c r="H48" s="41"/>
+      <c r="I48" s="41"/>
+      <c r="J48" s="41">
+        <f>SUM(J10:J46)</f>
+        <v>564335.12685567106</v>
+      </c>
+      <c r="K48" s="36"/>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A49" s="58"/>
+      <c r="B49" s="61"/>
+      <c r="C49" s="62"/>
+      <c r="D49" s="59"/>
+      <c r="E49" s="59"/>
+      <c r="F49" s="59"/>
+      <c r="G49" s="60"/>
+      <c r="H49" s="60"/>
+      <c r="I49" s="60"/>
+      <c r="J49" s="60"/>
+      <c r="K49" s="57"/>
+    </row>
+    <row r="50" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="50"/>
+      <c r="B50" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="C49" s="80">
-        <f>J47</f>
-        <v>537942.17980461894</v>
-      </c>
-      <c r="D49" s="80"/>
-      <c r="E49" s="40">
+      <c r="C50" s="71">
+        <f>J48</f>
+        <v>564335.12685567106</v>
+      </c>
+      <c r="D50" s="71"/>
+      <c r="E50" s="39">
         <v>100</v>
       </c>
-      <c r="F49" s="52"/>
-      <c r="G49" s="53"/>
-      <c r="H49" s="52"/>
-      <c r="I49" s="54"/>
-      <c r="J49" s="55"/>
-      <c r="K49" s="56"/>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A50" s="57"/>
-      <c r="B50" s="29" t="s">
+      <c r="F50" s="51"/>
+      <c r="G50" s="52"/>
+      <c r="H50" s="51"/>
+      <c r="I50" s="53"/>
+      <c r="J50" s="54"/>
+      <c r="K50" s="55"/>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A51" s="56"/>
+      <c r="B51" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="C50" s="83">
+      <c r="C51" s="74">
         <v>500000</v>
       </c>
-      <c r="D50" s="83"/>
-      <c r="E50" s="40"/>
-      <c r="F50" s="50"/>
-      <c r="G50" s="49"/>
-      <c r="H50" s="49"/>
-      <c r="I50" s="49"/>
-      <c r="J50" s="49"/>
-      <c r="K50" s="50"/>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A51" s="57"/>
-      <c r="B51" s="29" t="s">
+      <c r="D51" s="74"/>
+      <c r="E51" s="39"/>
+      <c r="F51" s="49"/>
+      <c r="G51" s="48"/>
+      <c r="H51" s="48"/>
+      <c r="I51" s="48"/>
+      <c r="J51" s="48"/>
+      <c r="K51" s="49"/>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A52" s="56"/>
+      <c r="B52" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="C51" s="83">
-        <f>C50-C53-C54</f>
+      <c r="C52" s="74">
+        <f>C51-C54-C55</f>
         <v>475000</v>
       </c>
-      <c r="D51" s="83"/>
-      <c r="E51" s="40">
-        <f>C51/C49*100</f>
-        <v>88.299452586618216</v>
-      </c>
-      <c r="F51" s="50"/>
-      <c r="G51" s="49"/>
-      <c r="H51" s="49"/>
-      <c r="I51" s="49"/>
-      <c r="J51" s="49"/>
-      <c r="K51" s="50"/>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A52" s="57"/>
-      <c r="B52" s="29" t="s">
+      <c r="D52" s="74"/>
+      <c r="E52" s="39">
+        <f>C52/C50*100</f>
+        <v>84.169844724459523</v>
+      </c>
+      <c r="F52" s="49"/>
+      <c r="G52" s="48"/>
+      <c r="H52" s="48"/>
+      <c r="I52" s="48"/>
+      <c r="J52" s="48"/>
+      <c r="K52" s="49"/>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A53" s="56"/>
+      <c r="B53" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="C52" s="80">
-        <f>C49-C51</f>
-        <v>62942.179804618936</v>
-      </c>
-      <c r="D52" s="80"/>
-      <c r="E52" s="40">
-        <f>100-E51</f>
-        <v>11.700547413381784</v>
-      </c>
-      <c r="F52" s="50"/>
-      <c r="G52" s="49"/>
-      <c r="H52" s="49"/>
-      <c r="I52" s="49"/>
-      <c r="J52" s="49"/>
-      <c r="K52" s="50"/>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A53" s="57"/>
-      <c r="B53" s="29" t="s">
+      <c r="C53" s="71">
+        <f>C50-C52</f>
+        <v>89335.126855671057</v>
+      </c>
+      <c r="D53" s="71"/>
+      <c r="E53" s="39">
+        <f>100-E52</f>
+        <v>15.830155275540477</v>
+      </c>
+      <c r="F53" s="49"/>
+      <c r="G53" s="48"/>
+      <c r="H53" s="48"/>
+      <c r="I53" s="48"/>
+      <c r="J53" s="48"/>
+      <c r="K53" s="49"/>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A54" s="56"/>
+      <c r="B54" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="C53" s="80">
-        <f>C50*0.03</f>
+      <c r="C54" s="71">
+        <f>C51*0.03</f>
         <v>15000</v>
       </c>
-      <c r="D53" s="80"/>
-      <c r="E53" s="40">
+      <c r="D54" s="71"/>
+      <c r="E54" s="39">
         <v>3</v>
       </c>
-      <c r="F53" s="50"/>
-      <c r="G53" s="49"/>
-      <c r="H53" s="49"/>
-      <c r="I53" s="49"/>
-      <c r="J53" s="49"/>
-      <c r="K53" s="50"/>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A54" s="57"/>
-      <c r="B54" s="29" t="s">
+      <c r="F54" s="49"/>
+      <c r="G54" s="48"/>
+      <c r="H54" s="48"/>
+      <c r="I54" s="48"/>
+      <c r="J54" s="48"/>
+      <c r="K54" s="49"/>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A55" s="56"/>
+      <c r="B55" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="C54" s="80">
-        <f>C50*0.02</f>
+      <c r="C55" s="71">
+        <f>C51*0.02</f>
         <v>10000</v>
       </c>
-      <c r="D54" s="80"/>
-      <c r="E54" s="40">
+      <c r="D55" s="71"/>
+      <c r="E55" s="39">
         <v>2</v>
       </c>
-      <c r="F54" s="50"/>
-      <c r="G54" s="49"/>
-      <c r="H54" s="49"/>
-      <c r="I54" s="49"/>
-      <c r="J54" s="49"/>
-      <c r="K54" s="50"/>
-    </row>
-    <row r="55" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="58"/>
-      <c r="B55" s="58"/>
-      <c r="C55" s="58"/>
-      <c r="D55" s="58"/>
-      <c r="E55" s="58"/>
-      <c r="F55" s="58"/>
-      <c r="G55" s="58"/>
-      <c r="H55" s="58"/>
-      <c r="I55" s="58"/>
-      <c r="J55" s="58"/>
-      <c r="K55" s="58"/>
-    </row>
-    <row r="56" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="57" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="58" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="59" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="60" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="61" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="62" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="63" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="64" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="65" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="66" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="67" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="68" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="69" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="70" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="71" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="72" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="73" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="74" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="75" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="76" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="77" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="78" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="79" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="80" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="81" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="82" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="83" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="84" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="85" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="86" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="87" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="88" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="89" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="90" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="91" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="92" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="93" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="94" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="95" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="96" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="97" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="98" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="99" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="100" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="101" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="102" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="103" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="104" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="105" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="106" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="107" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="108" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="109" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="110" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="111" s="36" customFormat="1" x14ac:dyDescent="0.25"/>
+      <c r="F55" s="49"/>
+      <c r="G55" s="48"/>
+      <c r="H55" s="48"/>
+      <c r="I55" s="48"/>
+      <c r="J55" s="48"/>
+      <c r="K55" s="49"/>
+    </row>
+    <row r="56" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="57"/>
+      <c r="B56" s="57"/>
+      <c r="C56" s="57"/>
+      <c r="D56" s="57"/>
+      <c r="E56" s="57"/>
+      <c r="F56" s="57"/>
+      <c r="G56" s="57"/>
+      <c r="H56" s="57"/>
+      <c r="I56" s="57"/>
+      <c r="J56" s="57"/>
+      <c r="K56" s="57"/>
+    </row>
+    <row r="57" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="58" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="59" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="60" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="61" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="62" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="63" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="64" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="65" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="66" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="67" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="68" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="69" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="70" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="71" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="72" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="73" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="74" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="75" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="76" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="77" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="78" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="79" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="80" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="81" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="82" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="83" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="84" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="85" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="86" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="87" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="88" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="89" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="90" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="91" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="92" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="93" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="94" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="95" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="96" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="97" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="98" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="99" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="100" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="101" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="102" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="103" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="104" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="105" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="106" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="107" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="108" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="109" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="110" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="111" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="112" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="H6:K6"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="A2:K2"/>
     <mergeCell ref="A3:K3"/>
     <mergeCell ref="A4:K4"/>
     <mergeCell ref="A5:K5"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C53:D53"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="70" orientation="portrait" r:id="rId1"/>

--- a/ofc/estimates/सेतिदेवी मन्दिर संरक्षण/changed estimate सेतिदेवी मन्दिर संरक्षण.xlsx
+++ b/ofc/estimates/सेतिदेवी मन्दिर संरक्षण/changed estimate सेतिदेवी मन्दिर संरक्षण.xlsx
@@ -2,30 +2,32 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\081_082\ofc\ofc\estimates\सेतिदेवी मन्दिर संरक्षण\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\081-082\ofc\estimates\सेतिदेवी मन्दिर संरक्षण\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="estimate" sheetId="21" r:id="rId1"/>
     <sheet name="WCR" sheetId="6" r:id="rId2"/>
     <sheet name="Valuated" sheetId="22" r:id="rId3"/>
+    <sheet name="M" sheetId="23" r:id="rId4"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId4"/>
     <externalReference r:id="rId5"/>
     <externalReference r:id="rId6"/>
     <externalReference r:id="rId7"/>
     <externalReference r:id="rId8"/>
+    <externalReference r:id="rId9"/>
   </externalReferences>
   <definedNames>
     <definedName name="description_103">[1]Abstract!$B$16</definedName>
     <definedName name="description_124" localSheetId="0">#REF!</definedName>
+    <definedName name="description_124" localSheetId="3">#REF!</definedName>
     <definedName name="description_124" localSheetId="2">#REF!</definedName>
     <definedName name="description_124">#REF!</definedName>
     <definedName name="description_247">[1]Abstract!$B$22</definedName>
@@ -40,13 +42,15 @@
     <definedName name="description_759">[1]Abstract!$B$278</definedName>
     <definedName name="description_781">[5]Abstract!$B$299</definedName>
     <definedName name="description_783">[1]Abstract!$B$301</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">estimate!$A$1:$K$54</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">Valuated!$A$1:$K$55</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">estimate!$A$1:$K$52</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">M!$A$1:$K$55</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">Valuated!$A$1:$K$53</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">estimate!$1:$8</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="3">M!$1:$8</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">Valuated!$1:$8</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">WCR!$1:$12</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -64,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="62">
   <si>
     <t>Government of Nepal</t>
   </si>
@@ -180,12 +184,6 @@
     <t xml:space="preserve">Work Finished:           </t>
   </si>
   <si>
-    <t xml:space="preserve">F.Y:2079/80                </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Date:2079/06/13       </t>
-  </si>
-  <si>
     <t>VAT calculation</t>
   </si>
   <si>
@@ -239,14 +237,32 @@
   <si>
     <t>-For masonary wall</t>
   </si>
+  <si>
+    <t>Date:2081/12/25</t>
+  </si>
+  <si>
+    <t>Detail Valuated Sheet</t>
+  </si>
+  <si>
+    <t>Total Valuated</t>
+  </si>
+  <si>
+    <t>Detail Quantity Measurement Sheet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date:2081/12/25       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">F.Y:2081/2082             </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="16" x14ac:knownFonts="1">
     <font>
@@ -405,9 +421,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -415,7 +431,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -435,14 +451,14 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -451,7 +467,7 @@
     <xf numFmtId="1" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="13" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -476,7 +492,7 @@
     <xf numFmtId="1" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -506,7 +522,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -515,7 +531,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -530,7 +546,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -546,30 +562,21 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -581,7 +588,43 @@
     <xf numFmtId="2" fontId="15" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -596,30 +639,8 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1236,139 +1257,139 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S111"/>
+  <dimension ref="A1:S109"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A34" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" customWidth="1"/>
-    <col min="2" max="2" width="33.6640625" customWidth="1"/>
-    <col min="3" max="3" width="4.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5546875" customWidth="1"/>
-    <col min="5" max="5" width="8.5546875" customWidth="1"/>
-    <col min="6" max="6" width="8" customWidth="1"/>
-    <col min="7" max="7" width="8.5546875" customWidth="1"/>
-    <col min="8" max="8" width="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" customWidth="1"/>
+    <col min="2" max="2" width="33.7109375" customWidth="1"/>
+    <col min="3" max="3" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5703125" customWidth="1"/>
+    <col min="5" max="5" width="8.5703125" customWidth="1"/>
+    <col min="6" max="6" width="7.5703125" customWidth="1"/>
+    <col min="7" max="7" width="8.5703125" customWidth="1"/>
+    <col min="8" max="8" width="4.5703125" customWidth="1"/>
+    <col min="9" max="9" width="9.28515625" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="67" t="s">
+    <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-    </row>
-    <row r="2" spans="1:19" s="1" customFormat="1" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="68" t="s">
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
+    </row>
+    <row r="2" spans="1:19" s="1" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="68"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="68"/>
-      <c r="K2" s="68"/>
-    </row>
-    <row r="3" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="69" t="s">
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="75"/>
+      <c r="I2" s="75"/>
+      <c r="J2" s="75"/>
+      <c r="K2" s="75"/>
+    </row>
+    <row r="3" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="69"/>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="69"/>
-      <c r="H3" s="69"/>
-      <c r="I3" s="69"/>
-      <c r="J3" s="69"/>
-      <c r="K3" s="69"/>
-    </row>
-    <row r="4" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="69" t="s">
+      <c r="B3" s="76"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="76"/>
+      <c r="H3" s="76"/>
+      <c r="I3" s="76"/>
+      <c r="J3" s="76"/>
+      <c r="K3" s="76"/>
+    </row>
+    <row r="4" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="69"/>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="69"/>
-      <c r="K4" s="69"/>
-    </row>
-    <row r="5" spans="1:19" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A5" s="70" t="s">
+      <c r="B4" s="76"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76"/>
+      <c r="K4" s="76"/>
+    </row>
+    <row r="5" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="70"/>
-      <c r="C5" s="70"/>
-      <c r="D5" s="70"/>
-      <c r="E5" s="70"/>
-      <c r="F5" s="70"/>
-      <c r="G5" s="70"/>
-      <c r="H5" s="70"/>
-      <c r="I5" s="70"/>
-      <c r="J5" s="70"/>
-      <c r="K5" s="70"/>
-    </row>
-    <row r="6" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="65" t="s">
+      <c r="B5" s="77"/>
+      <c r="C5" s="77"/>
+      <c r="D5" s="77"/>
+      <c r="E5" s="77"/>
+      <c r="F5" s="77"/>
+      <c r="G5" s="77"/>
+      <c r="H5" s="77"/>
+      <c r="I5" s="77"/>
+      <c r="J5" s="77"/>
+      <c r="K5" s="77"/>
+    </row>
+    <row r="6" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="72" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="72"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="72"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="73" t="s">
+        <v>43</v>
+      </c>
+      <c r="I6" s="73"/>
+      <c r="J6" s="73"/>
+      <c r="K6" s="73"/>
+      <c r="O6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="69" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="69"/>
+      <c r="C7" s="69"/>
+      <c r="D7" s="69"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="69"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="70" t="s">
         <v>52</v>
       </c>
-      <c r="B6" s="65"/>
-      <c r="C6" s="65"/>
-      <c r="D6" s="65"/>
-      <c r="E6" s="65"/>
-      <c r="F6" s="65"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="66" t="s">
-        <v>45</v>
-      </c>
-      <c r="I6" s="66"/>
-      <c r="J6" s="66"/>
-      <c r="K6" s="66"/>
-      <c r="O6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="72" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" s="72"/>
-      <c r="C7" s="72"/>
-      <c r="D7" s="72"/>
-      <c r="E7" s="72"/>
-      <c r="F7" s="72"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="73" t="s">
-        <v>54</v>
-      </c>
-      <c r="I7" s="73"/>
-      <c r="J7" s="73"/>
-      <c r="K7" s="73"/>
-    </row>
-    <row r="8" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I7" s="70"/>
+      <c r="J7" s="70"/>
+      <c r="K7" s="70"/>
+    </row>
+    <row r="8" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>5</v>
       </c>
@@ -1403,15 +1424,15 @@
         <v>15</v>
       </c>
       <c r="N8" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" ht="124.2" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="135" x14ac:dyDescent="0.25">
       <c r="A9" s="63">
         <v>1</v>
       </c>
       <c r="B9" s="30" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C9" s="36"/>
       <c r="D9" s="36"/>
@@ -1423,13 +1444,13 @@
       <c r="J9" s="36"/>
       <c r="K9" s="36"/>
       <c r="N9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="O9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="18"/>
       <c r="B10" s="37" t="str">
         <f>B16</f>
@@ -1439,7 +1460,7 @@
         <v>0.5</v>
       </c>
       <c r="D10" s="38">
-        <f>D41</f>
+        <f>D39</f>
         <v>12.3</v>
       </c>
       <c r="E10" s="38">
@@ -1465,7 +1486,7 @@
       <c r="R10" s="25"/>
       <c r="S10" s="25"/>
     </row>
-    <row r="11" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="18"/>
       <c r="B11" s="37" t="str">
         <f>B17</f>
@@ -1501,10 +1522,10 @@
       <c r="R11" s="25"/>
       <c r="S11" s="25"/>
     </row>
-    <row r="12" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="18"/>
       <c r="B12" s="37" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C12" s="19"/>
       <c r="D12" s="20"/>
@@ -1515,7 +1536,7 @@
         <v>16.901378009753124</v>
       </c>
       <c r="H12" s="22" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I12" s="23">
         <v>64.63</v>
@@ -1533,10 +1554,10 @@
       <c r="R12" s="25"/>
       <c r="S12" s="25"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="40"/>
       <c r="B13" s="37" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C13" s="42"/>
       <c r="D13" s="43"/>
@@ -1551,7 +1572,7 @@
       </c>
       <c r="K13" s="36"/>
     </row>
-    <row r="14" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="18"/>
       <c r="B14" s="37"/>
       <c r="C14" s="19"/>
@@ -1571,12 +1592,12 @@
       <c r="R14" s="25"/>
       <c r="S14" s="25"/>
     </row>
-    <row r="15" spans="1:19" ht="82.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" ht="90" x14ac:dyDescent="0.25">
       <c r="A15" s="18">
         <v>2</v>
       </c>
       <c r="B15" s="30" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C15" s="19"/>
       <c r="D15" s="20"/>
@@ -1595,7 +1616,7 @@
       <c r="R15" s="25"/>
       <c r="S15" s="25"/>
     </row>
-    <row r="16" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="18"/>
       <c r="B16" s="37" t="str">
         <f>B21</f>
@@ -1631,7 +1652,7 @@
       <c r="R16" s="25"/>
       <c r="S16" s="25"/>
     </row>
-    <row r="17" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="18"/>
       <c r="B17" s="37" t="str">
         <f>B22</f>
@@ -1667,10 +1688,10 @@
       <c r="R17" s="25"/>
       <c r="S17" s="25"/>
     </row>
-    <row r="18" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="18"/>
       <c r="B18" s="37" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C18" s="19"/>
       <c r="D18" s="20"/>
@@ -1681,7 +1702,7 @@
         <v>17.741442014629687</v>
       </c>
       <c r="H18" s="22" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I18" s="23">
         <v>404.28</v>
@@ -1699,7 +1720,7 @@
       <c r="R18" s="25"/>
       <c r="S18" s="25"/>
     </row>
-    <row r="19" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="18"/>
       <c r="B19" s="37"/>
       <c r="C19" s="19"/>
@@ -1719,12 +1740,12 @@
       <c r="R19" s="25"/>
       <c r="S19" s="25"/>
     </row>
-    <row r="20" spans="1:19" ht="69" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" ht="90" x14ac:dyDescent="0.25">
       <c r="A20" s="18">
         <v>3</v>
       </c>
       <c r="B20" s="30" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C20" s="19"/>
       <c r="D20" s="20"/>
@@ -1743,7 +1764,7 @@
       <c r="R20" s="25"/>
       <c r="S20" s="25"/>
     </row>
-    <row r="21" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="18"/>
       <c r="B21" s="37" t="str">
         <f>B27</f>
@@ -1779,7 +1800,7 @@
       <c r="R21" s="25"/>
       <c r="S21" s="25"/>
     </row>
-    <row r="22" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="18"/>
       <c r="B22" s="37" t="str">
         <f>B28</f>
@@ -1816,10 +1837,10 @@
       <c r="R22" s="25"/>
       <c r="S22" s="25"/>
     </row>
-    <row r="23" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="40"/>
       <c r="B23" s="37" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C23" s="42"/>
       <c r="D23" s="43"/>
@@ -1830,7 +1851,7 @@
         <v>3.5482884029259374</v>
       </c>
       <c r="H23" s="33" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I23" s="33">
         <v>4561.53</v>
@@ -1841,10 +1862,10 @@
       </c>
       <c r="K23" s="36"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="40"/>
       <c r="B24" s="37" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C24" s="42"/>
       <c r="D24" s="43"/>
@@ -1859,7 +1880,7 @@
       </c>
       <c r="K24" s="36"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="40"/>
       <c r="B25" s="37"/>
       <c r="C25" s="42"/>
@@ -1872,12 +1893,12 @@
       <c r="J25" s="45"/>
       <c r="K25" s="36"/>
     </row>
-    <row r="26" spans="1:19" ht="69" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19" ht="75" x14ac:dyDescent="0.25">
       <c r="A26" s="18">
         <v>4</v>
       </c>
       <c r="B26" s="30" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C26" s="19"/>
       <c r="D26" s="20"/>
@@ -1896,21 +1917,21 @@
       <c r="R26" s="25"/>
       <c r="S26" s="25"/>
     </row>
-    <row r="27" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="18"/>
       <c r="B27" s="37" t="str">
-        <f>B41</f>
+        <f>B39</f>
         <v>-For plum wall</v>
       </c>
       <c r="C27" s="36">
         <v>1</v>
       </c>
       <c r="D27" s="38">
-        <f>D41</f>
+        <f>D39</f>
         <v>12.3</v>
       </c>
       <c r="E27" s="38">
-        <f>F41/2</f>
+        <f>F39/2</f>
         <v>1.65</v>
       </c>
       <c r="F27" s="38">
@@ -1932,7 +1953,7 @@
       <c r="R27" s="25"/>
       <c r="S27" s="25"/>
     </row>
-    <row r="28" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="18"/>
       <c r="B28" s="37" t="str">
         <f>B34</f>
@@ -1969,7 +1990,7 @@
       <c r="R28" s="25"/>
       <c r="S28" s="25"/>
     </row>
-    <row r="29" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="18"/>
       <c r="B29" s="37"/>
       <c r="C29" s="36">
@@ -2002,10 +2023,10 @@
       <c r="R29" s="25"/>
       <c r="S29" s="25"/>
     </row>
-    <row r="30" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="40"/>
       <c r="B30" s="37" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C30" s="42"/>
       <c r="D30" s="43"/>
@@ -2016,7 +2037,7 @@
         <v>1.84272085492228</v>
       </c>
       <c r="H30" s="33" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I30" s="33">
         <v>10634.5</v>
@@ -2027,10 +2048,10 @@
       </c>
       <c r="K30" s="36"/>
     </row>
-    <row r="31" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="40"/>
       <c r="B31" s="37" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C31" s="42"/>
       <c r="D31" s="43"/>
@@ -2045,7 +2066,7 @@
       </c>
       <c r="K31" s="36"/>
     </row>
-    <row r="32" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="40"/>
       <c r="B32" s="37"/>
       <c r="C32" s="42"/>
@@ -2058,12 +2079,12 @@
       <c r="J32" s="45"/>
       <c r="K32" s="36"/>
     </row>
-    <row r="33" spans="1:19" s="1" customFormat="1" ht="69" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:19" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A33" s="63">
         <v>5</v>
       </c>
       <c r="B33" s="30" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C33" s="64"/>
       <c r="D33" s="39"/>
@@ -2075,10 +2096,10 @@
       <c r="J33" s="45"/>
       <c r="K33" s="29"/>
     </row>
-    <row r="34" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="18"/>
       <c r="B34" s="37" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C34" s="36">
         <v>1</v>
@@ -2113,10 +2134,10 @@
       <c r="R34" s="25"/>
       <c r="S34" s="25"/>
     </row>
-    <row r="35" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="40"/>
       <c r="B35" s="37" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C35" s="42"/>
       <c r="D35" s="43"/>
@@ -2127,7 +2148,7 @@
         <v>5.7964416336482785</v>
       </c>
       <c r="H35" s="33" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I35" s="33">
         <v>9709.43</v>
@@ -2138,10 +2159,10 @@
       </c>
       <c r="K35" s="36"/>
     </row>
-    <row r="36" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="40"/>
       <c r="B36" s="37" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C36" s="42"/>
       <c r="D36" s="43"/>
@@ -2156,7 +2177,7 @@
       </c>
       <c r="K36" s="36"/>
     </row>
-    <row r="37" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="40"/>
       <c r="B37" s="37"/>
       <c r="C37" s="42"/>
@@ -2169,259 +2190,275 @@
       <c r="J37" s="45"/>
       <c r="K37" s="36"/>
     </row>
-    <row r="38" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="40"/>
-      <c r="B38" s="37"/>
-      <c r="C38" s="42"/>
-      <c r="D38" s="43"/>
-      <c r="E38" s="43"/>
-      <c r="F38" s="43"/>
-      <c r="G38" s="43"/>
-      <c r="H38" s="43"/>
-      <c r="I38" s="43"/>
+    <row r="38" spans="1:19" s="1" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+      <c r="A38" s="63">
+        <v>6</v>
+      </c>
+      <c r="B38" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="C38" s="64"/>
+      <c r="D38" s="39"/>
+      <c r="E38" s="39"/>
+      <c r="F38" s="39"/>
+      <c r="G38" s="39"/>
+      <c r="H38" s="39"/>
+      <c r="I38" s="39"/>
       <c r="J38" s="45"/>
-      <c r="K38" s="36"/>
-    </row>
-    <row r="39" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="40"/>
-      <c r="B39" s="37"/>
-      <c r="C39" s="42"/>
-      <c r="D39" s="43"/>
-      <c r="E39" s="43"/>
-      <c r="F39" s="43"/>
-      <c r="G39" s="43"/>
-      <c r="H39" s="43"/>
-      <c r="I39" s="43"/>
-      <c r="J39" s="45"/>
-      <c r="K39" s="36"/>
-    </row>
-    <row r="40" spans="1:19" s="1" customFormat="1" ht="96.6" x14ac:dyDescent="0.3">
-      <c r="A40" s="63">
-        <v>6</v>
-      </c>
-      <c r="B40" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="C40" s="64"/>
-      <c r="D40" s="39"/>
-      <c r="E40" s="39"/>
-      <c r="F40" s="39"/>
-      <c r="G40" s="39"/>
-      <c r="H40" s="39"/>
-      <c r="I40" s="39"/>
-      <c r="J40" s="45"/>
-      <c r="K40" s="29"/>
-    </row>
-    <row r="41" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="18"/>
+      <c r="K38" s="29"/>
+    </row>
+    <row r="39" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="18"/>
+      <c r="B39" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="C39" s="36">
+        <v>1</v>
+      </c>
+      <c r="D39" s="38">
+        <v>12.3</v>
+      </c>
+      <c r="E39" s="38">
+        <f>((F39/2+0.5)/2)*0.99860714</f>
+        <v>1.0735026754999999</v>
+      </c>
+      <c r="F39" s="38">
+        <v>3.3</v>
+      </c>
+      <c r="G39" s="39">
+        <f>PRODUCT(C39:F39)</f>
+        <v>43.573473598544993</v>
+      </c>
+      <c r="H39" s="40"/>
+      <c r="I39" s="40"/>
+      <c r="J39" s="40"/>
+      <c r="K39" s="21"/>
+      <c r="M39" s="25"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+      <c r="P39" s="1"/>
+      <c r="Q39" s="1"/>
+      <c r="R39" s="25"/>
+      <c r="S39" s="25"/>
+    </row>
+    <row r="40" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="40"/>
+      <c r="B40" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40" s="42"/>
+      <c r="D40" s="43"/>
+      <c r="E40" s="43"/>
+      <c r="F40" s="43"/>
+      <c r="G40" s="33">
+        <f>SUM(G39:G39)</f>
+        <v>43.573473598544993</v>
+      </c>
+      <c r="H40" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="I40" s="33">
+        <v>9623.4699999999993</v>
+      </c>
+      <c r="J40" s="44">
+        <f>G40*I40</f>
+        <v>419328.01597138977</v>
+      </c>
+      <c r="K40" s="36"/>
+    </row>
+    <row r="41" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="40"/>
       <c r="B41" s="37" t="s">
-        <v>56</v>
-      </c>
-      <c r="C41" s="36">
-        <v>1</v>
-      </c>
-      <c r="D41" s="38">
-        <v>12.3</v>
-      </c>
-      <c r="E41" s="38">
-        <f>((F41/2+0.5)/2)*0.99860714</f>
-        <v>1.0735026754999999</v>
-      </c>
-      <c r="F41" s="38">
-        <v>3.3</v>
-      </c>
-      <c r="G41" s="39">
-        <f>PRODUCT(C41:F41)</f>
-        <v>43.573473598544993</v>
-      </c>
-      <c r="H41" s="40"/>
-      <c r="I41" s="40"/>
-      <c r="J41" s="40"/>
-      <c r="K41" s="21"/>
-      <c r="M41" s="25"/>
-      <c r="N41" s="1"/>
-      <c r="O41" s="1"/>
-      <c r="P41" s="1"/>
-      <c r="Q41" s="1"/>
-      <c r="R41" s="25"/>
-      <c r="S41" s="25"/>
-    </row>
-    <row r="42" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+      <c r="C41" s="42"/>
+      <c r="D41" s="43"/>
+      <c r="E41" s="43"/>
+      <c r="F41" s="43"/>
+      <c r="G41" s="43"/>
+      <c r="H41" s="43"/>
+      <c r="I41" s="43"/>
+      <c r="J41" s="45">
+        <f>0.13*G40*((59609.3+3478.36)/10)</f>
+        <v>35736.330336251784</v>
+      </c>
+      <c r="K41" s="36"/>
+    </row>
+    <row r="42" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="40"/>
-      <c r="B42" s="37" t="s">
-        <v>42</v>
-      </c>
+      <c r="B42" s="37"/>
       <c r="C42" s="42"/>
       <c r="D42" s="43"/>
       <c r="E42" s="43"/>
       <c r="F42" s="43"/>
-      <c r="G42" s="33">
-        <f>SUM(G41:G41)</f>
-        <v>43.573473598544993</v>
-      </c>
-      <c r="H42" s="33" t="s">
-        <v>41</v>
-      </c>
-      <c r="I42" s="33">
-        <v>9623.4699999999993</v>
-      </c>
-      <c r="J42" s="44">
-        <f>G42*I42</f>
-        <v>419328.01597138977</v>
-      </c>
+      <c r="G42" s="33"/>
+      <c r="H42" s="33"/>
+      <c r="I42" s="33"/>
+      <c r="J42" s="44"/>
       <c r="K42" s="36"/>
     </row>
-    <row r="43" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="40"/>
-      <c r="B43" s="37" t="s">
-        <v>40</v>
-      </c>
-      <c r="C43" s="42"/>
-      <c r="D43" s="43"/>
-      <c r="E43" s="43"/>
-      <c r="F43" s="43"/>
-      <c r="G43" s="43"/>
-      <c r="H43" s="43"/>
-      <c r="I43" s="43"/>
-      <c r="J43" s="45">
-        <f>0.13*G42*((59609.3+3478.36)/10)</f>
-        <v>35736.330336251784</v>
-      </c>
-      <c r="K43" s="36"/>
-    </row>
-    <row r="44" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="40"/>
-      <c r="B44" s="37"/>
-      <c r="C44" s="42"/>
-      <c r="D44" s="43"/>
-      <c r="E44" s="43"/>
-      <c r="F44" s="43"/>
-      <c r="G44" s="33"/>
-      <c r="H44" s="33"/>
-      <c r="I44" s="33"/>
-      <c r="J44" s="44"/>
-      <c r="K44" s="36"/>
-    </row>
-    <row r="45" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="18">
+    <row r="43" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="18">
         <v>7</v>
       </c>
-      <c r="B45" s="30" t="s">
+      <c r="B43" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="C45" s="19">
+      <c r="C43" s="19">
         <v>1</v>
       </c>
-      <c r="D45" s="20"/>
-      <c r="E45" s="21"/>
-      <c r="F45" s="21"/>
-      <c r="G45" s="34">
-        <f t="shared" ref="G45" si="1">PRODUCT(C45:F45)</f>
+      <c r="D43" s="20"/>
+      <c r="E43" s="21"/>
+      <c r="F43" s="21"/>
+      <c r="G43" s="34">
+        <f t="shared" ref="G43" si="1">PRODUCT(C43:F43)</f>
         <v>1</v>
       </c>
-      <c r="H45" s="22" t="s">
+      <c r="H43" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="I45" s="23">
+      <c r="I43" s="23">
         <v>500</v>
       </c>
-      <c r="J45" s="34">
-        <f>G45*I45</f>
+      <c r="J43" s="34">
+        <f>G43*I43</f>
         <v>500</v>
       </c>
-      <c r="K45" s="21"/>
-      <c r="M45" s="25"/>
-      <c r="N45" s="1"/>
-      <c r="O45" s="1"/>
-      <c r="P45" s="1"/>
-      <c r="Q45" s="1"/>
-      <c r="R45" s="25"/>
-      <c r="S45" s="25"/>
-    </row>
-    <row r="46" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="18"/>
-      <c r="B46" s="24"/>
-      <c r="C46" s="19"/>
-      <c r="D46" s="20"/>
-      <c r="E46" s="21"/>
-      <c r="F46" s="21"/>
-      <c r="G46" s="23"/>
-      <c r="H46" s="22"/>
-      <c r="I46" s="23"/>
-      <c r="J46" s="41"/>
-      <c r="K46" s="21"/>
-      <c r="M46" s="25"/>
-      <c r="N46" s="1">
+      <c r="K43" s="21"/>
+      <c r="M43" s="25"/>
+      <c r="N43" s="1"/>
+      <c r="O43" s="1"/>
+      <c r="P43" s="1"/>
+      <c r="Q43" s="1"/>
+      <c r="R43" s="25"/>
+      <c r="S43" s="25"/>
+    </row>
+    <row r="44" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="18"/>
+      <c r="B44" s="24"/>
+      <c r="C44" s="19"/>
+      <c r="D44" s="20"/>
+      <c r="E44" s="21"/>
+      <c r="F44" s="21"/>
+      <c r="G44" s="23"/>
+      <c r="H44" s="22"/>
+      <c r="I44" s="23"/>
+      <c r="J44" s="41"/>
+      <c r="K44" s="21"/>
+      <c r="M44" s="25"/>
+      <c r="N44" s="1">
         <f>2.4*3.281</f>
         <v>7.8743999999999996</v>
       </c>
-      <c r="O46" s="1"/>
-      <c r="P46" s="1"/>
-      <c r="Q46" s="1"/>
-      <c r="R46" s="25"/>
-      <c r="S46" s="25"/>
-    </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A47" s="40"/>
-      <c r="B47" s="46" t="s">
+      <c r="O44" s="1"/>
+      <c r="P44" s="1"/>
+      <c r="Q44" s="1"/>
+      <c r="R44" s="25"/>
+      <c r="S44" s="25"/>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A45" s="40"/>
+      <c r="B45" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="C47" s="47"/>
-      <c r="D47" s="38"/>
-      <c r="E47" s="38"/>
-      <c r="F47" s="38"/>
-      <c r="G47" s="41"/>
-      <c r="H47" s="41"/>
-      <c r="I47" s="41"/>
-      <c r="J47" s="41">
-        <f>SUM(J10:J45)</f>
+      <c r="C45" s="47"/>
+      <c r="D45" s="38"/>
+      <c r="E45" s="38"/>
+      <c r="F45" s="38"/>
+      <c r="G45" s="41"/>
+      <c r="H45" s="41"/>
+      <c r="I45" s="41"/>
+      <c r="J45" s="41">
+        <f>SUM(J10:J43)</f>
         <v>563450.72110079345</v>
       </c>
-      <c r="K47" s="36"/>
-    </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A48" s="58"/>
-      <c r="B48" s="61"/>
-      <c r="C48" s="62"/>
-      <c r="D48" s="59"/>
-      <c r="E48" s="59"/>
-      <c r="F48" s="59"/>
-      <c r="G48" s="60"/>
-      <c r="H48" s="60"/>
-      <c r="I48" s="60"/>
-      <c r="J48" s="60"/>
-      <c r="K48" s="57"/>
-    </row>
-    <row r="49" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="50"/>
+      <c r="K45" s="36"/>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A46" s="58"/>
+      <c r="B46" s="61"/>
+      <c r="C46" s="62"/>
+      <c r="D46" s="59"/>
+      <c r="E46" s="59"/>
+      <c r="F46" s="59"/>
+      <c r="G46" s="60"/>
+      <c r="H46" s="60"/>
+      <c r="I46" s="60"/>
+      <c r="J46" s="60"/>
+      <c r="K46" s="57"/>
+    </row>
+    <row r="47" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="50"/>
+      <c r="B47" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C47" s="68">
+        <f>J45</f>
+        <v>563450.72110079345</v>
+      </c>
+      <c r="D47" s="68"/>
+      <c r="E47" s="39">
+        <v>100</v>
+      </c>
+      <c r="F47" s="51"/>
+      <c r="G47" s="52"/>
+      <c r="H47" s="51"/>
+      <c r="I47" s="53"/>
+      <c r="J47" s="54"/>
+      <c r="K47" s="55"/>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A48" s="56"/>
+      <c r="B48" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="C48" s="71">
+        <v>500000</v>
+      </c>
+      <c r="D48" s="71"/>
+      <c r="E48" s="39"/>
+      <c r="F48" s="49"/>
+      <c r="G48" s="48"/>
+      <c r="H48" s="48"/>
+      <c r="I48" s="48"/>
+      <c r="J48" s="48"/>
+      <c r="K48" s="49"/>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49" s="56"/>
       <c r="B49" s="29" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C49" s="71">
-        <f>J47</f>
-        <v>563450.72110079345</v>
+        <f>C48-C51-C52</f>
+        <v>475000</v>
       </c>
       <c r="D49" s="71"/>
       <c r="E49" s="39">
-        <v>100</v>
-      </c>
-      <c r="F49" s="51"/>
-      <c r="G49" s="52"/>
-      <c r="H49" s="51"/>
-      <c r="I49" s="53"/>
-      <c r="J49" s="54"/>
-      <c r="K49" s="55"/>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+        <f>C49/C47*100</f>
+        <v>84.301959729860585</v>
+      </c>
+      <c r="F49" s="49"/>
+      <c r="G49" s="48"/>
+      <c r="H49" s="48"/>
+      <c r="I49" s="48"/>
+      <c r="J49" s="48"/>
+      <c r="K49" s="49"/>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="56"/>
       <c r="B50" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="C50" s="74">
-        <v>500000</v>
-      </c>
-      <c r="D50" s="74"/>
-      <c r="E50" s="39"/>
+        <v>34</v>
+      </c>
+      <c r="C50" s="68">
+        <f>C47-C49</f>
+        <v>88450.721100793453</v>
+      </c>
+      <c r="D50" s="68"/>
+      <c r="E50" s="39">
+        <f>100-E49</f>
+        <v>15.698040270139415</v>
+      </c>
       <c r="F50" s="49"/>
       <c r="G50" s="48"/>
       <c r="H50" s="48"/>
@@ -2429,19 +2466,18 @@
       <c r="J50" s="48"/>
       <c r="K50" s="49"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="56"/>
       <c r="B51" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="C51" s="74">
-        <f>C50-C53-C54</f>
-        <v>475000</v>
-      </c>
-      <c r="D51" s="74"/>
+        <v>35</v>
+      </c>
+      <c r="C51" s="68">
+        <f>C48*0.03</f>
+        <v>15000</v>
+      </c>
+      <c r="D51" s="68"/>
       <c r="E51" s="39">
-        <f>C51/C49*100</f>
-        <v>84.301959729860585</v>
+        <v>3</v>
       </c>
       <c r="F51" s="49"/>
       <c r="G51" s="48"/>
@@ -2450,19 +2486,18 @@
       <c r="J51" s="48"/>
       <c r="K51" s="49"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="56"/>
       <c r="B52" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="C52" s="71">
-        <f>C49-C51</f>
-        <v>88450.721100793453</v>
-      </c>
-      <c r="D52" s="71"/>
+        <v>36</v>
+      </c>
+      <c r="C52" s="68">
+        <f>C48*0.02</f>
+        <v>10000</v>
+      </c>
+      <c r="D52" s="68"/>
       <c r="E52" s="39">
-        <f>100-E51</f>
-        <v>15.698040270139415</v>
+        <v>2</v>
       </c>
       <c r="F52" s="49"/>
       <c r="G52" s="48"/>
@@ -2471,125 +2506,77 @@
       <c r="J52" s="48"/>
       <c r="K52" s="49"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A53" s="56"/>
-      <c r="B53" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="C53" s="71">
-        <f>C50*0.03</f>
-        <v>15000</v>
-      </c>
-      <c r="D53" s="71"/>
-      <c r="E53" s="39">
-        <v>3</v>
-      </c>
-      <c r="F53" s="49"/>
-      <c r="G53" s="48"/>
-      <c r="H53" s="48"/>
-      <c r="I53" s="48"/>
-      <c r="J53" s="48"/>
-      <c r="K53" s="49"/>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A54" s="56"/>
-      <c r="B54" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="C54" s="71">
-        <f>C50*0.02</f>
-        <v>10000</v>
-      </c>
-      <c r="D54" s="71"/>
-      <c r="E54" s="39">
-        <v>2</v>
-      </c>
-      <c r="F54" s="49"/>
-      <c r="G54" s="48"/>
-      <c r="H54" s="48"/>
-      <c r="I54" s="48"/>
-      <c r="J54" s="48"/>
-      <c r="K54" s="49"/>
-    </row>
-    <row r="55" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="57"/>
-      <c r="B55" s="57"/>
-      <c r="C55" s="57"/>
-      <c r="D55" s="57"/>
-      <c r="E55" s="57"/>
-      <c r="F55" s="57"/>
-      <c r="G55" s="57"/>
-      <c r="H55" s="57"/>
-      <c r="I55" s="57"/>
-      <c r="J55" s="57"/>
-      <c r="K55" s="57"/>
-    </row>
-    <row r="56" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="57" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="58" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="59" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="60" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="61" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="62" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="63" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="64" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="65" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="66" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="67" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="68" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="69" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="70" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="71" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="72" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="73" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="74" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="75" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="76" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="77" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="78" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="79" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="80" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="81" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="82" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="83" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="84" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="85" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="86" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="87" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="88" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="89" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="90" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="91" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="92" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="93" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="94" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="95" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="96" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="97" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="98" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="99" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="100" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="101" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="102" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="103" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="104" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="105" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="106" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="107" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="108" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="109" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="110" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="111" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="53" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="57"/>
+      <c r="B53" s="57"/>
+      <c r="C53" s="57"/>
+      <c r="D53" s="57"/>
+      <c r="E53" s="57"/>
+      <c r="F53" s="57"/>
+      <c r="G53" s="57"/>
+      <c r="H53" s="57"/>
+      <c r="I53" s="57"/>
+      <c r="J53" s="57"/>
+      <c r="K53" s="57"/>
+    </row>
+    <row r="54" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="55" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="56" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="57" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="58" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="59" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="60" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="61" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="62" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="63" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="64" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="65" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="66" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="67" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="68" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="69" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="70" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="71" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="72" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="73" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="74" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="75" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="76" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="77" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="78" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="79" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="80" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="81" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="82" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="83" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="84" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="85" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="86" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="87" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="88" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="89" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="90" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="91" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="92" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="93" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="94" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="95" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="96" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="97" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="98" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="99" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="100" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="101" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="102" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="103" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="104" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="105" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="106" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="107" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="108" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="109" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="C52:D52"/>
     <mergeCell ref="A6:F6"/>
     <mergeCell ref="H6:K6"/>
     <mergeCell ref="A1:K1"/>
@@ -2597,9 +2584,17 @@
     <mergeCell ref="A3:K3"/>
     <mergeCell ref="A4:K4"/>
     <mergeCell ref="A5:K5"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C50:D50"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="70" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="80" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;LPrepared By:&amp;CChecked By:&amp;RApproved By:</oddFooter>
   </headerFooter>
@@ -2610,110 +2605,110 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13:J14"/>
+    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.33203125" customWidth="1"/>
-    <col min="2" max="2" width="36.6640625" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" customWidth="1"/>
-    <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.28515625" customWidth="1"/>
+    <col min="2" max="2" width="36.7109375" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="77" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="86" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-    </row>
-    <row r="2" spans="1:11" ht="24.6" x14ac:dyDescent="0.4">
-      <c r="A2" s="78" t="s">
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+    </row>
+    <row r="2" spans="1:11" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="87" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="78"/>
-      <c r="H2" s="78"/>
-      <c r="I2" s="78"/>
-      <c r="J2" s="78"/>
-      <c r="K2" s="78"/>
-    </row>
-    <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="69" t="s">
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="87"/>
+    </row>
+    <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="69"/>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="69"/>
-      <c r="H3" s="69"/>
-      <c r="I3" s="69"/>
-      <c r="J3" s="69"/>
-      <c r="K3" s="69"/>
-    </row>
-    <row r="4" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="69" t="s">
+      <c r="B3" s="76"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="76"/>
+      <c r="H3" s="76"/>
+      <c r="I3" s="76"/>
+      <c r="J3" s="76"/>
+      <c r="K3" s="76"/>
+    </row>
+    <row r="4" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="69"/>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="69"/>
-      <c r="K4" s="69"/>
-    </row>
-    <row r="5" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A5" s="79" t="s">
+      <c r="B4" s="76"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76"/>
+      <c r="K4" s="76"/>
+    </row>
+    <row r="5" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="88" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="79"/>
-      <c r="C5" s="79"/>
-      <c r="D5" s="79"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="79"/>
-      <c r="G5" s="79"/>
-      <c r="H5" s="79"/>
-      <c r="I5" s="79"/>
-      <c r="J5" s="79"/>
-      <c r="K5" s="79"/>
-    </row>
-    <row r="6" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="B5" s="88"/>
+      <c r="C5" s="88"/>
+      <c r="D5" s="88"/>
+      <c r="E5" s="88"/>
+      <c r="F5" s="88"/>
+      <c r="G5" s="88"/>
+      <c r="H5" s="88"/>
+      <c r="I5" s="88"/>
+      <c r="J5" s="88"/>
+      <c r="K5" s="88"/>
+    </row>
+    <row r="6" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>19</v>
       </c>
       <c r="B6" s="8"/>
-      <c r="C6" s="75">
+      <c r="C6" s="84">
         <f>F32</f>
         <v>563450.72110079345</v>
       </c>
-      <c r="D6" s="76"/>
+      <c r="D6" s="85"/>
       <c r="E6" s="9"/>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
@@ -2721,90 +2716,90 @@
         <v>20</v>
       </c>
       <c r="I6" s="8"/>
-      <c r="J6" s="75">
+      <c r="J6" s="84">
         <f>I32</f>
         <v>564335.12685567106</v>
       </c>
-      <c r="K6" s="76"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K6" s="85"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
         <v>29</v>
       </c>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
-      <c r="F7" s="82"/>
-      <c r="G7" s="82"/>
-      <c r="I7" s="83" t="s">
+      <c r="F7" s="80"/>
+      <c r="G7" s="80"/>
+      <c r="I7" s="81" t="s">
         <v>37</v>
       </c>
-      <c r="J7" s="83"/>
-      <c r="K7" s="83"/>
-    </row>
-    <row r="8" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="65" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B8" s="65"/>
-      <c r="C8" s="65"/>
-      <c r="D8" s="65"/>
-      <c r="E8" s="65"/>
-      <c r="F8" s="65"/>
-      <c r="I8" s="84" t="s">
-        <v>38</v>
-      </c>
-      <c r="J8" s="84"/>
-      <c r="K8" s="84"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="85" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B9" s="85"/>
-      <c r="C9" s="85"/>
-      <c r="D9" s="85"/>
-      <c r="E9" s="85"/>
-      <c r="F9" s="85"/>
-      <c r="I9" s="84" t="s">
-        <v>39</v>
-      </c>
-      <c r="J9" s="84"/>
-      <c r="K9" s="84"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="80" t="s">
+      <c r="J7" s="81"/>
+      <c r="K7" s="81"/>
+    </row>
+    <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="72" t="str">
+        <f>estimate!A6</f>
+        <v>Project:- सेतिदेवी मन्दिर संरक्षण</v>
+      </c>
+      <c r="B8" s="72"/>
+      <c r="C8" s="72"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="72"/>
+      <c r="F8" s="72"/>
+      <c r="I8" s="82" t="s">
+        <v>61</v>
+      </c>
+      <c r="J8" s="82"/>
+      <c r="K8" s="82"/>
+    </row>
+    <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="72" t="str">
+        <f>estimate!A7</f>
+        <v>Location:- Shankharapur Municipality 9</v>
+      </c>
+      <c r="B9" s="72"/>
+      <c r="C9" s="72"/>
+      <c r="D9" s="72"/>
+      <c r="E9" s="72"/>
+      <c r="F9" s="72"/>
+      <c r="I9" s="82" t="s">
+        <v>60</v>
+      </c>
+      <c r="J9" s="82"/>
+      <c r="K9" s="82"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="78" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="80" t="s">
+      <c r="B11" s="78" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="80" t="s">
+      <c r="C11" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="86" t="s">
+      <c r="D11" s="83" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="86"/>
-      <c r="F11" s="86"/>
-      <c r="G11" s="86" t="s">
+      <c r="E11" s="83"/>
+      <c r="F11" s="83"/>
+      <c r="G11" s="83" t="s">
         <v>24</v>
       </c>
-      <c r="H11" s="86"/>
-      <c r="I11" s="86"/>
-      <c r="J11" s="80" t="s">
+      <c r="H11" s="83"/>
+      <c r="I11" s="83"/>
+      <c r="J11" s="78" t="s">
         <v>25</v>
       </c>
-      <c r="K11" s="81" t="s">
+      <c r="K11" s="79" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="80"/>
-      <c r="B12" s="80"/>
-      <c r="C12" s="80"/>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="78"/>
+      <c r="B12" s="78"/>
+      <c r="C12" s="78"/>
       <c r="D12" s="11" t="s">
         <v>26</v>
       </c>
@@ -2823,10 +2818,10 @@
       <c r="I12" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="J12" s="80"/>
-      <c r="K12" s="81"/>
-    </row>
-    <row r="13" spans="1:11" s="1" customFormat="1" ht="140.4" x14ac:dyDescent="0.3">
+      <c r="J12" s="78"/>
+      <c r="K12" s="79"/>
+    </row>
+    <row r="13" spans="1:11" s="1" customFormat="1" ht="141.75" x14ac:dyDescent="0.25">
       <c r="A13" s="27">
         <f>estimate!A9</f>
         <v>1</v>
@@ -2869,9 +2864,9 @@
       </c>
       <c r="K13" s="14"/>
     </row>
-    <row r="14" spans="1:11" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="27"/>
-      <c r="B14" s="87" t="str">
+      <c r="B14" s="67" t="str">
         <f>estimate!B13</f>
         <v>VAT calculation</v>
       </c>
@@ -2894,7 +2889,7 @@
       </c>
       <c r="K14" s="14"/>
     </row>
-    <row r="15" spans="1:11" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="27"/>
       <c r="B15" s="32"/>
       <c r="C15" s="12"/>
@@ -2907,7 +2902,7 @@
       <c r="J15" s="28"/>
       <c r="K15" s="14"/>
     </row>
-    <row r="16" spans="1:11" s="1" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" s="1" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A16" s="27">
         <f>estimate!A15</f>
         <v>2</v>
@@ -2950,7 +2945,7 @@
       </c>
       <c r="K16" s="14"/>
     </row>
-    <row r="17" spans="1:11" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="27"/>
       <c r="B17" s="32"/>
       <c r="C17" s="12"/>
@@ -2963,7 +2958,7 @@
       <c r="J17" s="28"/>
       <c r="K17" s="14"/>
     </row>
-    <row r="18" spans="1:11" s="1" customFormat="1" ht="78" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" s="1" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A18" s="27">
         <f>estimate!A20</f>
         <v>3</v>
@@ -3006,9 +3001,9 @@
       </c>
       <c r="K18" s="14"/>
     </row>
-    <row r="19" spans="1:11" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="27"/>
-      <c r="B19" s="32" t="str">
+      <c r="B19" s="67" t="str">
         <f>estimate!B24</f>
         <v>VAT calculation</v>
       </c>
@@ -3031,7 +3026,7 @@
       </c>
       <c r="K19" s="14"/>
     </row>
-    <row r="20" spans="1:11" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="27"/>
       <c r="B20" s="32"/>
       <c r="C20" s="12"/>
@@ -3044,7 +3039,7 @@
       <c r="J20" s="28"/>
       <c r="K20" s="14"/>
     </row>
-    <row r="21" spans="1:11" s="1" customFormat="1" ht="78" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" s="1" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A21" s="27">
         <f>estimate!A26</f>
         <v>4</v>
@@ -3087,9 +3082,9 @@
       </c>
       <c r="K21" s="14"/>
     </row>
-    <row r="22" spans="1:11" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="27"/>
-      <c r="B22" s="32" t="str">
+      <c r="B22" s="67" t="str">
         <f>estimate!B31</f>
         <v>VAT calculation</v>
       </c>
@@ -3112,7 +3107,7 @@
       </c>
       <c r="K22" s="14"/>
     </row>
-    <row r="23" spans="1:11" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="27"/>
       <c r="B23" s="32"/>
       <c r="C23" s="12"/>
@@ -3125,7 +3120,7 @@
       <c r="J23" s="28"/>
       <c r="K23" s="14"/>
     </row>
-    <row r="24" spans="1:11" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" s="1" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A24" s="27">
         <f>estimate!A33</f>
         <v>5</v>
@@ -3168,9 +3163,9 @@
       </c>
       <c r="K24" s="14"/>
     </row>
-    <row r="25" spans="1:11" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="27"/>
-      <c r="B25" s="32" t="str">
+      <c r="B25" s="67" t="str">
         <f>estimate!B36</f>
         <v>VAT calculation</v>
       </c>
@@ -3193,7 +3188,7 @@
       </c>
       <c r="K25" s="14"/>
     </row>
-    <row r="26" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="29"/>
       <c r="B26" s="29"/>
       <c r="C26" s="12"/>
@@ -3206,25 +3201,25 @@
       <c r="J26" s="28"/>
       <c r="K26" s="14"/>
     </row>
-    <row r="27" spans="1:11" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" s="1" customFormat="1" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A27" s="27">
-        <f>estimate!A40</f>
+        <f>estimate!A38</f>
         <v>6</v>
       </c>
       <c r="B27" s="32" t="str">
-        <f>estimate!B40</f>
+        <f>estimate!B38</f>
         <v>Providing and laying Plum concrete ( Boulder mixed concrete) including form work and 110mm dia PN6 HDPE pipe for Weep hole as per Drawing and Specifications, 60% M 15  concrete and 40% boulders/stones, using Mechanical Aids</v>
       </c>
       <c r="C27" s="12" t="str">
-        <f>estimate!H42</f>
+        <f>estimate!H40</f>
         <v>m3</v>
       </c>
       <c r="D27" s="12">
-        <f>estimate!G42</f>
+        <f>estimate!G40</f>
         <v>43.573473598544993</v>
       </c>
       <c r="E27" s="12">
-        <f>estimate!I42</f>
+        <f>estimate!I40</f>
         <v>9623.4699999999993</v>
       </c>
       <c r="F27" s="12">
@@ -3232,11 +3227,11 @@
         <v>419328.01597138977</v>
       </c>
       <c r="G27" s="12">
-        <f>Valuated!G43</f>
+        <f>Valuated!G41</f>
         <v>44.016000000000005</v>
       </c>
       <c r="H27" s="12">
-        <f>Valuated!I43</f>
+        <f>Valuated!I41</f>
         <v>9623.4699999999993</v>
       </c>
       <c r="I27" s="12">
@@ -3249,23 +3244,23 @@
       </c>
       <c r="K27" s="14"/>
     </row>
-    <row r="28" spans="1:11" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="27"/>
-      <c r="B28" s="32" t="str">
-        <f>estimate!B43</f>
+      <c r="B28" s="67" t="str">
+        <f>estimate!B41</f>
         <v>VAT calculation</v>
       </c>
       <c r="C28" s="12"/>
       <c r="D28" s="12"/>
       <c r="E28" s="12"/>
       <c r="F28" s="12">
-        <f>estimate!J43</f>
+        <f>estimate!J41</f>
         <v>35736.330336251784</v>
       </c>
       <c r="G28" s="12"/>
       <c r="H28" s="12"/>
       <c r="I28" s="12">
-        <f>Valuated!J44</f>
+        <f>Valuated!J42</f>
         <v>36099.263753280007</v>
       </c>
       <c r="J28" s="28">
@@ -3274,7 +3269,7 @@
       </c>
       <c r="K28" s="14"/>
     </row>
-    <row r="29" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="29"/>
       <c r="B29" s="29"/>
       <c r="C29" s="12"/>
@@ -3287,25 +3282,25 @@
       <c r="J29" s="28"/>
       <c r="K29" s="14"/>
     </row>
-    <row r="30" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="27">
-        <f>estimate!A45</f>
+        <f>estimate!A43</f>
         <v>7</v>
       </c>
       <c r="B30" s="31" t="str">
-        <f>estimate!B45</f>
+        <f>estimate!B43</f>
         <v>Information board (सुचना पाटि)</v>
       </c>
       <c r="C30" s="12" t="str">
-        <f>estimate!H45</f>
+        <f>estimate!H43</f>
         <v>no.</v>
       </c>
       <c r="D30" s="12">
-        <f>estimate!G45</f>
+        <f>estimate!G43</f>
         <v>1</v>
       </c>
       <c r="E30" s="12">
-        <f>estimate!I45</f>
+        <f>estimate!I43</f>
         <v>500</v>
       </c>
       <c r="F30" s="12">
@@ -3313,11 +3308,11 @@
         <v>500</v>
       </c>
       <c r="G30" s="12">
-        <f>Valuated!G46</f>
+        <f>Valuated!G44</f>
         <v>1</v>
       </c>
       <c r="H30" s="12">
-        <f>Valuated!I46</f>
+        <f>Valuated!I44</f>
         <v>500</v>
       </c>
       <c r="I30" s="12">
@@ -3330,7 +3325,7 @@
       </c>
       <c r="K30" s="14"/>
     </row>
-    <row r="31" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="29"/>
       <c r="B31" s="29"/>
       <c r="C31" s="12"/>
@@ -3343,7 +3338,7 @@
       <c r="J31" s="28"/>
       <c r="K31" s="14"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="5"/>
       <c r="B32" s="6" t="s">
         <v>16</v>
@@ -3369,6 +3364,13 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A5:K5"/>
     <mergeCell ref="J11:J12"/>
     <mergeCell ref="K11:K12"/>
     <mergeCell ref="A8:F8"/>
@@ -3382,13 +3384,6 @@
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="D11:F11"/>
     <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="A5:K5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3404,139 +3399,139 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S112"/>
+  <dimension ref="A1:S110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" customWidth="1"/>
-    <col min="2" max="2" width="33.6640625" customWidth="1"/>
-    <col min="3" max="3" width="4.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5546875" customWidth="1"/>
-    <col min="5" max="5" width="8.5546875" customWidth="1"/>
-    <col min="6" max="6" width="8" customWidth="1"/>
-    <col min="7" max="7" width="8.5546875" customWidth="1"/>
-    <col min="8" max="8" width="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" customWidth="1"/>
+    <col min="2" max="2" width="33.7109375" customWidth="1"/>
+    <col min="3" max="3" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5703125" customWidth="1"/>
+    <col min="5" max="5" width="8.5703125" customWidth="1"/>
+    <col min="6" max="6" width="7.5703125" customWidth="1"/>
+    <col min="7" max="7" width="8.5703125" customWidth="1"/>
+    <col min="8" max="8" width="4.5703125" customWidth="1"/>
+    <col min="9" max="9" width="9.28515625" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="67" t="s">
+    <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-    </row>
-    <row r="2" spans="1:19" s="1" customFormat="1" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="68" t="s">
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
+    </row>
+    <row r="2" spans="1:19" s="1" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="68"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="68"/>
-      <c r="K2" s="68"/>
-    </row>
-    <row r="3" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="69" t="s">
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="75"/>
+      <c r="I2" s="75"/>
+      <c r="J2" s="75"/>
+      <c r="K2" s="75"/>
+    </row>
+    <row r="3" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="69"/>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="69"/>
-      <c r="H3" s="69"/>
-      <c r="I3" s="69"/>
-      <c r="J3" s="69"/>
-      <c r="K3" s="69"/>
-    </row>
-    <row r="4" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="69" t="s">
+      <c r="B3" s="76"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="76"/>
+      <c r="H3" s="76"/>
+      <c r="I3" s="76"/>
+      <c r="J3" s="76"/>
+      <c r="K3" s="76"/>
+    </row>
+    <row r="4" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="69"/>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="69"/>
-      <c r="K4" s="69"/>
-    </row>
-    <row r="5" spans="1:19" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A5" s="70" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="70"/>
-      <c r="C5" s="70"/>
-      <c r="D5" s="70"/>
-      <c r="E5" s="70"/>
-      <c r="F5" s="70"/>
-      <c r="G5" s="70"/>
-      <c r="H5" s="70"/>
-      <c r="I5" s="70"/>
-      <c r="J5" s="70"/>
-      <c r="K5" s="70"/>
-    </row>
-    <row r="6" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="65" t="s">
-        <v>52</v>
-      </c>
-      <c r="B6" s="65"/>
-      <c r="C6" s="65"/>
-      <c r="D6" s="65"/>
-      <c r="E6" s="65"/>
-      <c r="F6" s="65"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76"/>
+      <c r="K4" s="76"/>
+    </row>
+    <row r="5" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="77" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" s="77"/>
+      <c r="C5" s="77"/>
+      <c r="D5" s="77"/>
+      <c r="E5" s="77"/>
+      <c r="F5" s="77"/>
+      <c r="G5" s="77"/>
+      <c r="H5" s="77"/>
+      <c r="I5" s="77"/>
+      <c r="J5" s="77"/>
+      <c r="K5" s="77"/>
+    </row>
+    <row r="6" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="72" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="72"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="72"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="66" t="s">
-        <v>45</v>
-      </c>
-      <c r="I6" s="66"/>
-      <c r="J6" s="66"/>
-      <c r="K6" s="66"/>
+      <c r="H6" s="73" t="s">
+        <v>43</v>
+      </c>
+      <c r="I6" s="73"/>
+      <c r="J6" s="73"/>
+      <c r="K6" s="73"/>
       <c r="O6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="72" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="72"/>
-      <c r="C7" s="72"/>
-      <c r="D7" s="72"/>
-      <c r="E7" s="72"/>
-      <c r="F7" s="72"/>
+      <c r="B7" s="69"/>
+      <c r="C7" s="69"/>
+      <c r="D7" s="69"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="69"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="73" t="s">
-        <v>54</v>
-      </c>
-      <c r="I7" s="73"/>
-      <c r="J7" s="73"/>
-      <c r="K7" s="73"/>
-    </row>
-    <row r="8" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H7" s="70" t="s">
+        <v>56</v>
+      </c>
+      <c r="I7" s="70"/>
+      <c r="J7" s="70"/>
+      <c r="K7" s="70"/>
+    </row>
+    <row r="8" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>5</v>
       </c>
@@ -3571,15 +3566,15 @@
         <v>15</v>
       </c>
       <c r="N8" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" ht="124.2" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="135" x14ac:dyDescent="0.25">
       <c r="A9" s="63">
         <v>1</v>
       </c>
       <c r="B9" s="30" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C9" s="36"/>
       <c r="D9" s="36"/>
@@ -3591,13 +3586,13 @@
       <c r="J9" s="36"/>
       <c r="K9" s="36"/>
       <c r="N9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="O9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="18"/>
       <c r="B10" s="37" t="str">
         <f>B16</f>
@@ -3633,7 +3628,7 @@
       <c r="R10" s="25"/>
       <c r="S10" s="25"/>
     </row>
-    <row r="11" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="18"/>
       <c r="B11" s="37" t="str">
         <f>B17</f>
@@ -3668,10 +3663,10 @@
       <c r="R11" s="25"/>
       <c r="S11" s="25"/>
     </row>
-    <row r="12" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="18"/>
       <c r="B12" s="37" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C12" s="19"/>
       <c r="D12" s="20"/>
@@ -3682,7 +3677,7 @@
         <v>17.920839683023466</v>
       </c>
       <c r="H12" s="22" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I12" s="23">
         <v>64.63</v>
@@ -3700,10 +3695,10 @@
       <c r="R12" s="25"/>
       <c r="S12" s="25"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="40"/>
       <c r="B13" s="37" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C13" s="42"/>
       <c r="D13" s="43"/>
@@ -3718,7 +3713,7 @@
       </c>
       <c r="K13" s="36"/>
     </row>
-    <row r="14" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="18"/>
       <c r="B14" s="37"/>
       <c r="C14" s="19"/>
@@ -3738,12 +3733,12 @@
       <c r="R14" s="25"/>
       <c r="S14" s="25"/>
     </row>
-    <row r="15" spans="1:19" ht="82.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" ht="90" x14ac:dyDescent="0.25">
       <c r="A15" s="18">
         <v>2</v>
       </c>
       <c r="B15" s="30" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C15" s="19"/>
       <c r="D15" s="20"/>
@@ -3762,7 +3757,7 @@
       <c r="R15" s="25"/>
       <c r="S15" s="25"/>
     </row>
-    <row r="16" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="18"/>
       <c r="B16" s="37" t="str">
         <f>B21</f>
@@ -3798,7 +3793,7 @@
       <c r="R16" s="25"/>
       <c r="S16" s="25"/>
     </row>
-    <row r="17" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="18"/>
       <c r="B17" s="37" t="str">
         <f>B22</f>
@@ -3834,10 +3829,10 @@
       <c r="R17" s="25"/>
       <c r="S17" s="25"/>
     </row>
-    <row r="18" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="18"/>
       <c r="B18" s="37" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C18" s="19"/>
       <c r="D18" s="20"/>
@@ -3848,7 +3843,7 @@
         <v>17.920839683023466</v>
       </c>
       <c r="H18" s="22" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I18" s="23">
         <v>404.28</v>
@@ -3866,7 +3861,7 @@
       <c r="R18" s="25"/>
       <c r="S18" s="25"/>
     </row>
-    <row r="19" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="18"/>
       <c r="B19" s="37"/>
       <c r="C19" s="19"/>
@@ -3886,12 +3881,12 @@
       <c r="R19" s="25"/>
       <c r="S19" s="25"/>
     </row>
-    <row r="20" spans="1:19" ht="69" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" ht="75" x14ac:dyDescent="0.25">
       <c r="A20" s="18">
         <v>3</v>
       </c>
       <c r="B20" s="30" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C20" s="19"/>
       <c r="D20" s="20"/>
@@ -3910,17 +3905,17 @@
       <c r="R20" s="25"/>
       <c r="S20" s="25"/>
     </row>
-    <row r="21" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="18"/>
       <c r="B21" s="37" t="str">
-        <f>B41</f>
+        <f>B39</f>
         <v>-For plum wall</v>
       </c>
       <c r="C21" s="36">
         <v>1</v>
       </c>
       <c r="D21" s="38">
-        <f>D41+D42</f>
+        <f>D39+D40</f>
         <v>12.4</v>
       </c>
       <c r="E21" s="38">
@@ -3946,7 +3941,7 @@
       <c r="R21" s="25"/>
       <c r="S21" s="25"/>
     </row>
-    <row r="22" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="18"/>
       <c r="B22" s="37" t="str">
         <f>B28</f>
@@ -3983,10 +3978,10 @@
       <c r="R22" s="25"/>
       <c r="S22" s="25"/>
     </row>
-    <row r="23" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="40"/>
       <c r="B23" s="37" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C23" s="42"/>
       <c r="D23" s="43"/>
@@ -3997,7 +3992,7 @@
         <v>3.7487519049070404</v>
       </c>
       <c r="H23" s="33" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I23" s="33">
         <v>4561.53</v>
@@ -4008,10 +4003,10 @@
       </c>
       <c r="K23" s="36"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="40"/>
       <c r="B24" s="37" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C24" s="42"/>
       <c r="D24" s="43"/>
@@ -4026,7 +4021,7 @@
       </c>
       <c r="K24" s="36"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="40"/>
       <c r="B25" s="37"/>
       <c r="C25" s="42"/>
@@ -4039,12 +4034,12 @@
       <c r="J25" s="45"/>
       <c r="K25" s="36"/>
     </row>
-    <row r="26" spans="1:19" ht="69" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19" ht="75" x14ac:dyDescent="0.25">
       <c r="A26" s="18">
         <v>4</v>
       </c>
       <c r="B26" s="30" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C26" s="19"/>
       <c r="D26" s="20"/>
@@ -4063,14 +4058,14 @@
       <c r="R26" s="25"/>
       <c r="S26" s="25"/>
     </row>
-    <row r="27" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="18"/>
       <c r="B27" s="37" t="str">
-        <f>B41</f>
+        <f>B39</f>
         <v>-For plum wall</v>
       </c>
       <c r="C27" s="36">
-        <f>C41</f>
+        <f>C39</f>
         <v>1</v>
       </c>
       <c r="D27" s="38">
@@ -4100,7 +4095,7 @@
       <c r="R27" s="25"/>
       <c r="S27" s="25"/>
     </row>
-    <row r="28" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="18"/>
       <c r="B28" s="37" t="str">
         <f>B34</f>
@@ -4136,7 +4131,7 @@
       <c r="R28" s="25"/>
       <c r="S28" s="25"/>
     </row>
-    <row r="29" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="18"/>
       <c r="B29" s="37"/>
       <c r="C29" s="36">
@@ -4169,10 +4164,10 @@
       <c r="R29" s="25"/>
       <c r="S29" s="25"/>
     </row>
-    <row r="30" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="40"/>
       <c r="B30" s="37" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C30" s="42"/>
       <c r="D30" s="43"/>
@@ -4183,7 +4178,7 @@
         <v>1.8647752209692168</v>
       </c>
       <c r="H30" s="33" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I30" s="33">
         <v>10634.5</v>
@@ -4194,10 +4189,10 @@
       </c>
       <c r="K30" s="36"/>
     </row>
-    <row r="31" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="40"/>
       <c r="B31" s="37" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C31" s="42"/>
       <c r="D31" s="43"/>
@@ -4212,7 +4207,7 @@
       </c>
       <c r="K31" s="36"/>
     </row>
-    <row r="32" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="40"/>
       <c r="B32" s="37"/>
       <c r="C32" s="42"/>
@@ -4225,12 +4220,12 @@
       <c r="J32" s="45"/>
       <c r="K32" s="36"/>
     </row>
-    <row r="33" spans="1:19" s="1" customFormat="1" ht="69" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:19" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A33" s="63">
         <v>5</v>
       </c>
       <c r="B33" s="30" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C33" s="64"/>
       <c r="D33" s="39"/>
@@ -4242,10 +4237,10 @@
       <c r="J33" s="45"/>
       <c r="K33" s="29"/>
     </row>
-    <row r="34" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="18"/>
       <c r="B34" s="37" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C34" s="36">
         <v>1</v>
@@ -4278,10 +4273,10 @@
       <c r="R34" s="25"/>
       <c r="S34" s="25"/>
     </row>
-    <row r="35" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="40"/>
       <c r="B35" s="37" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C35" s="42"/>
       <c r="D35" s="43"/>
@@ -4292,7 +4287,7 @@
         <v>5.3033169372373941</v>
       </c>
       <c r="H35" s="33" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I35" s="33">
         <v>9709.43</v>
@@ -4303,10 +4298,10 @@
       </c>
       <c r="K35" s="36"/>
     </row>
-    <row r="36" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="40"/>
       <c r="B36" s="37" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C36" s="42"/>
       <c r="D36" s="43"/>
@@ -4321,7 +4316,7 @@
       </c>
       <c r="K36" s="36"/>
     </row>
-    <row r="37" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="40"/>
       <c r="B37" s="37"/>
       <c r="C37" s="42"/>
@@ -4334,7 +4329,1382 @@
       <c r="J37" s="45"/>
       <c r="K37" s="36"/>
     </row>
-    <row r="38" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:19" s="1" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+      <c r="A38" s="63">
+        <v>6</v>
+      </c>
+      <c r="B38" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="C38" s="64"/>
+      <c r="D38" s="39"/>
+      <c r="E38" s="39"/>
+      <c r="F38" s="39"/>
+      <c r="G38" s="39"/>
+      <c r="H38" s="39"/>
+      <c r="I38" s="39"/>
+      <c r="J38" s="45"/>
+      <c r="K38" s="29"/>
+    </row>
+    <row r="39" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="18"/>
+      <c r="B39" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="C39" s="36">
+        <v>1</v>
+      </c>
+      <c r="D39" s="38">
+        <f>(12.5+12.3)/2-D40</f>
+        <v>6.8000000000000007</v>
+      </c>
+      <c r="E39" s="38">
+        <f>((1.75+0.63)/2)</f>
+        <v>1.19</v>
+      </c>
+      <c r="F39" s="38">
+        <v>3</v>
+      </c>
+      <c r="G39" s="39">
+        <f>PRODUCT(C39:F39)</f>
+        <v>24.276000000000003</v>
+      </c>
+      <c r="H39" s="40"/>
+      <c r="I39" s="40"/>
+      <c r="J39" s="40"/>
+      <c r="K39" s="21"/>
+      <c r="M39" s="25"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+      <c r="P39" s="1"/>
+      <c r="Q39" s="1"/>
+      <c r="R39" s="25"/>
+      <c r="S39" s="25"/>
+    </row>
+    <row r="40" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="18"/>
+      <c r="B40" s="37"/>
+      <c r="C40" s="36">
+        <v>1</v>
+      </c>
+      <c r="D40" s="38">
+        <f>5.6</f>
+        <v>5.6</v>
+      </c>
+      <c r="E40" s="38">
+        <f>((1.75+0.6)/2)</f>
+        <v>1.175</v>
+      </c>
+      <c r="F40" s="38">
+        <v>3</v>
+      </c>
+      <c r="G40" s="39">
+        <f>PRODUCT(C40:F40)</f>
+        <v>19.740000000000002</v>
+      </c>
+      <c r="H40" s="40"/>
+      <c r="I40" s="40"/>
+      <c r="J40" s="40"/>
+      <c r="K40" s="21"/>
+      <c r="M40" s="25"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+      <c r="P40" s="1"/>
+      <c r="Q40" s="1"/>
+      <c r="R40" s="25"/>
+      <c r="S40" s="25"/>
+    </row>
+    <row r="41" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="40"/>
+      <c r="B41" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="C41" s="42"/>
+      <c r="D41" s="43"/>
+      <c r="E41" s="43"/>
+      <c r="F41" s="43"/>
+      <c r="G41" s="33">
+        <f>SUM(G39:G40)</f>
+        <v>44.016000000000005</v>
+      </c>
+      <c r="H41" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="I41" s="33">
+        <v>9623.4699999999993</v>
+      </c>
+      <c r="J41" s="44">
+        <f>G41*I41</f>
+        <v>423586.65552000003</v>
+      </c>
+      <c r="K41" s="36"/>
+    </row>
+    <row r="42" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="40"/>
+      <c r="B42" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="C42" s="42"/>
+      <c r="D42" s="43"/>
+      <c r="E42" s="43"/>
+      <c r="F42" s="43"/>
+      <c r="G42" s="43"/>
+      <c r="H42" s="43"/>
+      <c r="I42" s="43"/>
+      <c r="J42" s="45">
+        <f>0.13*G41*((59609.3+3478.36)/10)</f>
+        <v>36099.263753280007</v>
+      </c>
+      <c r="K42" s="36"/>
+    </row>
+    <row r="43" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="40"/>
+      <c r="B43" s="37"/>
+      <c r="C43" s="42"/>
+      <c r="D43" s="43"/>
+      <c r="E43" s="43"/>
+      <c r="F43" s="43"/>
+      <c r="G43" s="33"/>
+      <c r="H43" s="33"/>
+      <c r="I43" s="33"/>
+      <c r="J43" s="44"/>
+      <c r="K43" s="36"/>
+    </row>
+    <row r="44" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="18">
+        <v>7</v>
+      </c>
+      <c r="B44" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C44" s="19">
+        <v>1</v>
+      </c>
+      <c r="D44" s="20"/>
+      <c r="E44" s="21"/>
+      <c r="F44" s="21"/>
+      <c r="G44" s="34">
+        <f t="shared" ref="G44" si="1">PRODUCT(C44:F44)</f>
+        <v>1</v>
+      </c>
+      <c r="H44" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="I44" s="23">
+        <v>500</v>
+      </c>
+      <c r="J44" s="34">
+        <f>G44*I44</f>
+        <v>500</v>
+      </c>
+      <c r="K44" s="21"/>
+      <c r="M44" s="25"/>
+      <c r="N44" s="1"/>
+      <c r="O44" s="1"/>
+      <c r="P44" s="1"/>
+      <c r="Q44" s="1"/>
+      <c r="R44" s="25"/>
+      <c r="S44" s="25"/>
+    </row>
+    <row r="45" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="18"/>
+      <c r="B45" s="24"/>
+      <c r="C45" s="19"/>
+      <c r="D45" s="20"/>
+      <c r="E45" s="21"/>
+      <c r="F45" s="21"/>
+      <c r="G45" s="23"/>
+      <c r="H45" s="22"/>
+      <c r="I45" s="23"/>
+      <c r="J45" s="41"/>
+      <c r="K45" s="21"/>
+      <c r="M45" s="25"/>
+      <c r="N45" s="1">
+        <f>2.4*3.281</f>
+        <v>7.8743999999999996</v>
+      </c>
+      <c r="O45" s="1"/>
+      <c r="P45" s="1"/>
+      <c r="Q45" s="1"/>
+      <c r="R45" s="25"/>
+      <c r="S45" s="25"/>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A46" s="40"/>
+      <c r="B46" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="C46" s="47"/>
+      <c r="D46" s="38"/>
+      <c r="E46" s="38"/>
+      <c r="F46" s="38"/>
+      <c r="G46" s="41"/>
+      <c r="H46" s="41"/>
+      <c r="I46" s="41"/>
+      <c r="J46" s="41">
+        <f>SUM(J10:J44)</f>
+        <v>564335.12685567106</v>
+      </c>
+      <c r="K46" s="36"/>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A47" s="58"/>
+      <c r="B47" s="61"/>
+      <c r="C47" s="62"/>
+      <c r="D47" s="59"/>
+      <c r="E47" s="59"/>
+      <c r="F47" s="59"/>
+      <c r="G47" s="60"/>
+      <c r="H47" s="60"/>
+      <c r="I47" s="60"/>
+      <c r="J47" s="60"/>
+      <c r="K47" s="57"/>
+    </row>
+    <row r="48" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="50"/>
+      <c r="B48" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="C48" s="68">
+        <f>J46</f>
+        <v>564335.12685567106</v>
+      </c>
+      <c r="D48" s="68"/>
+      <c r="E48" s="39">
+        <v>100</v>
+      </c>
+      <c r="F48" s="51"/>
+      <c r="G48" s="52"/>
+      <c r="H48" s="51"/>
+      <c r="I48" s="53"/>
+      <c r="J48" s="54"/>
+      <c r="K48" s="55"/>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49" s="56"/>
+      <c r="B49" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="C49" s="71">
+        <v>500000</v>
+      </c>
+      <c r="D49" s="71"/>
+      <c r="E49" s="39"/>
+      <c r="F49" s="49"/>
+      <c r="G49" s="48"/>
+      <c r="H49" s="48"/>
+      <c r="I49" s="48"/>
+      <c r="J49" s="48"/>
+      <c r="K49" s="49"/>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50" s="56"/>
+      <c r="B50" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="C50" s="71">
+        <f>C49-C52-C53</f>
+        <v>475000</v>
+      </c>
+      <c r="D50" s="71"/>
+      <c r="E50" s="39">
+        <f>C50/C48*100</f>
+        <v>84.169844724459523</v>
+      </c>
+      <c r="F50" s="49"/>
+      <c r="G50" s="48"/>
+      <c r="H50" s="48"/>
+      <c r="I50" s="48"/>
+      <c r="J50" s="48"/>
+      <c r="K50" s="49"/>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51" s="56"/>
+      <c r="B51" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="C51" s="68">
+        <f>C48-C50</f>
+        <v>89335.126855671057</v>
+      </c>
+      <c r="D51" s="68"/>
+      <c r="E51" s="39">
+        <f>100-E50</f>
+        <v>15.830155275540477</v>
+      </c>
+      <c r="F51" s="49"/>
+      <c r="G51" s="48"/>
+      <c r="H51" s="48"/>
+      <c r="I51" s="48"/>
+      <c r="J51" s="48"/>
+      <c r="K51" s="49"/>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52" s="56"/>
+      <c r="B52" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="C52" s="68">
+        <f>C49*0.03</f>
+        <v>15000</v>
+      </c>
+      <c r="D52" s="68"/>
+      <c r="E52" s="39">
+        <v>3</v>
+      </c>
+      <c r="F52" s="49"/>
+      <c r="G52" s="48"/>
+      <c r="H52" s="48"/>
+      <c r="I52" s="48"/>
+      <c r="J52" s="48"/>
+      <c r="K52" s="49"/>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A53" s="56"/>
+      <c r="B53" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="C53" s="68">
+        <f>C49*0.02</f>
+        <v>10000</v>
+      </c>
+      <c r="D53" s="68"/>
+      <c r="E53" s="39">
+        <v>2</v>
+      </c>
+      <c r="F53" s="49"/>
+      <c r="G53" s="48"/>
+      <c r="H53" s="48"/>
+      <c r="I53" s="48"/>
+      <c r="J53" s="48"/>
+      <c r="K53" s="49"/>
+    </row>
+    <row r="54" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="57"/>
+      <c r="B54" s="57"/>
+      <c r="C54" s="57"/>
+      <c r="D54" s="57"/>
+      <c r="E54" s="57"/>
+      <c r="F54" s="57"/>
+      <c r="G54" s="57"/>
+      <c r="H54" s="57"/>
+      <c r="I54" s="57"/>
+      <c r="J54" s="57"/>
+      <c r="K54" s="57"/>
+    </row>
+    <row r="55" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="56" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="57" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="58" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="59" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="60" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="61" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="62" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="63" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="64" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="65" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="66" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="67" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="68" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="69" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="70" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="71" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="72" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="73" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="74" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="75" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="76" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="77" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="78" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="79" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="80" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="81" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="82" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="83" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="84" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="85" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="86" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="87" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="88" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="89" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="90" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="91" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="92" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="93" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="94" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="95" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="96" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="97" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="98" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="99" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="100" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="101" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="102" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="103" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="104" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="105" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="106" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="107" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="108" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="109" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="110" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A5:K5"/>
+  </mergeCells>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="80" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;LPrepared By:&amp;CChecked By:&amp;RApproved By:</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S112"/>
+  <sheetViews>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A25" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.7109375" customWidth="1"/>
+    <col min="2" max="2" width="33.7109375" customWidth="1"/>
+    <col min="3" max="3" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5703125" customWidth="1"/>
+    <col min="5" max="5" width="8.5703125" customWidth="1"/>
+    <col min="6" max="6" width="8" customWidth="1"/>
+    <col min="7" max="7" width="8.5703125" customWidth="1"/>
+    <col min="8" max="8" width="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5703125" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" hidden="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="74" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
+    </row>
+    <row r="2" spans="1:19" s="1" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="75" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="75"/>
+      <c r="I2" s="75"/>
+      <c r="J2" s="75"/>
+      <c r="K2" s="75"/>
+    </row>
+    <row r="3" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="76" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="76"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="76"/>
+      <c r="H3" s="76"/>
+      <c r="I3" s="76"/>
+      <c r="J3" s="76"/>
+      <c r="K3" s="76"/>
+    </row>
+    <row r="4" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="76" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="76"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76"/>
+      <c r="K4" s="76"/>
+    </row>
+    <row r="5" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="77" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" s="77"/>
+      <c r="C5" s="77"/>
+      <c r="D5" s="77"/>
+      <c r="E5" s="77"/>
+      <c r="F5" s="77"/>
+      <c r="G5" s="77"/>
+      <c r="H5" s="77"/>
+      <c r="I5" s="77"/>
+      <c r="J5" s="77"/>
+      <c r="K5" s="77"/>
+    </row>
+    <row r="6" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="72" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="72"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="72"/>
+      <c r="G6" s="2"/>
+      <c r="I6" s="89"/>
+      <c r="J6" s="89"/>
+      <c r="K6" s="65" t="s">
+        <v>43</v>
+      </c>
+      <c r="O6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="69" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="69"/>
+      <c r="C7" s="69"/>
+      <c r="D7" s="69"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="69"/>
+      <c r="G7" s="3"/>
+      <c r="I7" s="90"/>
+      <c r="J7" s="90"/>
+      <c r="K7" s="66" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="K8" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="N8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="135" x14ac:dyDescent="0.25">
+      <c r="A9" s="63">
+        <v>1</v>
+      </c>
+      <c r="B9" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="36"/>
+      <c r="K9" s="36"/>
+      <c r="N9" t="s">
+        <v>45</v>
+      </c>
+      <c r="O9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="18"/>
+      <c r="B10" s="37" t="str">
+        <f>B16</f>
+        <v>-For plum wall</v>
+      </c>
+      <c r="C10" s="36">
+        <v>0.5</v>
+      </c>
+      <c r="D10" s="38">
+        <f>D16</f>
+        <v>12.4</v>
+      </c>
+      <c r="E10" s="38">
+        <f>1.75</f>
+        <v>1.75</v>
+      </c>
+      <c r="F10" s="38">
+        <v>1.5</v>
+      </c>
+      <c r="G10" s="39">
+        <f>PRODUCT(C10:F10)</f>
+        <v>16.274999999999999</v>
+      </c>
+      <c r="H10" s="40"/>
+      <c r="I10" s="40"/>
+      <c r="J10" s="40"/>
+      <c r="K10" s="21"/>
+      <c r="M10" s="25"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="25"/>
+      <c r="S10" s="25"/>
+    </row>
+    <row r="11" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="18"/>
+      <c r="B11" s="37" t="str">
+        <f>B17</f>
+        <v>-For masonary wall</v>
+      </c>
+      <c r="C11" s="36">
+        <v>0.5</v>
+      </c>
+      <c r="D11" s="38">
+        <f>D17</f>
+        <v>2.7430661383724475</v>
+      </c>
+      <c r="E11" s="38">
+        <v>1.2</v>
+      </c>
+      <c r="F11" s="38">
+        <v>1</v>
+      </c>
+      <c r="G11" s="39">
+        <f>PRODUCT(C11:F11)</f>
+        <v>1.6458396830234685</v>
+      </c>
+      <c r="H11" s="40"/>
+      <c r="I11" s="40"/>
+      <c r="J11" s="40"/>
+      <c r="K11" s="21"/>
+      <c r="M11" s="25"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="25"/>
+      <c r="S11" s="25"/>
+    </row>
+    <row r="12" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="18"/>
+      <c r="B12" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="19"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="23">
+        <f>SUM(G10:G11)</f>
+        <v>17.920839683023466</v>
+      </c>
+      <c r="H12" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="I12" s="23">
+        <v>64.63</v>
+      </c>
+      <c r="J12" s="41">
+        <f>G12*I12</f>
+        <v>1158.2238687138065</v>
+      </c>
+      <c r="K12" s="21"/>
+      <c r="M12" s="25"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="25"/>
+      <c r="S12" s="25"/>
+    </row>
+    <row r="13" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="40"/>
+      <c r="B13" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="42"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="43"/>
+      <c r="H13" s="43"/>
+      <c r="I13" s="43"/>
+      <c r="J13" s="45">
+        <f>0.13*G12*(19284/360)</f>
+        <v>124.79475393934774</v>
+      </c>
+      <c r="K13" s="36"/>
+    </row>
+    <row r="14" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="18"/>
+      <c r="B14" s="37"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="41"/>
+      <c r="K14" s="21"/>
+      <c r="M14" s="25"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="25"/>
+      <c r="S14" s="25"/>
+    </row>
+    <row r="15" spans="1:19" ht="90" x14ac:dyDescent="0.25">
+      <c r="A15" s="18">
+        <v>2</v>
+      </c>
+      <c r="B15" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="19"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="41"/>
+      <c r="K15" s="21"/>
+      <c r="M15" s="25"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="25"/>
+      <c r="S15" s="25"/>
+    </row>
+    <row r="16" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="18"/>
+      <c r="B16" s="37" t="str">
+        <f>B21</f>
+        <v>-For plum wall</v>
+      </c>
+      <c r="C16" s="36">
+        <v>0.5</v>
+      </c>
+      <c r="D16" s="38">
+        <f>D21</f>
+        <v>12.4</v>
+      </c>
+      <c r="E16" s="38">
+        <f>E21</f>
+        <v>1.75</v>
+      </c>
+      <c r="F16" s="38">
+        <v>1.5</v>
+      </c>
+      <c r="G16" s="39">
+        <f>PRODUCT(C16:F16)</f>
+        <v>16.274999999999999</v>
+      </c>
+      <c r="H16" s="40"/>
+      <c r="I16" s="40"/>
+      <c r="J16" s="40"/>
+      <c r="K16" s="21"/>
+      <c r="M16" s="25"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="25"/>
+      <c r="S16" s="25"/>
+    </row>
+    <row r="17" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="18"/>
+      <c r="B17" s="37" t="str">
+        <f>B22</f>
+        <v>-For masonary wall</v>
+      </c>
+      <c r="C17" s="36">
+        <v>0.5</v>
+      </c>
+      <c r="D17" s="38">
+        <f>D22</f>
+        <v>2.7430661383724475</v>
+      </c>
+      <c r="E17" s="38">
+        <f>E22</f>
+        <v>1.2</v>
+      </c>
+      <c r="F17" s="38">
+        <v>1</v>
+      </c>
+      <c r="G17" s="39">
+        <f>PRODUCT(C17:F17)</f>
+        <v>1.6458396830234685</v>
+      </c>
+      <c r="H17" s="40"/>
+      <c r="I17" s="40"/>
+      <c r="J17" s="40"/>
+      <c r="K17" s="21"/>
+      <c r="M17" s="25"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="25"/>
+      <c r="S17" s="25"/>
+    </row>
+    <row r="18" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="18"/>
+      <c r="B18" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="19"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="23">
+        <f>SUM(G16:G17)</f>
+        <v>17.920839683023466</v>
+      </c>
+      <c r="H18" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="I18" s="23">
+        <v>404.28</v>
+      </c>
+      <c r="J18" s="41">
+        <f>G18*I18</f>
+        <v>7245.0370670527263</v>
+      </c>
+      <c r="K18" s="21"/>
+      <c r="M18" s="25"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="25"/>
+      <c r="S18" s="25"/>
+    </row>
+    <row r="19" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="18"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="41"/>
+      <c r="K19" s="21"/>
+      <c r="M19" s="25"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="25"/>
+      <c r="S19" s="25"/>
+    </row>
+    <row r="20" spans="1:19" ht="75" x14ac:dyDescent="0.25">
+      <c r="A20" s="18">
+        <v>3</v>
+      </c>
+      <c r="B20" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="19"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="41"/>
+      <c r="K20" s="21"/>
+      <c r="M20" s="25"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="25"/>
+      <c r="S20" s="25"/>
+    </row>
+    <row r="21" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="18"/>
+      <c r="B21" s="37" t="str">
+        <f>B41</f>
+        <v>-For plum wall</v>
+      </c>
+      <c r="C21" s="36">
+        <v>1</v>
+      </c>
+      <c r="D21" s="38">
+        <f>D41+D42</f>
+        <v>12.4</v>
+      </c>
+      <c r="E21" s="38">
+        <f>1.75</f>
+        <v>1.75</v>
+      </c>
+      <c r="F21" s="38">
+        <v>0.15</v>
+      </c>
+      <c r="G21" s="39">
+        <f>PRODUCT(C21:F21)</f>
+        <v>3.2549999999999999</v>
+      </c>
+      <c r="H21" s="40"/>
+      <c r="I21" s="40"/>
+      <c r="J21" s="40"/>
+      <c r="K21" s="21"/>
+      <c r="M21" s="25"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="25"/>
+      <c r="S21" s="25"/>
+    </row>
+    <row r="22" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="18"/>
+      <c r="B22" s="37" t="str">
+        <f>B28</f>
+        <v>-For masonary wall</v>
+      </c>
+      <c r="C22" s="36">
+        <f>C28</f>
+        <v>1</v>
+      </c>
+      <c r="D22" s="38">
+        <f>D28</f>
+        <v>2.7430661383724475</v>
+      </c>
+      <c r="E22" s="38">
+        <f>E28</f>
+        <v>1.2</v>
+      </c>
+      <c r="F22" s="38">
+        <v>0.15</v>
+      </c>
+      <c r="G22" s="39">
+        <f>PRODUCT(C22:F22)</f>
+        <v>0.49375190490704052</v>
+      </c>
+      <c r="H22" s="40"/>
+      <c r="I22" s="40"/>
+      <c r="J22" s="40"/>
+      <c r="K22" s="21"/>
+      <c r="M22" s="25"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="25"/>
+      <c r="S22" s="25"/>
+    </row>
+    <row r="23" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="40"/>
+      <c r="B23" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" s="42"/>
+      <c r="D23" s="43"/>
+      <c r="E23" s="43"/>
+      <c r="F23" s="43"/>
+      <c r="G23" s="33">
+        <f>SUM(G21:G22)</f>
+        <v>3.7487519049070404</v>
+      </c>
+      <c r="H23" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="I23" s="33">
+        <v>4561.53</v>
+      </c>
+      <c r="J23" s="44">
+        <f>G23*I23</f>
+        <v>17100.04427679061</v>
+      </c>
+      <c r="K23" s="36"/>
+    </row>
+    <row r="24" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="40"/>
+      <c r="B24" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="42"/>
+      <c r="D24" s="43"/>
+      <c r="E24" s="43"/>
+      <c r="F24" s="43"/>
+      <c r="G24" s="43"/>
+      <c r="H24" s="43"/>
+      <c r="I24" s="43"/>
+      <c r="J24" s="45">
+        <f>0.13*G23*(15452.6/5)</f>
+        <v>1506.1270558299298</v>
+      </c>
+      <c r="K24" s="36"/>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A25" s="40"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="43"/>
+      <c r="E25" s="43"/>
+      <c r="F25" s="43"/>
+      <c r="G25" s="43"/>
+      <c r="H25" s="43"/>
+      <c r="I25" s="43"/>
+      <c r="J25" s="45"/>
+      <c r="K25" s="36"/>
+    </row>
+    <row r="26" spans="1:19" ht="75" x14ac:dyDescent="0.25">
+      <c r="A26" s="18">
+        <v>4</v>
+      </c>
+      <c r="B26" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="C26" s="19"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="23"/>
+      <c r="J26" s="41"/>
+      <c r="K26" s="21"/>
+      <c r="M26" s="25"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="25"/>
+      <c r="S26" s="25"/>
+    </row>
+    <row r="27" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="18"/>
+      <c r="B27" s="37" t="str">
+        <f>B41</f>
+        <v>-For plum wall</v>
+      </c>
+      <c r="C27" s="36">
+        <f>C41</f>
+        <v>1</v>
+      </c>
+      <c r="D27" s="38">
+        <f>D21</f>
+        <v>12.4</v>
+      </c>
+      <c r="E27" s="38">
+        <f>E21</f>
+        <v>1.75</v>
+      </c>
+      <c r="F27" s="38">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="G27" s="39">
+        <f t="shared" ref="G27:G29" si="0">PRODUCT(C27:F27)</f>
+        <v>1.6274999999999999</v>
+      </c>
+      <c r="H27" s="40"/>
+      <c r="I27" s="40"/>
+      <c r="J27" s="40"/>
+      <c r="K27" s="21"/>
+      <c r="M27" s="25"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="25"/>
+      <c r="S27" s="25"/>
+    </row>
+    <row r="28" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="18"/>
+      <c r="B28" s="37" t="str">
+        <f>B34</f>
+        <v>-For masonary wall</v>
+      </c>
+      <c r="C28" s="36">
+        <f>C34</f>
+        <v>1</v>
+      </c>
+      <c r="D28" s="38">
+        <f>D34</f>
+        <v>2.7430661383724475</v>
+      </c>
+      <c r="E28" s="38">
+        <v>1.2</v>
+      </c>
+      <c r="F28" s="38">
+        <v>0.05</v>
+      </c>
+      <c r="G28" s="39">
+        <f t="shared" si="0"/>
+        <v>0.16458396830234687</v>
+      </c>
+      <c r="H28" s="40"/>
+      <c r="I28" s="40"/>
+      <c r="J28" s="40"/>
+      <c r="K28" s="21"/>
+      <c r="M28" s="25"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="25"/>
+      <c r="S28" s="25"/>
+    </row>
+    <row r="29" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="18"/>
+      <c r="B29" s="37"/>
+      <c r="C29" s="36">
+        <f>C28</f>
+        <v>1</v>
+      </c>
+      <c r="D29" s="38">
+        <f>D28</f>
+        <v>2.7430661383724475</v>
+      </c>
+      <c r="E29" s="38">
+        <v>0.53</v>
+      </c>
+      <c r="F29" s="38">
+        <v>0.05</v>
+      </c>
+      <c r="G29" s="39">
+        <f t="shared" si="0"/>
+        <v>7.2691252666869863E-2</v>
+      </c>
+      <c r="H29" s="40"/>
+      <c r="I29" s="40"/>
+      <c r="J29" s="40"/>
+      <c r="K29" s="21"/>
+      <c r="M29" s="25"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="1"/>
+      <c r="R29" s="25"/>
+      <c r="S29" s="25"/>
+    </row>
+    <row r="30" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="40"/>
+      <c r="B30" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="C30" s="42"/>
+      <c r="D30" s="43"/>
+      <c r="E30" s="43"/>
+      <c r="F30" s="43"/>
+      <c r="G30" s="33">
+        <f>SUM(G27:G29)</f>
+        <v>1.8647752209692168</v>
+      </c>
+      <c r="H30" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="I30" s="33">
+        <v>10634.5</v>
+      </c>
+      <c r="J30" s="44">
+        <f>G30*I30</f>
+        <v>19830.952087397134</v>
+      </c>
+      <c r="K30" s="36"/>
+    </row>
+    <row r="31" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="40"/>
+      <c r="B31" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="C31" s="42"/>
+      <c r="D31" s="43"/>
+      <c r="E31" s="43"/>
+      <c r="F31" s="43"/>
+      <c r="G31" s="43"/>
+      <c r="H31" s="43"/>
+      <c r="I31" s="43"/>
+      <c r="J31" s="45">
+        <f>0.13*G30*((114907.3+6135.3)/15)</f>
+        <v>1956.2160900679673</v>
+      </c>
+      <c r="K31" s="36"/>
+    </row>
+    <row r="32" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="40"/>
+      <c r="B32" s="37"/>
+      <c r="C32" s="42"/>
+      <c r="D32" s="43"/>
+      <c r="E32" s="43"/>
+      <c r="F32" s="43"/>
+      <c r="G32" s="43"/>
+      <c r="H32" s="43"/>
+      <c r="I32" s="43"/>
+      <c r="J32" s="45"/>
+      <c r="K32" s="36"/>
+    </row>
+    <row r="33" spans="1:19" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A33" s="63">
+        <v>5</v>
+      </c>
+      <c r="B33" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="C33" s="64"/>
+      <c r="D33" s="39"/>
+      <c r="E33" s="39"/>
+      <c r="F33" s="39"/>
+      <c r="G33" s="39"/>
+      <c r="H33" s="39"/>
+      <c r="I33" s="39"/>
+      <c r="J33" s="45"/>
+      <c r="K33" s="29"/>
+    </row>
+    <row r="34" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="18"/>
+      <c r="B34" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="C34" s="36">
+        <v>1</v>
+      </c>
+      <c r="D34" s="38">
+        <f>9/3.281</f>
+        <v>2.7430661383724475</v>
+      </c>
+      <c r="E34" s="38">
+        <f>((1.2+0.53)/2)</f>
+        <v>0.86499999999999999</v>
+      </c>
+      <c r="F34" s="38">
+        <f>(99-2-3-6)/12/3.281</f>
+        <v>2.2350909275627346</v>
+      </c>
+      <c r="G34" s="39">
+        <f>PRODUCT(C34:F34)</f>
+        <v>5.3033169372373941</v>
+      </c>
+      <c r="H34" s="40"/>
+      <c r="I34" s="40"/>
+      <c r="J34" s="40"/>
+      <c r="K34" s="21"/>
+      <c r="M34" s="25"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="1"/>
+      <c r="R34" s="25"/>
+      <c r="S34" s="25"/>
+    </row>
+    <row r="35" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="40"/>
+      <c r="B35" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="C35" s="42"/>
+      <c r="D35" s="43"/>
+      <c r="E35" s="43"/>
+      <c r="F35" s="43"/>
+      <c r="G35" s="33">
+        <f>SUM(G34:G34)</f>
+        <v>5.3033169372373941</v>
+      </c>
+      <c r="H35" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="I35" s="33">
+        <v>9709.43</v>
+      </c>
+      <c r="J35" s="44">
+        <f>G35*I35</f>
+        <v>51492.184569920872</v>
+      </c>
+      <c r="K35" s="36"/>
+    </row>
+    <row r="36" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="40"/>
+      <c r="B36" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="C36" s="42"/>
+      <c r="D36" s="43"/>
+      <c r="E36" s="43"/>
+      <c r="F36" s="43"/>
+      <c r="G36" s="43"/>
+      <c r="H36" s="43"/>
+      <c r="I36" s="43"/>
+      <c r="J36" s="45">
+        <f>0.13*G35*(27092.1/5)</f>
+        <v>3735.6278126785596</v>
+      </c>
+      <c r="K36" s="36"/>
+    </row>
+    <row r="37" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="40"/>
+      <c r="B37" s="37"/>
+      <c r="C37" s="42"/>
+      <c r="D37" s="43"/>
+      <c r="E37" s="43"/>
+      <c r="F37" s="43"/>
+      <c r="G37" s="43"/>
+      <c r="H37" s="43"/>
+      <c r="I37" s="43"/>
+      <c r="J37" s="45"/>
+      <c r="K37" s="36"/>
+    </row>
+    <row r="38" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="40"/>
       <c r="B38" s="37"/>
       <c r="C38" s="42"/>
@@ -4347,7 +5717,7 @@
       <c r="J38" s="45"/>
       <c r="K38" s="36"/>
     </row>
-    <row r="39" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="40"/>
       <c r="B39" s="37"/>
       <c r="C39" s="42"/>
@@ -4360,12 +5730,12 @@
       <c r="J39" s="45"/>
       <c r="K39" s="36"/>
     </row>
-    <row r="40" spans="1:19" s="1" customFormat="1" ht="96.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:19" s="1" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A40" s="63">
         <v>6</v>
       </c>
       <c r="B40" s="30" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C40" s="64"/>
       <c r="D40" s="39"/>
@@ -4377,10 +5747,10 @@
       <c r="J40" s="45"/>
       <c r="K40" s="29"/>
     </row>
-    <row r="41" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="18"/>
       <c r="B41" s="37" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C41" s="36">
         <v>1</v>
@@ -4412,7 +5782,7 @@
       <c r="R41" s="25"/>
       <c r="S41" s="25"/>
     </row>
-    <row r="42" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="18"/>
       <c r="B42" s="37"/>
       <c r="C42" s="36">
@@ -4445,10 +5815,10 @@
       <c r="R42" s="25"/>
       <c r="S42" s="25"/>
     </row>
-    <row r="43" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="40"/>
       <c r="B43" s="37" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C43" s="42"/>
       <c r="D43" s="43"/>
@@ -4459,7 +5829,7 @@
         <v>44.016000000000005</v>
       </c>
       <c r="H43" s="33" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I43" s="33">
         <v>9623.4699999999993</v>
@@ -4470,10 +5840,10 @@
       </c>
       <c r="K43" s="36"/>
     </row>
-    <row r="44" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="40"/>
       <c r="B44" s="37" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C44" s="42"/>
       <c r="D44" s="43"/>
@@ -4488,7 +5858,7 @@
       </c>
       <c r="K44" s="36"/>
     </row>
-    <row r="45" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="40"/>
       <c r="B45" s="37"/>
       <c r="C45" s="42"/>
@@ -4501,7 +5871,7 @@
       <c r="J45" s="44"/>
       <c r="K45" s="36"/>
     </row>
-    <row r="46" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="18">
         <v>7</v>
       </c>
@@ -4537,7 +5907,7 @@
       <c r="R46" s="25"/>
       <c r="S46" s="25"/>
     </row>
-    <row r="47" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="18"/>
       <c r="B47" s="24"/>
       <c r="C47" s="19"/>
@@ -4560,7 +5930,7 @@
       <c r="R47" s="25"/>
       <c r="S47" s="25"/>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48" s="40"/>
       <c r="B48" s="46" t="s">
         <v>17</v>
@@ -4578,7 +5948,7 @@
       </c>
       <c r="K48" s="36"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="58"/>
       <c r="B49" s="61"/>
       <c r="C49" s="62"/>
@@ -4591,16 +5961,16 @@
       <c r="J49" s="60"/>
       <c r="K49" s="57"/>
     </row>
-    <row r="50" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="50"/>
       <c r="B50" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="C50" s="71">
+        <v>58</v>
+      </c>
+      <c r="C50" s="68">
         <f>J48</f>
         <v>564335.12685567106</v>
       </c>
-      <c r="D50" s="71"/>
+      <c r="D50" s="68"/>
       <c r="E50" s="39">
         <v>100</v>
       </c>
@@ -4611,15 +5981,15 @@
       <c r="J50" s="54"/>
       <c r="K50" s="55"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="56"/>
       <c r="B51" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="C51" s="74">
+      <c r="C51" s="71">
         <v>500000</v>
       </c>
-      <c r="D51" s="74"/>
+      <c r="D51" s="71"/>
       <c r="E51" s="39"/>
       <c r="F51" s="49"/>
       <c r="G51" s="48"/>
@@ -4628,16 +5998,16 @@
       <c r="J51" s="48"/>
       <c r="K51" s="49"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="56"/>
       <c r="B52" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="C52" s="74">
+      <c r="C52" s="71">
         <f>C51-C54-C55</f>
         <v>475000</v>
       </c>
-      <c r="D52" s="74"/>
+      <c r="D52" s="71"/>
       <c r="E52" s="39">
         <f>C52/C50*100</f>
         <v>84.169844724459523</v>
@@ -4649,16 +6019,16 @@
       <c r="J52" s="48"/>
       <c r="K52" s="49"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="56"/>
       <c r="B53" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="C53" s="71">
+      <c r="C53" s="68">
         <f>C50-C52</f>
         <v>89335.126855671057</v>
       </c>
-      <c r="D53" s="71"/>
+      <c r="D53" s="68"/>
       <c r="E53" s="39">
         <f>100-E52</f>
         <v>15.830155275540477</v>
@@ -4670,16 +6040,16 @@
       <c r="J53" s="48"/>
       <c r="K53" s="49"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="56"/>
       <c r="B54" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="C54" s="71">
+      <c r="C54" s="68">
         <f>C51*0.03</f>
         <v>15000</v>
       </c>
-      <c r="D54" s="71"/>
+      <c r="D54" s="68"/>
       <c r="E54" s="39">
         <v>3</v>
       </c>
@@ -4690,16 +6060,16 @@
       <c r="J54" s="48"/>
       <c r="K54" s="49"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="56"/>
       <c r="B55" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="C55" s="71">
+      <c r="C55" s="68">
         <f>C51*0.02</f>
         <v>10000</v>
       </c>
-      <c r="D55" s="71"/>
+      <c r="D55" s="68"/>
       <c r="E55" s="39">
         <v>2</v>
       </c>
@@ -4710,7 +6080,7 @@
       <c r="J55" s="48"/>
       <c r="K55" s="49"/>
     </row>
-    <row r="56" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="57"/>
       <c r="B56" s="57"/>
       <c r="C56" s="57"/>
@@ -4723,82 +6093,80 @@
       <c r="J56" s="57"/>
       <c r="K56" s="57"/>
     </row>
-    <row r="57" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="58" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="59" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="60" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="61" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="62" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="63" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="64" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="65" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="66" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="67" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="68" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="69" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="70" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="71" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="72" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="73" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="74" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="75" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="76" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="77" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="78" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="79" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="80" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="81" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="82" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="83" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="84" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="85" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="86" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="87" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="88" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="89" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="90" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="91" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="92" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="93" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="94" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="95" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="96" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="97" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="98" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="99" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="100" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="101" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="102" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="103" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="104" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="105" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="106" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="107" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="108" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="109" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="110" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="111" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="112" s="35" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="57" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="58" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="59" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="60" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="61" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="62" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="63" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="64" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="65" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="66" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="67" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="68" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="69" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="70" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="71" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="72" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="73" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="74" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="75" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="76" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="77" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="78" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="79" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="80" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="81" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="82" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="83" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="84" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="85" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="86" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="87" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="88" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="89" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="90" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="91" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="92" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="93" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="94" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="95" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="96" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="97" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="98" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="99" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="100" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="101" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="102" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="103" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="104" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="105" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="106" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="107" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="108" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="109" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="110" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="111" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="112" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="H6:K6"/>
+  <mergeCells count="13">
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C53:D53"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="A2:K2"/>
     <mergeCell ref="A3:K3"/>
     <mergeCell ref="A4:K4"/>
     <mergeCell ref="A5:K5"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="A6:F6"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="70" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="95" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;LPrepared By:&amp;CChecked By:&amp;RApproved By:</oddFooter>
   </headerFooter>
